--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="455">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">dob_year</t>
   </si>
   <si>
-    <t xml:space="preserve">Year entered must be a number between 1920 and 2021. / Mwaka uliyoingizwa unatakiwa kuwa namba kati ya 1920 na 2021 / O ano introduido deve ser um numero entre 1920 e 2021</t>
+    <t xml:space="preserve">Year entered must be a number between 2020 and 2021. / Mwaka uliyoingizwa unatakiwa kuwa namba kati ya 2020 na 2021 / O ano introduido deve ser um numero entre 2020 e 2021</t>
   </si>
   <si>
     <t xml:space="preserve">dob_year_dk</t>
@@ -236,6 +236,12 @@
     <t xml:space="preserve">selected(data('dob_month_dk'), 'dk')</t>
   </si>
   <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q15b</t>
+  </si>
+  <si>
     <t xml:space="preserve">resident_status</t>
   </si>
   <si>
@@ -279,9 +285,6 @@
   </si>
   <si>
     <t xml:space="preserve">q19a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
   </si>
   <si>
     <t xml:space="preserve">q20</t>
@@ -1704,10 +1707,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="M12:M22 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.95"/>
@@ -1755,15 +1758,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="M12" activeCellId="0" sqref="M12:M22"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.63"/>
@@ -2279,7 +2282,7 @@
         <v>57</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>1920</v>
+        <v>2020</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>2021</v>
@@ -2527,27 +2530,20 @@
       <c r="M35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2556,20 +2552,22 @@
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2" t="s">
+      <c r="C37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="H37" s="5"/>
       <c r="I37" s="1" t="s">
         <v>28</v>
       </c>
@@ -2577,34 +2575,40 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="O37" s="0" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
+      <c r="O38" s="0" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2618,16 +2622,16 @@
       <c r="M39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2640,30 +2644,20 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="3"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="O41" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="P41" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
@@ -2672,16 +2666,16 @@
         <v>30</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="E42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2691,27 +2685,37 @@
         <v>82</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="2" t="s">
-        <v>20</v>
+      <c r="C43" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F43" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
+      <c r="O43" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="P43" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1"/>
@@ -2722,7 +2726,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="1"/>
@@ -2733,16 +2737,16 @@
       <c r="M44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="2"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2752,64 +2756,62 @@
       <c r="M45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J46" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="L46" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="Q46" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="M47" s="1"/>
+      <c r="Q47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="1"/>
@@ -2818,21 +2820,20 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="Q48" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2840,18 +2841,21 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
+      <c r="Q49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="2"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2861,64 +2865,62 @@
       <c r="M50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="L51" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="Q51" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="M52" s="1"/>
+      <c r="Q52" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="1"/>
@@ -2927,21 +2929,20 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="Q53" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -2949,18 +2950,21 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
+      <c r="Q54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="2"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -2970,64 +2974,62 @@
       <c r="M55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J56" s="1" t="n">
-        <v>1920</v>
-      </c>
-      <c r="K56" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="L56" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="Q56" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" s="1" t="n">
+        <v>1920</v>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="L57" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="M57" s="1"/>
+      <c r="Q57" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="1"/>
@@ -3036,20 +3038,19 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="Q58" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="1"/>
@@ -3058,85 +3059,87 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
+      <c r="Q59" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>58</v>
-      </c>
+      <c r="A60" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="0" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G61" s="2"/>
+      <c r="C61" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="H61" s="1"/>
-      <c r="I61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J61" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="L61" s="1"/>
       <c r="M61" s="1"/>
+      <c r="N61" s="0" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D62" s="1"/>
       <c r="E62" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F62" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="I62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="L62" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="M62" s="1"/>
-      <c r="Q62" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="1"/>
@@ -3145,14 +3148,20 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
+      <c r="Q63" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>68</v>
-      </c>
+      <c r="A64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3161,11 +3170,11 @@
       <c r="M64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>43</v>
+      <c r="A65" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3173,13 +3182,13 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="0" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>45</v>
+      <c r="C66" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3187,13 +3196,13 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
+      <c r="N66" s="0" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3203,11 +3212,11 @@
       <c r="M67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>52</v>
+      <c r="A68" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3215,13 +3224,13 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="0" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>45</v>
+      <c r="C69" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3229,21 +3238,13 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
+      <c r="N69" s="0" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>86</v>
+      <c r="A70" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3255,22 +3256,19 @@
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G71" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H71" s="5"/>
+      <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -3281,87 +3279,90 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G72" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="1"/>
+      <c r="H72" s="5"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
-      <c r="O72" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="P72" s="0" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="3" t="s">
-        <v>42</v>
+      <c r="C73" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="E73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>95</v>
+      <c r="E73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="L73" s="1"/>
       <c r="M73" s="1"/>
+      <c r="O73" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="P73" s="0" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F74" s="2"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="J74" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
+      <c r="L74" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="M74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="F75" s="2"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3370,16 +3371,20 @@
       <c r="M75" s="1"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -3388,20 +3393,16 @@
       <c r="M76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="2" t="s">
+      <c r="A77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -3410,16 +3411,20 @@
       <c r="M77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -3428,16 +3433,16 @@
       <c r="M78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="F79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -3446,16 +3451,16 @@
       <c r="M79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" s="1"/>
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -3464,88 +3469,89 @@
       <c r="M80" s="1"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
-      <c r="O81" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q81" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D82" s="1"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="1"/>
+      <c r="E82" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
+      <c r="O82" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="2"/>
+      <c r="H83" s="6"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-      <c r="Q83" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="C84" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="2"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
+      <c r="Q84" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
@@ -3566,11 +3572,9 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3584,16 +3588,17 @@
       <c r="M86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -3602,15 +3607,16 @@
       <c r="M87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -3637,11 +3643,9 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3655,15 +3659,15 @@
       <c r="M90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -3672,18 +3676,17 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
-      <c r="N91" s="0" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A92" s="2"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -3692,10 +3695,13 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
+      <c r="N92" s="0" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3709,6 +3715,23 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3729,10 +3752,10 @@
   <dimension ref="A1:C255"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="M12:M22 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
@@ -3741,13 +3764,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3763,62 +3786,62 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>47</v>
@@ -3829,29 +3852,29 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>121</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>47</v>
@@ -3862,161 +3885,161 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>47</v>
@@ -4027,24 +4050,24 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4060,326 +4083,326 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="C41" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="C52" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>47</v>
@@ -4390,381 +4413,381 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>47</v>
@@ -4775,194 +4798,194 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>47</v>
@@ -4973,117 +4996,117 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>47</v>
@@ -5094,84 +5117,84 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>47</v>
@@ -5182,73 +5205,73 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>47</v>
@@ -5259,73 +5282,73 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>47</v>
@@ -5336,40 +5359,40 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>47</v>
@@ -5380,24 +5403,24 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5405,10 +5428,10 @@
         <v>49</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,10 +5439,10 @@
         <v>49</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5427,10 +5450,10 @@
         <v>49</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5438,10 +5461,10 @@
         <v>49</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5449,10 +5472,10 @@
         <v>49</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5460,10 +5483,10 @@
         <v>49</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5471,10 +5494,10 @@
         <v>49</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5482,10 +5505,10 @@
         <v>49</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5493,10 +5516,10 @@
         <v>49</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5504,10 +5527,10 @@
         <v>49</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5515,10 +5538,10 @@
         <v>49</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5526,10 +5549,10 @@
         <v>49</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5548,10 +5571,10 @@
         <v>24</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5559,950 +5582,950 @@
         <v>24</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B222" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B222" s="0" t="s">
-        <v>310</v>
-      </c>
       <c r="C222" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B252" s="0" t="s">
         <v>47</v>
@@ -6513,35 +6536,35 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -6563,10 +6586,10 @@
   <dimension ref="A1:E763"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="1" sqref="M12:M22 C36"/>
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
@@ -6578,7 +6601,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -6587,48 +6610,48 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>345</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>344</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>1</v>
@@ -6636,7 +6659,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>42</v>
@@ -6645,7 +6668,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>42</v>
@@ -6654,7 +6677,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>42</v>
@@ -6663,7 +6686,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>42</v>
@@ -6672,7 +6695,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>42</v>
@@ -6681,7 +6704,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>42</v>
@@ -6690,7 +6713,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>42</v>
@@ -6699,7 +6722,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>7</v>
@@ -6804,31 +6827,31 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>30</v>
@@ -6837,31 +6860,31 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>42</v>
@@ -6870,19 +6893,19 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>46</v>
@@ -6894,43 +6917,43 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>46</v>
@@ -6942,16 +6965,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>42</v>
@@ -6960,31 +6983,31 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>25</v>
@@ -6999,16 +7022,16 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="E40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>42</v>
@@ -7017,85 +7040,85 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>42</v>
@@ -7104,7 +7127,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>46</v>
@@ -7116,19 +7139,19 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>42</v>
@@ -7137,7 +7160,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>46</v>
@@ -7149,19 +7172,19 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>46</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>30</v>
@@ -7170,169 +7193,169 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C65" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>30</v>
@@ -7341,31 +7364,31 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="14" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>30</v>
@@ -7374,19 +7397,19 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>30</v>
@@ -7395,31 +7418,31 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="14" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>30</v>
@@ -7428,175 +7451,175 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="14" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="14" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="14" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>42</v>
@@ -7605,7 +7628,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>23</v>
@@ -7617,115 +7640,115 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="14" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C101" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="14" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>42</v>
@@ -9731,10 +9754,10 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="M12:M22 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.93"/>
@@ -9746,42 +9769,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>20210207001</v>
@@ -9790,31 +9813,31 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
@@ -9823,44 +9846,44 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="611">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -1854,6 +1854,9 @@
   </si>
   <si>
     <t xml:space="preserve">Kiswahili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">showFooter</t>
   </si>
 </sst>
 </file>
@@ -2225,7 +2228,7 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F67" activeCellId="0" sqref="F67"/>
@@ -4321,7 +4324,7 @@
       <selection pane="topLeft" activeCell="A256" activeCellId="0" sqref="A256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
@@ -8750,7 +8753,7 @@
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
@@ -11912,10 +11915,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12047,6 +12050,14 @@
         <v>609</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="614">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -80,6 +80,9 @@
     <t xml:space="preserve">calculation</t>
   </si>
   <si>
+    <t xml:space="preserve">choice_filter</t>
+  </si>
+  <si>
     <t xml:space="preserve">constraint</t>
   </si>
   <si>
@@ -227,19 +230,25 @@
     <t xml:space="preserve">year</t>
   </si>
   <si>
+    <t xml:space="preserve">year_hint_new_born</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('dob_year_dk'), 'dk')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob_year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year_choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not(selected(data('dob_year_dk'), 'dk'))</t>
+  </si>
+  <si>
     <t xml:space="preserve">year_hint</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(data('dob_year_dk'), 'dk')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dob_year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year_choice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not(selected(data('dob_year_dk'), 'dk'))</t>
+    <t xml:space="preserve">choice_item.data_value &gt;= 2020</t>
   </si>
   <si>
     <t xml:space="preserve">selected(data('dob_year_dk'), 'dk') || selected(data('dob_day_dk'), 'dk') || selected(data('dob_month_dk'), 'dk') || moment(data('dob_year') + '-' + data('dob_month') + '-' + data('dob_day'), 'YYYY-M-D').isValid()</t>
@@ -2226,12 +2235,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F67" activeCellId="0" sqref="F67"/>
+      <selection pane="bottomLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2249,7 +2258,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,17 +2319,20 @@
       <c r="S1" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="T1" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2333,7 +2345,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2353,16 +2365,16 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2377,10 +2389,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2399,12 +2411,12 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2419,72 +2431,72 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="P7" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="Q7" s="0" t="s">
         <v>35</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="P8" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="Q8" s="0" t="s">
         <v>39</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
@@ -2499,15 +2511,15 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2519,10 +2531,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2540,11 +2552,11 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12" s="1"/>
@@ -2554,13 +2566,13 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="O12" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="Q12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -2578,41 +2590,41 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="P14" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="Q14" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="S14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S14" s="0" t="s">
-        <v>54</v>
+      <c r="T14" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -2630,13 +2642,13 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="2"/>
       <c r="H16" s="1"/>
@@ -2645,7 +2657,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,15 +2665,15 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2669,14 +2681,14 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2693,11 +2705,11 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -2707,12 +2719,12 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="O19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -2730,36 +2742,36 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S21" s="0" t="s">
-        <v>54</v>
+      <c r="T21" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -2773,19 +2785,19 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2796,7 +2808,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2804,15 +2816,15 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2824,10 +2836,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1"/>
@@ -2846,10 +2858,10 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2859,12 +2871,12 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2884,43 +2896,46 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="P28" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="R28" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S28" s="0" t="s">
-        <v>54</v>
+      <c r="T28" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -2938,13 +2953,13 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2953,16 +2968,16 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2974,17 +2989,17 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="n">
@@ -2998,13 +3013,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3013,13 +3028,13 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="R33" s="0" t="n">
+      <c r="S33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3031,16 +3046,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -3054,23 +3069,23 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3082,34 +3097,34 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="P37" s="0" t="s">
-        <v>88</v>
+      <c r="Q37" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3127,10 +3142,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3149,12 +3164,12 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3169,72 +3184,72 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="P41" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="Q41" s="0" t="s">
-        <v>35</v>
+        <v>95</v>
+      </c>
+      <c r="R41" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="P42" s="0" t="s">
-        <v>94</v>
-      </c>
       <c r="Q42" s="0" t="s">
-        <v>39</v>
+        <v>97</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
@@ -3249,15 +3264,15 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3269,10 +3284,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
@@ -3291,11 +3306,11 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3307,12 +3322,12 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2"/>
@@ -3332,43 +3347,43 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="P48" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="Q48" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="R48" s="0" t="n">
+      <c r="R48" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="S48" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S48" s="0" t="s">
-        <v>54</v>
+      <c r="T48" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -3388,13 +3403,13 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3405,7 +3420,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="R50" s="0" t="n">
+      <c r="S50" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3413,15 +3428,15 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3433,10 +3448,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3455,11 +3470,11 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3471,12 +3486,12 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
@@ -3496,37 +3511,37 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="R55" s="0" t="n">
+      <c r="S55" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S55" s="0" t="s">
-        <v>54</v>
+      <c r="T55" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
@@ -3546,13 +3561,13 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3563,7 +3578,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="R57" s="0" t="n">
+      <c r="S57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3571,15 +3586,15 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3591,10 +3606,10 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
@@ -3613,10 +3628,10 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3626,12 +3641,12 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
@@ -3651,43 +3666,43 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="P62" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="Q62" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="R62" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="R62" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S62" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S62" s="0" t="s">
-        <v>54</v>
+      <c r="T62" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
@@ -3705,13 +3720,13 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3720,16 +3735,16 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="R64" s="0" t="n">
+      <c r="S64" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3741,17 +3756,17 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="n">
@@ -3765,13 +3780,13 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3780,13 +3795,13 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="R67" s="0" t="n">
+      <c r="S67" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3800,16 +3815,16 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3823,19 +3838,19 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="1"/>
@@ -3849,14 +3864,14 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3865,25 +3880,25 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="P71" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="Q71" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="R71" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -3901,13 +3916,13 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F73" s="2"/>
       <c r="H73" s="1"/>
@@ -3922,16 +3937,16 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -3943,10 +3958,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3964,16 +3979,16 @@
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -3985,10 +4000,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -4006,12 +4021,12 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -4023,10 +4038,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -4044,33 +4059,33 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="P80" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="R80" s="0" t="n">
+      <c r="Q80" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="S80" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="2"/>
@@ -4089,13 +4104,13 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -4106,13 +4121,13 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-      <c r="R82" s="0" t="n">
+      <c r="S82" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4130,7 +4145,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4148,10 +4163,10 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4170,12 +4185,12 @@
       <c r="A86" s="2"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -4187,7 +4202,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4205,7 +4220,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4223,10 +4238,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4245,11 +4260,11 @@
       <c r="A90" s="2"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -4261,12 +4276,12 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4284,7 +4299,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4300,8 +4315,6 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4324,7 +4337,7 @@
       <selection pane="topLeft" activeCell="A256" activeCellId="0" sqref="A256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.2"/>
@@ -4333,4402 +4346,4402 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>157</v>
-      </c>
       <c r="C50" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B220" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B220" s="0" t="s">
-        <v>319</v>
-      </c>
       <c r="C220" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B256" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B257" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B258" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>15</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>16</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>17</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>18</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>19</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>20</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>24</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>25</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>26</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>27</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>28</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>29</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>30</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>31</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B301" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B302" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B303" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B304" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B305" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B306" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B307" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B308" s="0" t="n">
         <v>2012</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B309" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B310" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B311" s="0" t="n">
         <v>2009</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B312" s="0" t="n">
         <v>2008</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B313" s="0" t="n">
         <v>2007</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B314" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B315" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B316" s="0" t="n">
         <v>2004</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B317" s="0" t="n">
         <v>2003</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B318" s="0" t="n">
         <v>2002</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B319" s="0" t="n">
         <v>2001</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B320" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B321" s="0" t="n">
         <v>1999</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B322" s="0" t="n">
         <v>1998</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B323" s="0" t="n">
         <v>1997</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B324" s="0" t="n">
         <v>1996</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B325" s="0" t="n">
         <v>1995</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B326" s="0" t="n">
         <v>1994</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B327" s="0" t="n">
         <v>1993</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B328" s="0" t="n">
         <v>1992</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B329" s="0" t="n">
         <v>1991</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B330" s="0" t="n">
         <v>1990</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B331" s="0" t="n">
         <v>1989</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B332" s="0" t="n">
         <v>1988</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B333" s="0" t="n">
         <v>1987</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B334" s="0" t="n">
         <v>1986</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B335" s="0" t="n">
         <v>1985</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B336" s="0" t="n">
         <v>1984</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B337" s="0" t="n">
         <v>1983</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B338" s="0" t="n">
         <v>1982</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B339" s="0" t="n">
         <v>1981</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B340" s="0" t="n">
         <v>1980</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B341" s="0" t="n">
         <v>1979</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B342" s="0" t="n">
         <v>1978</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B343" s="0" t="n">
         <v>1977</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B344" s="0" t="n">
         <v>1976</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B345" s="0" t="n">
         <v>1975</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B346" s="0" t="n">
         <v>1974</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B347" s="0" t="n">
         <v>1973</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B348" s="0" t="n">
         <v>1972</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B349" s="0" t="n">
         <v>1971</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B350" s="0" t="n">
         <v>1970</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B351" s="0" t="n">
         <v>1969</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B352" s="0" t="n">
         <v>1968</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B353" s="0" t="n">
         <v>1967</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B354" s="0" t="n">
         <v>1966</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B355" s="0" t="n">
         <v>1965</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B356" s="0" t="n">
         <v>1964</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B357" s="0" t="n">
         <v>1963</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B358" s="0" t="n">
         <v>1962</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B359" s="0" t="n">
         <v>1961</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B360" s="0" t="n">
         <v>1960</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B361" s="0" t="n">
         <v>1959</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B362" s="0" t="n">
         <v>1958</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B363" s="0" t="n">
         <v>1957</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B364" s="0" t="n">
         <v>1956</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B365" s="0" t="n">
         <v>1955</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B366" s="0" t="n">
         <v>1954</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B367" s="0" t="n">
         <v>1953</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B368" s="0" t="n">
         <v>1952</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B369" s="0" t="n">
         <v>1951</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B370" s="0" t="n">
         <v>1950</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B371" s="0" t="n">
         <v>1949</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B372" s="0" t="n">
         <v>1948</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B373" s="0" t="n">
         <v>1947</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B374" s="0" t="n">
         <v>1946</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B375" s="0" t="n">
         <v>1945</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B376" s="0" t="n">
         <v>1944</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B377" s="0" t="n">
         <v>1943</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B378" s="0" t="n">
         <v>1942</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B379" s="0" t="n">
         <v>1941</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B380" s="0" t="n">
         <v>1940</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B381" s="0" t="n">
         <v>1939</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B382" s="0" t="n">
         <v>1938</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B383" s="0" t="n">
         <v>1937</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B384" s="0" t="n">
         <v>1936</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B385" s="0" t="n">
         <v>1935</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B386" s="0" t="n">
         <v>1934</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B387" s="0" t="n">
         <v>1933</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B388" s="0" t="n">
         <v>1932</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B389" s="0" t="n">
         <v>1931</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B390" s="0" t="n">
         <v>1930</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B391" s="0" t="n">
         <v>1929</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B392" s="0" t="n">
         <v>1928</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B393" s="0" t="n">
         <v>1927</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B394" s="0" t="n">
         <v>1926</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B395" s="0" t="n">
         <v>1925</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B396" s="0" t="n">
         <v>1924</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B397" s="0" t="n">
         <v>1923</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B398" s="0" t="n">
         <v>1922</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B399" s="0" t="n">
         <v>1921</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B400" s="0" t="n">
         <v>1920</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -8753,7 +8766,7 @@
       <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
@@ -8765,7 +8778,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -8774,48 +8787,48 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="8" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>500</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>1</v>
@@ -8823,1099 +8836,1099 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="8" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="8" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="8" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="8" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="10" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="10" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="10" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="10" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="11" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="11" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="11" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="11" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="11" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="E39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="13" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="13" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="13" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="13" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="13" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="13" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="13" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="14" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="14" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="14" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="14" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="14" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>547</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>544</v>
       </c>
       <c r="E62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="14" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="14" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="14" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="14" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="14" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="14" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="14" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="14" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="14" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="14" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="14" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="14" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="14" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="14" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="14" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="14" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="14" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="14" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="14" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="14" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="14" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="14" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="14" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="14" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="14" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="14" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="14" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="14" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="14" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="14" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="14" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="14" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="14" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="14" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="14" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="14" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="14" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="14" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="14" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="14" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E103" s="7"/>
     </row>
@@ -11917,7 +11930,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -11933,42 +11946,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>20210221001</v>
@@ -11977,31 +11990,31 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
@@ -12010,49 +12023,49 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="619">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -404,13 +404,13 @@
     <t xml:space="preserve">selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk')</t>
   </si>
   <si>
-    <t xml:space="preserve">assign_extid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(data('id') || '').trim() === '' &amp;&amp; (selected(data('new_member_newborn_or_moved_in'), 'newborn') || selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk'))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data('id_candidate')</t>
+    <t xml:space="preserve">assigned_extid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn') || selected(data('move_from'),  'outside_district') || selected(data('move_from'),  'dk') || selected(data('move_from_census_extid_not_possible'), 'not_possible') || selected(data('move_from_district_census'), 'no') || selected(data('move_from_district_census'), 'dk')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('id_candidate')[data('resident_status')]</t>
   </si>
   <si>
     <t xml:space="preserve">end screen</t>
@@ -1523,12 +1523,21 @@
     <t xml:space="preserve">comment</t>
   </si>
   <si>
+    <t xml:space="preserve">elementType</t>
+  </si>
+  <si>
     <t xml:space="preserve">valuesList</t>
   </si>
   <si>
     <t xml:space="preserve">isSessionVariable</t>
   </si>
   <si>
+    <t xml:space="preserve">properties.resident.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">properties.non_resident.type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assigned by household form</t>
   </si>
   <si>
@@ -1545,6 +1554,12 @@
   </si>
   <si>
     <t xml:space="preserve">id_candidate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extIdObj</t>
   </si>
   <si>
     <t xml:space="preserve">form_status_hh_member</t>
@@ -2237,10 +2252,10 @@
   </sheetPr>
   <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="F86" activeCellId="0" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4333,8 +4348,8 @@
   </sheetPr>
   <dimension ref="A1:C400"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A256" activeCellId="0" sqref="A256"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A205" activeCellId="0" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8760,19 +8775,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E763"/>
+  <dimension ref="A1:H763"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="10.5"/>
   </cols>
   <sheetData>
@@ -8789,117 +8807,145 @@
       <c r="D1" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="0" t="s">
         <v>500</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="7"/>
+        <v>506</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>506</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="8" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>506</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>1</v>
+      <c r="H5" s="0" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="8" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="8" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="8" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="8" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>7</v>
@@ -8907,7 +8953,8 @@
       <c r="C13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="9" t="s">
@@ -8916,7 +8963,8 @@
       <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9" t="s">
@@ -8925,7 +8973,8 @@
       <c r="C15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="9" t="s">
@@ -8934,10 +8983,11 @@
       <c r="C16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="9" t="s">
@@ -8946,7 +8996,8 @@
       <c r="C17" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="9" t="s">
@@ -8955,10 +9006,11 @@
       <c r="C18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="9" t="s">
@@ -8967,7 +9019,8 @@
       <c r="C19" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="9" t="s">
@@ -8976,10 +9029,11 @@
       <c r="C20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="9" t="s">
@@ -8988,7 +9042,8 @@
       <c r="C21" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="D21" s="9"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="9" t="s">
@@ -8997,10 +9052,11 @@
       <c r="C22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="9" t="s">
@@ -9009,10 +9065,11 @@
       <c r="C23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="9" t="s">
@@ -9021,10 +9078,11 @@
       <c r="C24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="9" t="s">
@@ -9033,64 +9091,70 @@
       <c r="C25" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="D25" s="9"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="10" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="E27" s="7"/>
+        <v>523</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="10" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="D28" s="10"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="10" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="10" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="10" t="s">
@@ -9099,14 +9163,15 @@
       <c r="C31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>260</v>
@@ -9114,77 +9179,84 @@
       <c r="C32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="11" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="D33" s="11"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="11" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="11" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="D35" s="11"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="11" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="D36" s="11"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="11" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>28</v>
@@ -9192,10 +9264,11 @@
       <c r="C39" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="12"/>
+      <c r="E39" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="12" t="s">
@@ -9204,7 +9277,8 @@
       <c r="C40" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="D40" s="12"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="12" t="s">
@@ -9213,7 +9287,8 @@
       <c r="C41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="D41" s="12"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="12" t="s">
@@ -9222,10 +9297,11 @@
       <c r="C42" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="12"/>
+      <c r="E42" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="12" t="s">
@@ -9234,10 +9310,11 @@
       <c r="C43" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="12"/>
+      <c r="E43" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="12" t="s">
@@ -9246,10 +9323,11 @@
       <c r="C44" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="12" t="s">
@@ -9258,229 +9336,249 @@
       <c r="C45" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="12"/>
+      <c r="E45" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="9"/>
+      <c r="E46" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="9" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="9"/>
+      <c r="E47" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="7"/>
+      <c r="D48" s="13"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="13" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="13"/>
+      <c r="E49" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="13" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="13"/>
+      <c r="E50" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="13" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="D51" s="13"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="13" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="13"/>
+      <c r="E52" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="13" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="13"/>
+      <c r="E53" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="13" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E54" s="7"/>
+      <c r="D54" s="13"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="13" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="13"/>
+      <c r="E55" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C56" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="14"/>
+      <c r="E56" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="14" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="14"/>
+      <c r="E57" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="14" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="14"/>
+      <c r="E58" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="14" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="E59" s="7"/>
+        <v>552</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="F59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="14" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="14"/>
+      <c r="E60" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="14" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="E61" s="7"/>
+        <v>552</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="F61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="14" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="E62" s="7"/>
+        <v>552</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="14" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="14"/>
+      <c r="E63" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="14" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C64" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="14"/>
+      <c r="E64" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="14" t="s">
@@ -9489,331 +9587,360 @@
       <c r="C65" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="14"/>
+      <c r="E65" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="14" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="E66" s="7"/>
+        <v>559</v>
+      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="14" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C67" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="14"/>
+      <c r="E67" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="14" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="14"/>
+      <c r="E68" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="14" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="7"/>
+      <c r="D69" s="14"/>
+      <c r="F69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="14" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="14"/>
+      <c r="E70" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="14" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="14"/>
+      <c r="E71" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="14" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C72" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E72" s="7"/>
+      <c r="D72" s="14"/>
+      <c r="F72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="14" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="14"/>
+      <c r="E73" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="14" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E74" s="7"/>
+      <c r="D74" s="14"/>
+      <c r="F74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="14" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="14"/>
+      <c r="E75" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="14" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="14"/>
+      <c r="E76" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="14" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="C77" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E77" s="7"/>
+      <c r="D77" s="14"/>
+      <c r="F77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="14" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="14"/>
+      <c r="E78" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="14" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C79" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="14"/>
+      <c r="E79" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="14" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C80" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="14"/>
+      <c r="E80" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="14" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="14"/>
+      <c r="E81" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="14" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="14"/>
+      <c r="E82" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="14" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C83" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="14"/>
+      <c r="E83" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="14" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="14"/>
+      <c r="E84" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="14" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="14"/>
+      <c r="E85" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="14" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="14"/>
+      <c r="E86" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="14" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="14"/>
+      <c r="E87" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="14" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="14"/>
+      <c r="E88" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="14" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="C89" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="14"/>
+      <c r="E89" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="14" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="14"/>
+      <c r="E90" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="14" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="14"/>
+      <c r="E91" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="14" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E92" s="7"/>
+      <c r="D92" s="14"/>
+      <c r="F92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="14" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="14"/>
+      <c r="E93" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="14" t="s">
@@ -9822,82 +9949,89 @@
       <c r="C94" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="14"/>
+      <c r="E94" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="14" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="14"/>
+      <c r="E95" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="14" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="14"/>
+      <c r="E96" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="14" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="14"/>
+      <c r="E97" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="14" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="14"/>
+      <c r="E98" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="14" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C99" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="14"/>
+      <c r="E99" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="14" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C100" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="14"/>
+      <c r="E100" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="14" t="s">
@@ -9906,2011 +10040,2014 @@
       <c r="C101" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="14"/>
+      <c r="E101" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="14" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C102" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="14"/>
+      <c r="E102" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="14" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C103" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E103" s="7"/>
+      <c r="D103" s="14"/>
+      <c r="F103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E205" s="7"/>
+      <c r="F205" s="7"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E206" s="7"/>
+      <c r="F206" s="7"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E208" s="7"/>
+      <c r="F208" s="7"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E209" s="7"/>
+      <c r="F209" s="7"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E212" s="7"/>
+      <c r="F212" s="7"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E214" s="7"/>
+      <c r="F214" s="7"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E215" s="7"/>
+      <c r="F215" s="7"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E218" s="7"/>
+      <c r="F218" s="7"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E223" s="7"/>
+      <c r="F223" s="7"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E224" s="7"/>
+      <c r="F224" s="7"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E227" s="7"/>
+      <c r="F227" s="7"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E231" s="7"/>
+      <c r="F231" s="7"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E234" s="7"/>
+      <c r="F234" s="7"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E235" s="7"/>
+      <c r="F235" s="7"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E236" s="7"/>
+      <c r="F236" s="7"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E237" s="7"/>
+      <c r="F237" s="7"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E239" s="7"/>
+      <c r="F239" s="7"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E244" s="7"/>
+      <c r="F244" s="7"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E245" s="7"/>
+      <c r="F245" s="7"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E246" s="7"/>
+      <c r="F246" s="7"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E247" s="7"/>
+      <c r="F247" s="7"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E248" s="7"/>
+      <c r="F248" s="7"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E249" s="7"/>
+      <c r="F249" s="7"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E251" s="7"/>
+      <c r="F251" s="7"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E252" s="7"/>
+      <c r="F252" s="7"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E253" s="7"/>
+      <c r="F253" s="7"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E255" s="7"/>
+      <c r="F255" s="7"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E256" s="7"/>
+      <c r="F256" s="7"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E257" s="7"/>
+      <c r="F257" s="7"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E258" s="7"/>
+      <c r="F258" s="7"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E259" s="7"/>
+      <c r="F259" s="7"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E260" s="7"/>
+      <c r="F260" s="7"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E261" s="7"/>
+      <c r="F261" s="7"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E263" s="7"/>
+      <c r="F263" s="7"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E264" s="7"/>
+      <c r="F264" s="7"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E265" s="7"/>
+      <c r="F265" s="7"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E266" s="7"/>
+      <c r="F266" s="7"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E268" s="7"/>
+      <c r="F268" s="7"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E269" s="7"/>
+      <c r="F269" s="7"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E270" s="7"/>
+      <c r="F270" s="7"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E272" s="7"/>
+      <c r="F272" s="7"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E273" s="7"/>
+      <c r="F273" s="7"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E274" s="7"/>
+      <c r="F274" s="7"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E277" s="7"/>
+      <c r="F277" s="7"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E278" s="7"/>
+      <c r="F278" s="7"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E279" s="7"/>
+      <c r="F279" s="7"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E280" s="7"/>
+      <c r="F280" s="7"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E281" s="7"/>
+      <c r="F281" s="7"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E282" s="7"/>
+      <c r="F282" s="7"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E283" s="7"/>
+      <c r="F283" s="7"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E284" s="7"/>
+      <c r="F284" s="7"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E285" s="7"/>
+      <c r="F285" s="7"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E287" s="7"/>
+      <c r="F287" s="7"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E288" s="7"/>
+      <c r="F288" s="7"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E289" s="7"/>
+      <c r="F289" s="7"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E290" s="7"/>
+      <c r="F290" s="7"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E291" s="7"/>
+      <c r="F291" s="7"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E292" s="7"/>
+      <c r="F292" s="7"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E293" s="7"/>
+      <c r="F293" s="7"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E294" s="7"/>
+      <c r="F294" s="7"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E295" s="7"/>
+      <c r="F295" s="7"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E296" s="7"/>
+      <c r="F296" s="7"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E297" s="7"/>
+      <c r="F297" s="7"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E298" s="7"/>
+      <c r="F298" s="7"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E299" s="7"/>
+      <c r="F299" s="7"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E300" s="7"/>
+      <c r="F300" s="7"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E301" s="7"/>
+      <c r="F301" s="7"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E302" s="7"/>
+      <c r="F302" s="7"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E303" s="7"/>
+      <c r="F303" s="7"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E304" s="7"/>
+      <c r="F304" s="7"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E305" s="7"/>
+      <c r="F305" s="7"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E306" s="7"/>
+      <c r="F306" s="7"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E307" s="7"/>
+      <c r="F307" s="7"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E308" s="7"/>
+      <c r="F308" s="7"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E309" s="7"/>
+      <c r="F309" s="7"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E311" s="7"/>
+      <c r="F311" s="7"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E312" s="7"/>
+      <c r="F312" s="7"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E313" s="7"/>
+      <c r="F313" s="7"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E314" s="7"/>
+      <c r="F314" s="7"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E315" s="7"/>
+      <c r="F315" s="7"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E316" s="7"/>
+      <c r="F316" s="7"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E317" s="7"/>
+      <c r="F317" s="7"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E318" s="7"/>
+      <c r="F318" s="7"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E319" s="7"/>
+      <c r="F319" s="7"/>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E320" s="7"/>
+      <c r="F320" s="7"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E321" s="7"/>
+      <c r="F321" s="7"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E322" s="7"/>
+      <c r="F322" s="7"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E323" s="7"/>
+      <c r="F323" s="7"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E324" s="7"/>
+      <c r="F324" s="7"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E325" s="7"/>
+      <c r="F325" s="7"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E326" s="7"/>
+      <c r="F326" s="7"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E327" s="7"/>
+      <c r="F327" s="7"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E328" s="7"/>
+      <c r="F328" s="7"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E329" s="7"/>
+      <c r="F329" s="7"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E330" s="7"/>
+      <c r="F330" s="7"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E331" s="7"/>
+      <c r="F331" s="7"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E332" s="7"/>
+      <c r="F332" s="7"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E333" s="7"/>
+      <c r="F333" s="7"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E334" s="7"/>
+      <c r="F334" s="7"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E335" s="7"/>
+      <c r="F335" s="7"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E336" s="7"/>
+      <c r="F336" s="7"/>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E337" s="7"/>
+      <c r="F337" s="7"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E338" s="7"/>
+      <c r="F338" s="7"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E339" s="7"/>
+      <c r="F339" s="7"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E340" s="7"/>
+      <c r="F340" s="7"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E341" s="7"/>
+      <c r="F341" s="7"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E342" s="7"/>
+      <c r="F342" s="7"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E343" s="7"/>
+      <c r="F343" s="7"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E344" s="7"/>
+      <c r="F344" s="7"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E345" s="7"/>
+      <c r="F345" s="7"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E346" s="7"/>
+      <c r="F346" s="7"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E347" s="7"/>
+      <c r="F347" s="7"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E348" s="7"/>
+      <c r="F348" s="7"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E349" s="7"/>
+      <c r="F349" s="7"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E350" s="7"/>
+      <c r="F350" s="7"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E351" s="7"/>
+      <c r="F351" s="7"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E352" s="7"/>
+      <c r="F352" s="7"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E353" s="7"/>
+      <c r="F353" s="7"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E354" s="7"/>
+      <c r="F354" s="7"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E355" s="7"/>
+      <c r="F355" s="7"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E356" s="7"/>
+      <c r="F356" s="7"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E357" s="7"/>
+      <c r="F357" s="7"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E358" s="7"/>
+      <c r="F358" s="7"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E359" s="7"/>
+      <c r="F359" s="7"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E360" s="7"/>
+      <c r="F360" s="7"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E361" s="7"/>
+      <c r="F361" s="7"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E362" s="7"/>
+      <c r="F362" s="7"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E363" s="7"/>
+      <c r="F363" s="7"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E364" s="7"/>
+      <c r="F364" s="7"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E365" s="7"/>
+      <c r="F365" s="7"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E366" s="7"/>
+      <c r="F366" s="7"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E367" s="7"/>
+      <c r="F367" s="7"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E368" s="7"/>
+      <c r="F368" s="7"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E369" s="7"/>
+      <c r="F369" s="7"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E370" s="7"/>
+      <c r="F370" s="7"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E371" s="7"/>
+      <c r="F371" s="7"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E372" s="7"/>
+      <c r="F372" s="7"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E373" s="7"/>
+      <c r="F373" s="7"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E374" s="7"/>
+      <c r="F374" s="7"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E375" s="7"/>
+      <c r="F375" s="7"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E376" s="7"/>
+      <c r="F376" s="7"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E377" s="7"/>
+      <c r="F377" s="7"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E378" s="7"/>
+      <c r="F378" s="7"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E379" s="7"/>
+      <c r="F379" s="7"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E380" s="7"/>
+      <c r="F380" s="7"/>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E381" s="7"/>
+      <c r="F381" s="7"/>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E382" s="7"/>
+      <c r="F382" s="7"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E383" s="7"/>
+      <c r="F383" s="7"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E384" s="7"/>
+      <c r="F384" s="7"/>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E385" s="7"/>
+      <c r="F385" s="7"/>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E386" s="7"/>
+      <c r="F386" s="7"/>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E387" s="7"/>
+      <c r="F387" s="7"/>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E388" s="7"/>
+      <c r="F388" s="7"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E389" s="7"/>
+      <c r="F389" s="7"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E390" s="7"/>
+      <c r="F390" s="7"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E391" s="7"/>
+      <c r="F391" s="7"/>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E392" s="7"/>
+      <c r="F392" s="7"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E393" s="7"/>
+      <c r="F393" s="7"/>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E394" s="7"/>
+      <c r="F394" s="7"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E395" s="7"/>
+      <c r="F395" s="7"/>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E396" s="7"/>
+      <c r="F396" s="7"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E397" s="7"/>
+      <c r="F397" s="7"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E398" s="7"/>
+      <c r="F398" s="7"/>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E399" s="7"/>
+      <c r="F399" s="7"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E400" s="7"/>
+      <c r="F400" s="7"/>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E401" s="7"/>
+      <c r="F401" s="7"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E402" s="7"/>
+      <c r="F402" s="7"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E403" s="7"/>
+      <c r="F403" s="7"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E404" s="7"/>
+      <c r="F404" s="7"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E405" s="7"/>
+      <c r="F405" s="7"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E406" s="7"/>
+      <c r="F406" s="7"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E407" s="7"/>
+      <c r="F407" s="7"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E408" s="7"/>
+      <c r="F408" s="7"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E409" s="7"/>
+      <c r="F409" s="7"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E410" s="7"/>
+      <c r="F410" s="7"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E411" s="7"/>
+      <c r="F411" s="7"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E412" s="7"/>
+      <c r="F412" s="7"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E413" s="7"/>
+      <c r="F413" s="7"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E414" s="7"/>
+      <c r="F414" s="7"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E415" s="7"/>
+      <c r="F415" s="7"/>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E416" s="7"/>
+      <c r="F416" s="7"/>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E417" s="7"/>
+      <c r="F417" s="7"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E418" s="7"/>
+      <c r="F418" s="7"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E419" s="7"/>
+      <c r="F419" s="7"/>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E420" s="7"/>
+      <c r="F420" s="7"/>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E421" s="7"/>
+      <c r="F421" s="7"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E422" s="7"/>
+      <c r="F422" s="7"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E423" s="7"/>
+      <c r="F423" s="7"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E424" s="7"/>
+      <c r="F424" s="7"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E425" s="7"/>
+      <c r="F425" s="7"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E426" s="7"/>
+      <c r="F426" s="7"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E427" s="7"/>
+      <c r="F427" s="7"/>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E428" s="7"/>
+      <c r="F428" s="7"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E429" s="7"/>
+      <c r="F429" s="7"/>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E430" s="7"/>
+      <c r="F430" s="7"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E431" s="7"/>
+      <c r="F431" s="7"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E432" s="7"/>
+      <c r="F432" s="7"/>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E433" s="7"/>
+      <c r="F433" s="7"/>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E434" s="7"/>
+      <c r="F434" s="7"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E435" s="7"/>
+      <c r="F435" s="7"/>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E436" s="7"/>
+      <c r="F436" s="7"/>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E437" s="7"/>
+      <c r="F437" s="7"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E438" s="7"/>
+      <c r="F438" s="7"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E439" s="7"/>
+      <c r="F439" s="7"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E440" s="7"/>
+      <c r="F440" s="7"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E441" s="7"/>
+      <c r="F441" s="7"/>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E442" s="7"/>
+      <c r="F442" s="7"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E443" s="7"/>
+      <c r="F443" s="7"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E444" s="7"/>
+      <c r="F444" s="7"/>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E445" s="7"/>
+      <c r="F445" s="7"/>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E446" s="7"/>
+      <c r="F446" s="7"/>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E447" s="7"/>
+      <c r="F447" s="7"/>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E448" s="7"/>
+      <c r="F448" s="7"/>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E449" s="7"/>
+      <c r="F449" s="7"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E450" s="7"/>
+      <c r="F450" s="7"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E451" s="7"/>
+      <c r="F451" s="7"/>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E452" s="7"/>
+      <c r="F452" s="7"/>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E453" s="7"/>
+      <c r="F453" s="7"/>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E454" s="7"/>
+      <c r="F454" s="7"/>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E455" s="7"/>
+      <c r="F455" s="7"/>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E456" s="7"/>
+      <c r="F456" s="7"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E457" s="7"/>
+      <c r="F457" s="7"/>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E458" s="7"/>
+      <c r="F458" s="7"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E459" s="7"/>
+      <c r="F459" s="7"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E460" s="7"/>
+      <c r="F460" s="7"/>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E461" s="7"/>
+      <c r="F461" s="7"/>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E462" s="7"/>
+      <c r="F462" s="7"/>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E463" s="7"/>
+      <c r="F463" s="7"/>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E464" s="7"/>
+      <c r="F464" s="7"/>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E465" s="7"/>
+      <c r="F465" s="7"/>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E466" s="7"/>
+      <c r="F466" s="7"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E467" s="7"/>
+      <c r="F467" s="7"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E468" s="7"/>
+      <c r="F468" s="7"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E469" s="7"/>
+      <c r="F469" s="7"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E470" s="7"/>
+      <c r="F470" s="7"/>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E471" s="7"/>
+      <c r="F471" s="7"/>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E472" s="7"/>
+      <c r="F472" s="7"/>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E473" s="7"/>
+      <c r="F473" s="7"/>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E474" s="7"/>
+      <c r="F474" s="7"/>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E475" s="7"/>
+      <c r="F475" s="7"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E476" s="7"/>
+      <c r="F476" s="7"/>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E477" s="7"/>
+      <c r="F477" s="7"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E478" s="7"/>
+      <c r="F478" s="7"/>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E479" s="7"/>
+      <c r="F479" s="7"/>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E480" s="7"/>
+      <c r="F480" s="7"/>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E481" s="7"/>
+      <c r="F481" s="7"/>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E482" s="7"/>
+      <c r="F482" s="7"/>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E483" s="7"/>
+      <c r="F483" s="7"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E484" s="7"/>
+      <c r="F484" s="7"/>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E485" s="7"/>
+      <c r="F485" s="7"/>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E486" s="7"/>
+      <c r="F486" s="7"/>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E487" s="7"/>
+      <c r="F487" s="7"/>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E488" s="7"/>
+      <c r="F488" s="7"/>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E489" s="7"/>
+      <c r="F489" s="7"/>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E490" s="7"/>
+      <c r="F490" s="7"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E491" s="7"/>
+      <c r="F491" s="7"/>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E492" s="7"/>
+      <c r="F492" s="7"/>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E493" s="7"/>
+      <c r="F493" s="7"/>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E494" s="7"/>
+      <c r="F494" s="7"/>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E495" s="7"/>
+      <c r="F495" s="7"/>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E496" s="7"/>
+      <c r="F496" s="7"/>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E497" s="7"/>
+      <c r="F497" s="7"/>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E498" s="7"/>
+      <c r="F498" s="7"/>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E499" s="7"/>
+      <c r="F499" s="7"/>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E500" s="7"/>
+      <c r="F500" s="7"/>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E501" s="7"/>
+      <c r="F501" s="7"/>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E502" s="7"/>
+      <c r="F502" s="7"/>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E503" s="7"/>
+      <c r="F503" s="7"/>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E504" s="7"/>
+      <c r="F504" s="7"/>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E505" s="7"/>
+      <c r="F505" s="7"/>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E506" s="7"/>
+      <c r="F506" s="7"/>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E507" s="7"/>
+      <c r="F507" s="7"/>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E508" s="7"/>
+      <c r="F508" s="7"/>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E509" s="7"/>
+      <c r="F509" s="7"/>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E510" s="7"/>
+      <c r="F510" s="7"/>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E511" s="7"/>
+      <c r="F511" s="7"/>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E512" s="7"/>
+      <c r="F512" s="7"/>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E513" s="7"/>
+      <c r="F513" s="7"/>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E514" s="7"/>
+      <c r="F514" s="7"/>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E515" s="7"/>
+      <c r="F515" s="7"/>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E516" s="7"/>
+      <c r="F516" s="7"/>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E517" s="7"/>
+      <c r="F517" s="7"/>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E518" s="7"/>
+      <c r="F518" s="7"/>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E519" s="7"/>
+      <c r="F519" s="7"/>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E520" s="7"/>
+      <c r="F520" s="7"/>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E521" s="7"/>
+      <c r="F521" s="7"/>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E522" s="7"/>
+      <c r="F522" s="7"/>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E523" s="7"/>
+      <c r="F523" s="7"/>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E524" s="7"/>
+      <c r="F524" s="7"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E525" s="7"/>
+      <c r="F525" s="7"/>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E526" s="7"/>
+      <c r="F526" s="7"/>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E527" s="7"/>
+      <c r="F527" s="7"/>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E528" s="7"/>
+      <c r="F528" s="7"/>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E529" s="7"/>
+      <c r="F529" s="7"/>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E530" s="7"/>
+      <c r="F530" s="7"/>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E531" s="7"/>
+      <c r="F531" s="7"/>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E532" s="7"/>
+      <c r="F532" s="7"/>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E533" s="7"/>
+      <c r="F533" s="7"/>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E534" s="7"/>
+      <c r="F534" s="7"/>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E535" s="7"/>
+      <c r="F535" s="7"/>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E536" s="7"/>
+      <c r="F536" s="7"/>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E537" s="7"/>
+      <c r="F537" s="7"/>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E538" s="7"/>
+      <c r="F538" s="7"/>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E539" s="7"/>
+      <c r="F539" s="7"/>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E540" s="7"/>
+      <c r="F540" s="7"/>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E541" s="7"/>
+      <c r="F541" s="7"/>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E542" s="7"/>
+      <c r="F542" s="7"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E543" s="7"/>
+      <c r="F543" s="7"/>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E544" s="7"/>
+      <c r="F544" s="7"/>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E545" s="7"/>
+      <c r="F545" s="7"/>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E546" s="7"/>
+      <c r="F546" s="7"/>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E547" s="7"/>
+      <c r="F547" s="7"/>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E548" s="7"/>
+      <c r="F548" s="7"/>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E549" s="7"/>
+      <c r="F549" s="7"/>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E550" s="7"/>
+      <c r="F550" s="7"/>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E551" s="7"/>
+      <c r="F551" s="7"/>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E552" s="7"/>
+      <c r="F552" s="7"/>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E553" s="7"/>
+      <c r="F553" s="7"/>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E554" s="7"/>
+      <c r="F554" s="7"/>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E555" s="7"/>
+      <c r="F555" s="7"/>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E556" s="7"/>
+      <c r="F556" s="7"/>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E557" s="7"/>
+      <c r="F557" s="7"/>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E558" s="7"/>
+      <c r="F558" s="7"/>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E559" s="7"/>
+      <c r="F559" s="7"/>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E560" s="7"/>
+      <c r="F560" s="7"/>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E561" s="7"/>
+      <c r="F561" s="7"/>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E562" s="7"/>
+      <c r="F562" s="7"/>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E563" s="7"/>
+      <c r="F563" s="7"/>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E564" s="7"/>
+      <c r="F564" s="7"/>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E565" s="7"/>
+      <c r="F565" s="7"/>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E566" s="7"/>
+      <c r="F566" s="7"/>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E567" s="7"/>
+      <c r="F567" s="7"/>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E568" s="7"/>
+      <c r="F568" s="7"/>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E569" s="7"/>
+      <c r="F569" s="7"/>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E570" s="7"/>
+      <c r="F570" s="7"/>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E571" s="7"/>
+      <c r="F571" s="7"/>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E572" s="7"/>
+      <c r="F572" s="7"/>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E573" s="7"/>
+      <c r="F573" s="7"/>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E574" s="7"/>
+      <c r="F574" s="7"/>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E575" s="7"/>
+      <c r="F575" s="7"/>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E576" s="7"/>
+      <c r="F576" s="7"/>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E577" s="7"/>
+      <c r="F577" s="7"/>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E578" s="7"/>
+      <c r="F578" s="7"/>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E579" s="7"/>
+      <c r="F579" s="7"/>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E580" s="7"/>
+      <c r="F580" s="7"/>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E581" s="7"/>
+      <c r="F581" s="7"/>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E582" s="7"/>
+      <c r="F582" s="7"/>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E583" s="7"/>
+      <c r="F583" s="7"/>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E584" s="7"/>
+      <c r="F584" s="7"/>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E585" s="7"/>
+      <c r="F585" s="7"/>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E586" s="7"/>
+      <c r="F586" s="7"/>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E587" s="7"/>
+      <c r="F587" s="7"/>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E588" s="7"/>
+      <c r="F588" s="7"/>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E589" s="7"/>
+      <c r="F589" s="7"/>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E590" s="7"/>
+      <c r="F590" s="7"/>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E591" s="7"/>
+      <c r="F591" s="7"/>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E592" s="7"/>
+      <c r="F592" s="7"/>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E593" s="7"/>
+      <c r="F593" s="7"/>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E594" s="7"/>
+      <c r="F594" s="7"/>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E595" s="7"/>
+      <c r="F595" s="7"/>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E596" s="7"/>
+      <c r="F596" s="7"/>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E597" s="7"/>
+      <c r="F597" s="7"/>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E598" s="7"/>
+      <c r="F598" s="7"/>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E599" s="7"/>
+      <c r="F599" s="7"/>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E600" s="7"/>
+      <c r="F600" s="7"/>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E601" s="7"/>
+      <c r="F601" s="7"/>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E602" s="7"/>
+      <c r="F602" s="7"/>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E603" s="7"/>
+      <c r="F603" s="7"/>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E604" s="7"/>
+      <c r="F604" s="7"/>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E605" s="7"/>
+      <c r="F605" s="7"/>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E606" s="7"/>
+      <c r="F606" s="7"/>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E607" s="7"/>
+      <c r="F607" s="7"/>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E608" s="7"/>
+      <c r="F608" s="7"/>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E609" s="7"/>
+      <c r="F609" s="7"/>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E610" s="7"/>
+      <c r="F610" s="7"/>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E611" s="7"/>
+      <c r="F611" s="7"/>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E612" s="7"/>
+      <c r="F612" s="7"/>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E613" s="7"/>
+      <c r="F613" s="7"/>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E614" s="7"/>
+      <c r="F614" s="7"/>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E615" s="7"/>
+      <c r="F615" s="7"/>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E616" s="7"/>
+      <c r="F616" s="7"/>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E617" s="7"/>
+      <c r="F617" s="7"/>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E618" s="7"/>
+      <c r="F618" s="7"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E619" s="7"/>
+      <c r="F619" s="7"/>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E620" s="7"/>
+      <c r="F620" s="7"/>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E621" s="7"/>
+      <c r="F621" s="7"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E622" s="7"/>
+      <c r="F622" s="7"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E623" s="7"/>
+      <c r="F623" s="7"/>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E624" s="7"/>
+      <c r="F624" s="7"/>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E625" s="7"/>
+      <c r="F625" s="7"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E626" s="7"/>
+      <c r="F626" s="7"/>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E627" s="7"/>
+      <c r="F627" s="7"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E628" s="7"/>
+      <c r="F628" s="7"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E629" s="7"/>
+      <c r="F629" s="7"/>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E630" s="7"/>
+      <c r="F630" s="7"/>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E631" s="7"/>
+      <c r="F631" s="7"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E632" s="7"/>
+      <c r="F632" s="7"/>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E633" s="7"/>
+      <c r="F633" s="7"/>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E634" s="7"/>
+      <c r="F634" s="7"/>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E635" s="7"/>
+      <c r="F635" s="7"/>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E636" s="7"/>
+      <c r="F636" s="7"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E637" s="7"/>
+      <c r="F637" s="7"/>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E638" s="7"/>
+      <c r="F638" s="7"/>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E639" s="7"/>
+      <c r="F639" s="7"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E640" s="7"/>
+      <c r="F640" s="7"/>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E641" s="7"/>
+      <c r="F641" s="7"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E642" s="7"/>
+      <c r="F642" s="7"/>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E643" s="7"/>
+      <c r="F643" s="7"/>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E644" s="7"/>
+      <c r="F644" s="7"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E645" s="7"/>
+      <c r="F645" s="7"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E646" s="7"/>
+      <c r="F646" s="7"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E647" s="7"/>
+      <c r="F647" s="7"/>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E648" s="7"/>
+      <c r="F648" s="7"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E649" s="7"/>
+      <c r="F649" s="7"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E650" s="7"/>
+      <c r="F650" s="7"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E651" s="7"/>
+      <c r="F651" s="7"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E652" s="7"/>
+      <c r="F652" s="7"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E653" s="7"/>
+      <c r="F653" s="7"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E654" s="7"/>
+      <c r="F654" s="7"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E655" s="7"/>
+      <c r="F655" s="7"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E656" s="7"/>
+      <c r="F656" s="7"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E657" s="7"/>
+      <c r="F657" s="7"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E658" s="7"/>
+      <c r="F658" s="7"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E659" s="7"/>
+      <c r="F659" s="7"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E660" s="7"/>
+      <c r="F660" s="7"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E661" s="7"/>
+      <c r="F661" s="7"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E662" s="7"/>
+      <c r="F662" s="7"/>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E663" s="7"/>
+      <c r="F663" s="7"/>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E664" s="7"/>
+      <c r="F664" s="7"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E665" s="7"/>
+      <c r="F665" s="7"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E666" s="7"/>
+      <c r="F666" s="7"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E667" s="7"/>
+      <c r="F667" s="7"/>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E668" s="7"/>
+      <c r="F668" s="7"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E669" s="7"/>
+      <c r="F669" s="7"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E670" s="7"/>
+      <c r="F670" s="7"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E671" s="7"/>
+      <c r="F671" s="7"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E672" s="7"/>
+      <c r="F672" s="7"/>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E673" s="7"/>
+      <c r="F673" s="7"/>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E674" s="7"/>
+      <c r="F674" s="7"/>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E675" s="7"/>
+      <c r="F675" s="7"/>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E676" s="7"/>
+      <c r="F676" s="7"/>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E677" s="7"/>
+      <c r="F677" s="7"/>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E678" s="7"/>
+      <c r="F678" s="7"/>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E679" s="7"/>
+      <c r="F679" s="7"/>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E680" s="7"/>
+      <c r="F680" s="7"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E681" s="7"/>
+      <c r="F681" s="7"/>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E682" s="7"/>
+      <c r="F682" s="7"/>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E683" s="7"/>
+      <c r="F683" s="7"/>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E684" s="7"/>
+      <c r="F684" s="7"/>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E685" s="7"/>
+      <c r="F685" s="7"/>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E686" s="7"/>
+      <c r="F686" s="7"/>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E687" s="7"/>
+      <c r="F687" s="7"/>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E688" s="7"/>
+      <c r="F688" s="7"/>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E689" s="7"/>
+      <c r="F689" s="7"/>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E690" s="7"/>
+      <c r="F690" s="7"/>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E691" s="7"/>
+      <c r="F691" s="7"/>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E692" s="7"/>
+      <c r="F692" s="7"/>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E693" s="7"/>
+      <c r="F693" s="7"/>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E694" s="7"/>
+      <c r="F694" s="7"/>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E695" s="7"/>
+      <c r="F695" s="7"/>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E696" s="7"/>
+      <c r="F696" s="7"/>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E697" s="7"/>
+      <c r="F697" s="7"/>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E698" s="7"/>
+      <c r="F698" s="7"/>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E699" s="7"/>
+      <c r="F699" s="7"/>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E700" s="7"/>
+      <c r="F700" s="7"/>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E701" s="7"/>
+      <c r="F701" s="7"/>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E702" s="7"/>
+      <c r="F702" s="7"/>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E703" s="7"/>
+      <c r="F703" s="7"/>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E704" s="7"/>
+      <c r="F704" s="7"/>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E705" s="7"/>
+      <c r="F705" s="7"/>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E706" s="7"/>
+      <c r="F706" s="7"/>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E707" s="7"/>
+      <c r="F707" s="7"/>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E708" s="7"/>
+      <c r="F708" s="7"/>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E709" s="7"/>
+      <c r="F709" s="7"/>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E710" s="7"/>
+      <c r="F710" s="7"/>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E711" s="7"/>
+      <c r="F711" s="7"/>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E712" s="7"/>
+      <c r="F712" s="7"/>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E713" s="7"/>
+      <c r="F713" s="7"/>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E714" s="7"/>
+      <c r="F714" s="7"/>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E715" s="7"/>
+      <c r="F715" s="7"/>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E716" s="7"/>
+      <c r="F716" s="7"/>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E717" s="7"/>
+      <c r="F717" s="7"/>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E718" s="7"/>
+      <c r="F718" s="7"/>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E719" s="7"/>
+      <c r="F719" s="7"/>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E720" s="7"/>
+      <c r="F720" s="7"/>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E721" s="7"/>
+      <c r="F721" s="7"/>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E722" s="7"/>
+      <c r="F722" s="7"/>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E723" s="7"/>
+      <c r="F723" s="7"/>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E724" s="7"/>
+      <c r="F724" s="7"/>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E725" s="7"/>
+      <c r="F725" s="7"/>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E726" s="7"/>
+      <c r="F726" s="7"/>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E727" s="7"/>
+      <c r="F727" s="7"/>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E728" s="7"/>
+      <c r="F728" s="7"/>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E729" s="7"/>
+      <c r="F729" s="7"/>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E730" s="7"/>
+      <c r="F730" s="7"/>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E731" s="7"/>
+      <c r="F731" s="7"/>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E732" s="7"/>
+      <c r="F732" s="7"/>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E733" s="7"/>
+      <c r="F733" s="7"/>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E734" s="7"/>
+      <c r="F734" s="7"/>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E735" s="7"/>
+      <c r="F735" s="7"/>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E736" s="7"/>
+      <c r="F736" s="7"/>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E737" s="7"/>
+      <c r="F737" s="7"/>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E738" s="7"/>
+      <c r="F738" s="7"/>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E739" s="7"/>
+      <c r="F739" s="7"/>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E740" s="7"/>
+      <c r="F740" s="7"/>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E741" s="7"/>
+      <c r="F741" s="7"/>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E742" s="7"/>
+      <c r="F742" s="7"/>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E743" s="7"/>
+      <c r="F743" s="7"/>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E744" s="7"/>
+      <c r="F744" s="7"/>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E745" s="7"/>
+      <c r="F745" s="7"/>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E746" s="7"/>
+      <c r="F746" s="7"/>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E747" s="7"/>
+      <c r="F747" s="7"/>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E748" s="7"/>
+      <c r="F748" s="7"/>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E749" s="7"/>
+      <c r="F749" s="7"/>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E750" s="7"/>
+      <c r="F750" s="7"/>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E751" s="7"/>
+      <c r="F751" s="7"/>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E752" s="7"/>
+      <c r="F752" s="7"/>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E753" s="7"/>
+      <c r="F753" s="7"/>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E754" s="7"/>
+      <c r="F754" s="7"/>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E755" s="7"/>
+      <c r="F755" s="7"/>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E756" s="7"/>
+      <c r="F756" s="7"/>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E757" s="7"/>
+      <c r="F757" s="7"/>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E758" s="7"/>
+      <c r="F758" s="7"/>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E759" s="7"/>
+      <c r="F759" s="7"/>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E760" s="7"/>
+      <c r="F760" s="7"/>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E761" s="7"/>
+      <c r="F761" s="7"/>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E762" s="7"/>
+      <c r="F762" s="7"/>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E763" s="7"/>
+      <c r="F763" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -11946,42 +12083,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>20210221001</v>
@@ -11990,31 +12127,31 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
@@ -12023,49 +12160,49 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="617">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -968,6 +968,9 @@
     <t xml:space="preserve">tomorrow</t>
   </si>
   <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
     <t xml:space="preserve">time_awake</t>
   </si>
   <si>
@@ -1595,16 +1598,7 @@
     <t xml:space="preserve">absent_return_date</t>
   </si>
   <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return_integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return_dwmy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absent_return_dk</t>
+    <t xml:space="preserve">date_no_time</t>
   </si>
   <si>
     <t xml:space="preserve">Member Left</t>
@@ -2253,9 +2247,9 @@
   <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F86" activeCellId="0" sqref="F86"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4346,10 +4340,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C400"/>
+  <dimension ref="A1:C402"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A205" activeCellId="0" sqref="A205"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A209" activeCellId="0" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6649,156 +6643,156 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B209" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="B209" s="0" t="s">
-        <v>315</v>
-      </c>
       <c r="C209" s="0" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>316</v>
+        <v>58</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>316</v>
+        <v>58</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B214" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="B214" s="0" t="s">
-        <v>321</v>
-      </c>
       <c r="C214" s="0" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B219" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B219" s="0" t="s">
-        <v>321</v>
-      </c>
       <c r="C219" s="0" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6806,10 +6800,10 @@
         <v>326</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6817,32 +6811,32 @@
         <v>326</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6850,10 +6844,10 @@
         <v>327</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6861,329 +6855,329 @@
         <v>327</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>204</v>
+        <v>337</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>204</v>
+        <v>337</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B238" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B238" s="0" t="s">
-        <v>339</v>
-      </c>
       <c r="C238" s="0" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>340</v>
+        <v>204</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>58</v>
+        <v>352</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>58</v>
+        <v>352</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>137</v>
+        <v>353</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>137</v>
+        <v>353</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B256" s="0" t="n">
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="B256" s="0" t="s">
+        <v>150</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>353</v>
+        <v>150</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B257" s="0" t="n">
-        <v>2</v>
+        <v>339</v>
+      </c>
+      <c r="B257" s="0" t="s">
+        <v>135</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>354</v>
+        <v>135</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7191,10 +7185,10 @@
         <v>50</v>
       </c>
       <c r="B258" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7202,10 +7196,10 @@
         <v>50</v>
       </c>
       <c r="B259" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7213,10 +7207,10 @@
         <v>50</v>
       </c>
       <c r="B260" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7224,10 +7218,10 @@
         <v>50</v>
       </c>
       <c r="B261" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7235,10 +7229,10 @@
         <v>50</v>
       </c>
       <c r="B262" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7246,10 +7240,10 @@
         <v>50</v>
       </c>
       <c r="B263" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7257,10 +7251,10 @@
         <v>50</v>
       </c>
       <c r="B264" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7268,10 +7262,10 @@
         <v>50</v>
       </c>
       <c r="B265" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7279,10 +7273,10 @@
         <v>50</v>
       </c>
       <c r="B266" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7290,10 +7284,10 @@
         <v>50</v>
       </c>
       <c r="B267" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7301,10 +7295,10 @@
         <v>50</v>
       </c>
       <c r="B268" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7312,10 +7306,10 @@
         <v>50</v>
       </c>
       <c r="B269" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7323,10 +7317,10 @@
         <v>50</v>
       </c>
       <c r="B270" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7334,10 +7328,10 @@
         <v>50</v>
       </c>
       <c r="B271" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7345,10 +7339,10 @@
         <v>50</v>
       </c>
       <c r="B272" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7356,10 +7350,10 @@
         <v>50</v>
       </c>
       <c r="B273" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7367,10 +7361,10 @@
         <v>50</v>
       </c>
       <c r="B274" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7378,10 +7372,10 @@
         <v>50</v>
       </c>
       <c r="B275" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7389,10 +7383,10 @@
         <v>50</v>
       </c>
       <c r="B276" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7400,10 +7394,10 @@
         <v>50</v>
       </c>
       <c r="B277" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,10 +7405,10 @@
         <v>50</v>
       </c>
       <c r="B278" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7422,10 +7416,10 @@
         <v>50</v>
       </c>
       <c r="B279" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7433,10 +7427,10 @@
         <v>50</v>
       </c>
       <c r="B280" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7444,10 +7438,10 @@
         <v>50</v>
       </c>
       <c r="B281" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7455,10 +7449,10 @@
         <v>50</v>
       </c>
       <c r="B282" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7466,10 +7460,10 @@
         <v>50</v>
       </c>
       <c r="B283" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7477,10 +7471,10 @@
         <v>50</v>
       </c>
       <c r="B284" s="0" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7488,10 +7482,10 @@
         <v>50</v>
       </c>
       <c r="B285" s="0" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7499,32 +7493,32 @@
         <v>50</v>
       </c>
       <c r="B286" s="0" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B287" s="0" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B288" s="0" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7532,10 +7526,10 @@
         <v>64</v>
       </c>
       <c r="B289" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7543,10 +7537,10 @@
         <v>64</v>
       </c>
       <c r="B290" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7554,10 +7548,10 @@
         <v>64</v>
       </c>
       <c r="B291" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7565,10 +7559,10 @@
         <v>64</v>
       </c>
       <c r="B292" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7576,10 +7570,10 @@
         <v>64</v>
       </c>
       <c r="B293" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7587,10 +7581,10 @@
         <v>64</v>
       </c>
       <c r="B294" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7598,10 +7592,10 @@
         <v>64</v>
       </c>
       <c r="B295" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7609,10 +7603,10 @@
         <v>64</v>
       </c>
       <c r="B296" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7620,10 +7614,10 @@
         <v>64</v>
       </c>
       <c r="B297" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7631,32 +7625,32 @@
         <v>64</v>
       </c>
       <c r="B298" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B299" s="0" t="n">
-        <v>2021</v>
+        <v>11</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B300" s="0" t="n">
-        <v>2020</v>
+        <v>12</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7664,10 +7658,10 @@
         <v>71</v>
       </c>
       <c r="B301" s="0" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7675,10 +7669,10 @@
         <v>71</v>
       </c>
       <c r="B302" s="0" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7686,10 +7680,10 @@
         <v>71</v>
       </c>
       <c r="B303" s="0" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7697,10 +7691,10 @@
         <v>71</v>
       </c>
       <c r="B304" s="0" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7708,10 +7702,10 @@
         <v>71</v>
       </c>
       <c r="B305" s="0" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7719,10 +7713,10 @@
         <v>71</v>
       </c>
       <c r="B306" s="0" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7730,10 +7724,10 @@
         <v>71</v>
       </c>
       <c r="B307" s="0" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7741,10 +7735,10 @@
         <v>71</v>
       </c>
       <c r="B308" s="0" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7752,10 +7746,10 @@
         <v>71</v>
       </c>
       <c r="B309" s="0" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7763,10 +7757,10 @@
         <v>71</v>
       </c>
       <c r="B310" s="0" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7774,10 +7768,10 @@
         <v>71</v>
       </c>
       <c r="B311" s="0" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7785,10 +7779,10 @@
         <v>71</v>
       </c>
       <c r="B312" s="0" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7796,10 +7790,10 @@
         <v>71</v>
       </c>
       <c r="B313" s="0" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7807,10 +7801,10 @@
         <v>71</v>
       </c>
       <c r="B314" s="0" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7818,10 +7812,10 @@
         <v>71</v>
       </c>
       <c r="B315" s="0" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7829,10 +7823,10 @@
         <v>71</v>
       </c>
       <c r="B316" s="0" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7840,10 +7834,10 @@
         <v>71</v>
       </c>
       <c r="B317" s="0" t="n">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7851,10 +7845,10 @@
         <v>71</v>
       </c>
       <c r="B318" s="0" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7862,10 +7856,10 @@
         <v>71</v>
       </c>
       <c r="B319" s="0" t="n">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7873,10 +7867,10 @@
         <v>71</v>
       </c>
       <c r="B320" s="0" t="n">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7884,10 +7878,10 @@
         <v>71</v>
       </c>
       <c r="B321" s="0" t="n">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7895,10 +7889,10 @@
         <v>71</v>
       </c>
       <c r="B322" s="0" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7906,10 +7900,10 @@
         <v>71</v>
       </c>
       <c r="B323" s="0" t="n">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7917,10 +7911,10 @@
         <v>71</v>
       </c>
       <c r="B324" s="0" t="n">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7928,10 +7922,10 @@
         <v>71</v>
       </c>
       <c r="B325" s="0" t="n">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7939,10 +7933,10 @@
         <v>71</v>
       </c>
       <c r="B326" s="0" t="n">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7950,10 +7944,10 @@
         <v>71</v>
       </c>
       <c r="B327" s="0" t="n">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7961,10 +7955,10 @@
         <v>71</v>
       </c>
       <c r="B328" s="0" t="n">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7972,10 +7966,10 @@
         <v>71</v>
       </c>
       <c r="B329" s="0" t="n">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7983,10 +7977,10 @@
         <v>71</v>
       </c>
       <c r="B330" s="0" t="n">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7994,10 +7988,10 @@
         <v>71</v>
       </c>
       <c r="B331" s="0" t="n">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8005,10 +7999,10 @@
         <v>71</v>
       </c>
       <c r="B332" s="0" t="n">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8016,10 +8010,10 @@
         <v>71</v>
       </c>
       <c r="B333" s="0" t="n">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8027,10 +8021,10 @@
         <v>71</v>
       </c>
       <c r="B334" s="0" t="n">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8038,10 +8032,10 @@
         <v>71</v>
       </c>
       <c r="B335" s="0" t="n">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8049,10 +8043,10 @@
         <v>71</v>
       </c>
       <c r="B336" s="0" t="n">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8060,10 +8054,10 @@
         <v>71</v>
       </c>
       <c r="B337" s="0" t="n">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8071,10 +8065,10 @@
         <v>71</v>
       </c>
       <c r="B338" s="0" t="n">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8082,10 +8076,10 @@
         <v>71</v>
       </c>
       <c r="B339" s="0" t="n">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8093,10 +8087,10 @@
         <v>71</v>
       </c>
       <c r="B340" s="0" t="n">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8104,10 +8098,10 @@
         <v>71</v>
       </c>
       <c r="B341" s="0" t="n">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8115,10 +8109,10 @@
         <v>71</v>
       </c>
       <c r="B342" s="0" t="n">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8126,10 +8120,10 @@
         <v>71</v>
       </c>
       <c r="B343" s="0" t="n">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8137,10 +8131,10 @@
         <v>71</v>
       </c>
       <c r="B344" s="0" t="n">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8148,10 +8142,10 @@
         <v>71</v>
       </c>
       <c r="B345" s="0" t="n">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8159,10 +8153,10 @@
         <v>71</v>
       </c>
       <c r="B346" s="0" t="n">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8170,10 +8164,10 @@
         <v>71</v>
       </c>
       <c r="B347" s="0" t="n">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8181,10 +8175,10 @@
         <v>71</v>
       </c>
       <c r="B348" s="0" t="n">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8192,10 +8186,10 @@
         <v>71</v>
       </c>
       <c r="B349" s="0" t="n">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8203,10 +8197,10 @@
         <v>71</v>
       </c>
       <c r="B350" s="0" t="n">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8214,10 +8208,10 @@
         <v>71</v>
       </c>
       <c r="B351" s="0" t="n">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8225,10 +8219,10 @@
         <v>71</v>
       </c>
       <c r="B352" s="0" t="n">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8236,10 +8230,10 @@
         <v>71</v>
       </c>
       <c r="B353" s="0" t="n">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8247,10 +8241,10 @@
         <v>71</v>
       </c>
       <c r="B354" s="0" t="n">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8258,10 +8252,10 @@
         <v>71</v>
       </c>
       <c r="B355" s="0" t="n">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8269,10 +8263,10 @@
         <v>71</v>
       </c>
       <c r="B356" s="0" t="n">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8280,10 +8274,10 @@
         <v>71</v>
       </c>
       <c r="B357" s="0" t="n">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8291,10 +8285,10 @@
         <v>71</v>
       </c>
       <c r="B358" s="0" t="n">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8302,10 +8296,10 @@
         <v>71</v>
       </c>
       <c r="B359" s="0" t="n">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8313,10 +8307,10 @@
         <v>71</v>
       </c>
       <c r="B360" s="0" t="n">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8324,10 +8318,10 @@
         <v>71</v>
       </c>
       <c r="B361" s="0" t="n">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8335,10 +8329,10 @@
         <v>71</v>
       </c>
       <c r="B362" s="0" t="n">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8346,10 +8340,10 @@
         <v>71</v>
       </c>
       <c r="B363" s="0" t="n">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,10 +8351,10 @@
         <v>71</v>
       </c>
       <c r="B364" s="0" t="n">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8368,10 +8362,10 @@
         <v>71</v>
       </c>
       <c r="B365" s="0" t="n">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8379,10 +8373,10 @@
         <v>71</v>
       </c>
       <c r="B366" s="0" t="n">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8390,10 +8384,10 @@
         <v>71</v>
       </c>
       <c r="B367" s="0" t="n">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8401,10 +8395,10 @@
         <v>71</v>
       </c>
       <c r="B368" s="0" t="n">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8412,10 +8406,10 @@
         <v>71</v>
       </c>
       <c r="B369" s="0" t="n">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8423,10 +8417,10 @@
         <v>71</v>
       </c>
       <c r="B370" s="0" t="n">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8434,10 +8428,10 @@
         <v>71</v>
       </c>
       <c r="B371" s="0" t="n">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8445,10 +8439,10 @@
         <v>71</v>
       </c>
       <c r="B372" s="0" t="n">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8456,10 +8450,10 @@
         <v>71</v>
       </c>
       <c r="B373" s="0" t="n">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8467,10 +8461,10 @@
         <v>71</v>
       </c>
       <c r="B374" s="0" t="n">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8478,10 +8472,10 @@
         <v>71</v>
       </c>
       <c r="B375" s="0" t="n">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8489,10 +8483,10 @@
         <v>71</v>
       </c>
       <c r="B376" s="0" t="n">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8500,10 +8494,10 @@
         <v>71</v>
       </c>
       <c r="B377" s="0" t="n">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8511,10 +8505,10 @@
         <v>71</v>
       </c>
       <c r="B378" s="0" t="n">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8522,10 +8516,10 @@
         <v>71</v>
       </c>
       <c r="B379" s="0" t="n">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8533,10 +8527,10 @@
         <v>71</v>
       </c>
       <c r="B380" s="0" t="n">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8544,10 +8538,10 @@
         <v>71</v>
       </c>
       <c r="B381" s="0" t="n">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8555,10 +8549,10 @@
         <v>71</v>
       </c>
       <c r="B382" s="0" t="n">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8566,10 +8560,10 @@
         <v>71</v>
       </c>
       <c r="B383" s="0" t="n">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8577,10 +8571,10 @@
         <v>71</v>
       </c>
       <c r="B384" s="0" t="n">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8588,10 +8582,10 @@
         <v>71</v>
       </c>
       <c r="B385" s="0" t="n">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8599,10 +8593,10 @@
         <v>71</v>
       </c>
       <c r="B386" s="0" t="n">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8610,10 +8604,10 @@
         <v>71</v>
       </c>
       <c r="B387" s="0" t="n">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8621,10 +8615,10 @@
         <v>71</v>
       </c>
       <c r="B388" s="0" t="n">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8632,10 +8626,10 @@
         <v>71</v>
       </c>
       <c r="B389" s="0" t="n">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8643,10 +8637,10 @@
         <v>71</v>
       </c>
       <c r="B390" s="0" t="n">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8654,10 +8648,10 @@
         <v>71</v>
       </c>
       <c r="B391" s="0" t="n">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8665,10 +8659,10 @@
         <v>71</v>
       </c>
       <c r="B392" s="0" t="n">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8676,10 +8670,10 @@
         <v>71</v>
       </c>
       <c r="B393" s="0" t="n">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8687,10 +8681,10 @@
         <v>71</v>
       </c>
       <c r="B394" s="0" t="n">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8698,10 +8692,10 @@
         <v>71</v>
       </c>
       <c r="B395" s="0" t="n">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8709,10 +8703,10 @@
         <v>71</v>
       </c>
       <c r="B396" s="0" t="n">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8720,10 +8714,10 @@
         <v>71</v>
       </c>
       <c r="B397" s="0" t="n">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8731,10 +8725,10 @@
         <v>71</v>
       </c>
       <c r="B398" s="0" t="n">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8742,10 +8736,10 @@
         <v>71</v>
       </c>
       <c r="B399" s="0" t="n">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8753,10 +8747,32 @@
         <v>71</v>
       </c>
       <c r="B400" s="0" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C400" s="0" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B401" s="0" t="n">
+        <v>1921</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B402" s="0" t="n">
         <v>1920</v>
       </c>
-      <c r="C400" s="0" t="s">
-        <v>497</v>
+      <c r="C402" s="0" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -8775,10 +8791,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H763"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8796,7 +8812,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -8805,77 +8821,77 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D2" s="8"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>507</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>506</v>
       </c>
       <c r="D3" s="8"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D4" s="8"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>78</v>
@@ -8885,7 +8901,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="8" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>78</v>
@@ -8895,7 +8911,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>78</v>
@@ -8905,7 +8921,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="8" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>78</v>
@@ -8915,7 +8931,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>78</v>
@@ -8925,7 +8941,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>78</v>
@@ -8935,7 +8951,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>78</v>
@@ -8945,7 +8961,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>7</v>
@@ -9096,10 +9112,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>26</v>
@@ -9112,271 +9128,271 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D27" s="10"/>
       <c r="F27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="10" t="s">
-        <v>524</v>
+        <v>139</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="D28" s="10"/>
+      <c r="E28" s="0" t="s">
+        <v>139</v>
+      </c>
       <c r="F28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="0" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="0" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="F31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>527</v>
-      </c>
       <c r="B32" s="11" t="s">
-        <v>260</v>
+        <v>528</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="0" t="s">
-        <v>260</v>
-      </c>
       <c r="F32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="11" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D33" s="11"/>
       <c r="F33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="11" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="0" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="C36" s="11" t="s">
+      <c r="D37" s="12"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="0" t="s">
-        <v>112</v>
-      </c>
+      <c r="D38" s="12"/>
       <c r="F38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>534</v>
-      </c>
       <c r="B39" s="12" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="0" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="F39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="12" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="D40" s="12"/>
+      <c r="E40" s="0" t="s">
+        <v>112</v>
+      </c>
       <c r="F40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="D41" s="12"/>
+      <c r="E41" s="0" t="s">
+        <v>116</v>
+      </c>
       <c r="F41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="12" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="0" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="12" t="s">
+      <c r="A43" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="12" t="s">
+      <c r="B44" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="0" t="s">
+      <c r="D47" s="13"/>
+      <c r="E47" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="F47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>538</v>
-      </c>
       <c r="B48" s="13" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>78</v>
@@ -9386,108 +9402,108 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="13" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>57</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="13" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="0" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="F50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="13" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D51" s="13"/>
       <c r="F51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="13" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="0" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="F52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="13"/>
+      <c r="A53" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="14"/>
       <c r="E53" s="0" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="F53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="13"/>
+      <c r="B54" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="0" t="s">
+        <v>133</v>
+      </c>
       <c r="F54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="C55" s="13" t="s">
+      <c r="B55" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="13"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="0" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="F55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>547</v>
-      </c>
       <c r="B56" s="14" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>26</v>
+        <v>550</v>
       </c>
       <c r="D56" s="14"/>
-      <c r="E56" s="0" t="s">
-        <v>133</v>
-      </c>
       <c r="F56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="14" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>26</v>
@@ -9500,58 +9516,61 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C58" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>26</v>
-      </c>
       <c r="D58" s="14"/>
-      <c r="E58" s="0" t="s">
-        <v>133</v>
-      </c>
       <c r="F58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="14" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D59" s="14"/>
       <c r="F59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="0" t="s">
-        <v>133</v>
+        <v>290</v>
       </c>
       <c r="F60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>552</v>
+        <v>26</v>
       </c>
       <c r="D61" s="14"/>
+      <c r="E61" s="0" t="s">
+        <v>295</v>
+      </c>
       <c r="F61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="14" t="s">
-        <v>555</v>
+        <v>228</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>552</v>
+        <v>26</v>
       </c>
       <c r="D62" s="14"/>
+      <c r="E62" s="0" t="s">
+        <v>228</v>
+      </c>
       <c r="F62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9559,82 +9578,79 @@
         <v>556</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>26</v>
+        <v>557</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="0" t="s">
-        <v>290</v>
+        <v>558</v>
       </c>
       <c r="F63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="14" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="0" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="F64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="14" t="s">
-        <v>228</v>
+        <v>560</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="0" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="F65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="14" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>559</v>
+        <v>33</v>
       </c>
       <c r="D66" s="14"/>
-      <c r="E66" s="0" t="s">
-        <v>560</v>
-      </c>
       <c r="F66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="14" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="0" t="s">
-        <v>338</v>
+        <v>116</v>
       </c>
       <c r="F67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="14" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="0" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="F68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C69" s="14" t="s">
         <v>33</v>
@@ -9644,56 +9660,56 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="14" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="0" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
       <c r="F70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="14" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D71" s="14"/>
-      <c r="E71" s="0" t="s">
-        <v>277</v>
-      </c>
       <c r="F71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="14" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D72" s="14"/>
+      <c r="E72" s="0" t="s">
+        <v>133</v>
+      </c>
       <c r="F72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="14" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="0" t="s">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="F73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="14" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C74" s="14" t="s">
         <v>33</v>
@@ -9703,147 +9719,150 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="14" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="0" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="14" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="0" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="F76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="14" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D77" s="14"/>
+      <c r="E77" s="0" t="s">
+        <v>116</v>
+      </c>
       <c r="F77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="14" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="0" t="s">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="F78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="14" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="0" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="F79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="14" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="0" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="F80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="14" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C81" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="0" t="s">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="F81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="14" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="0" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="F82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="14" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="0" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="F83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="14" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="0" t="s">
-        <v>136</v>
+        <v>247</v>
       </c>
       <c r="F84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="14" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="0" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="F85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="14" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>26</v>
@@ -9856,66 +9875,63 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="14" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="0" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="14" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C88" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="0" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="F88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="14" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D89" s="14"/>
-      <c r="E89" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="F89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="14" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="0" t="s">
-        <v>239</v>
+        <v>58</v>
       </c>
       <c r="F90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="14" t="s">
-        <v>585</v>
+        <v>326</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="0" t="s">
-        <v>116</v>
+        <v>326</v>
       </c>
       <c r="F91" s="7"/>
     </row>
@@ -9924,9 +9940,12 @@
         <v>586</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="D92" s="14"/>
+      <c r="E92" s="0" t="s">
+        <v>320</v>
+      </c>
       <c r="F92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9934,76 +9953,76 @@
         <v>587</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="0" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="F93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="14" t="s">
-        <v>325</v>
+        <v>588</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="0" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="14" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="0" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="F95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="14" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C96" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="0" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="F96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="14" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C97" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="0" t="s">
-        <v>314</v>
+        <v>133</v>
       </c>
       <c r="F97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="14" t="s">
-        <v>591</v>
+        <v>328</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F98" s="7"/>
     </row>
@@ -10012,11 +10031,11 @@
         <v>592</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="0" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="F99" s="7"/>
     </row>
@@ -10025,48 +10044,18 @@
         <v>593</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D100" s="14"/>
-      <c r="E100" s="0" t="s">
-        <v>133</v>
-      </c>
       <c r="F100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D101" s="14"/>
-      <c r="E101" s="0" t="s">
-        <v>327</v>
-      </c>
       <c r="F101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="F102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D103" s="14"/>
       <c r="F103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12040,15 +12029,9 @@
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F760" s="7"/>
     </row>
-    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F761" s="7"/>
-    </row>
-    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F762" s="7"/>
-    </row>
-    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F763" s="7"/>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -12068,7 +12051,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12083,75 +12066,75 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>601</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>20210221001</v>
+        <v>20210223001</v>
       </c>
       <c r="C3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>7</v>
@@ -12160,49 +12143,49 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -2250,7 +2250,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C93" activeCellId="0" sqref="C93"/>
+      <selection pane="bottomLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4119,7 +4119,7 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>58</v>
@@ -4134,6 +4134,9 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
+      <c r="R92" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
@@ -9127,7 +9130,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9536,7 +9539,7 @@
         <v>536</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="0" t="s">
@@ -9588,7 +9591,7 @@
         <v>111</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="0" t="s">

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="623">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">display.prompt</t>
   </si>
   <si>
+    <t xml:space="preserve">display.title.text</t>
+  </si>
+  <si>
     <t xml:space="preserve">display.hint</t>
   </si>
   <si>
@@ -181,12 +184,12 @@
     <t xml:space="preserve">day_choice</t>
   </si>
   <si>
+    <t xml:space="preserve">​</t>
+  </si>
+  <si>
     <t xml:space="preserve">not(selected(data('dob_day_dk'), 'dk'))</t>
   </si>
   <si>
-    <t xml:space="preserve">day_hint</t>
-  </si>
-  <si>
     <t xml:space="preserve">selected(data('dob_day_dk'), 'dk') || selected(data('dob_month_dk'), 'dk') || not(selected(data('dob_year_dk'), 'dk')) || moment(data('dob_month') + '-' + data('dob_day'), 'M-D').isValid()</t>
   </si>
   <si>
@@ -397,9 +400,6 @@
     <t xml:space="preserve">retrieve_extid</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'), 'newborn') || /^[A-Z]{3}-[0-9]{3}-[0-9]{3}$/.test(data('id'))</t>
-  </si>
-  <si>
     <t xml:space="preserve">not_possible</t>
   </si>
   <si>
@@ -1832,9 +1832,6 @@
   </si>
   <si>
     <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text</t>
   </si>
   <si>
     <t xml:space="preserve">display.title.text.pt</t>
@@ -2057,7 +2054,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2075,6 +2072,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2245,12 +2246,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:T116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
+      <selection pane="bottomLeft" activeCell="J60" activeCellId="0" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2261,14 +2262,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="36.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="16.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="10.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="16.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2308,7 +2309,7 @@
       <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="0" t="s">
@@ -2328,18 +2329,21 @@
       </c>
       <c r="S1" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2348,38 +2352,40 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2392,10 +2398,11 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2409,68 +2416,71 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="P6" s="0" t="s">
-        <v>33</v>
-      </c>
+      <c r="N6" s="1"/>
       <c r="Q6" s="0" t="s">
         <v>34</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="P7" s="0" t="s">
-        <v>37</v>
-      </c>
+      <c r="N7" s="1"/>
       <c r="Q7" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="R7" s="0" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2478,16 +2488,17 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2495,176 +2506,187 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="2"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="2"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="N13" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="4"/>
+      <c r="M13" s="1"/>
+      <c r="O13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="H15" s="1" t="s">
-        <v>51</v>
+      <c r="G15" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="P15" s="0" t="s">
-        <v>53</v>
-      </c>
+      <c r="M15" s="1"/>
       <c r="Q15" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="R15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S15" s="0" t="s">
-        <v>55</v>
+      <c r="T15" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="5"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="R17" s="0" t="n">
+      <c r="M17" s="1"/>
+      <c r="S17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2672,108 +2694,115 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="0" t="s">
+        <v>62</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="P18" s="4"/>
+      <c r="M18" s="1"/>
+      <c r="Q18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="2"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="2"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="N20" s="0" t="s">
-        <v>47</v>
+      <c r="M20" s="1"/>
+      <c r="O20" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="2"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="G22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J22" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="R22" s="0" t="n">
+      <c r="M22" s="1"/>
+      <c r="S22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S22" s="0" t="s">
-        <v>55</v>
+      <c r="T22" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -2781,34 +2810,36 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="P23" s="4"/>
+      <c r="M23" s="1"/>
+      <c r="Q23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="R24" s="0" t="n">
+      <c r="N24" s="1"/>
+      <c r="S24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2816,64 +2847,66 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="1"/>
+        <v>71</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="0" t="s">
-        <v>47</v>
+      <c r="N27" s="1"/>
+      <c r="O27" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2887,50 +2920,54 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="G29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="O29" s="0" t="s">
-        <v>74</v>
-      </c>
+      <c r="N29" s="1"/>
       <c r="P29" s="0" t="s">
         <v>75</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="R29" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="S29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S29" s="0" t="s">
-        <v>55</v>
+      <c r="T29" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -2938,238 +2975,241 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="1"/>
+        <v>78</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="R31" s="0" t="n">
+      <c r="N31" s="1"/>
+      <c r="S31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="1"/>
+        <v>40</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="1"/>
+        <v>70</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="1"/>
+        <v>31</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1" t="n">
+      <c r="L35" s="1"/>
+      <c r="M35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="1"/>
+        <v>83</v>
+      </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="R36" s="0" t="n">
+      <c r="N36" s="1"/>
+      <c r="S36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="1"/>
+        <v>40</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="1"/>
+        <v>57</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" s="1"/>
+        <v>85</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="1"/>
+        <v>31</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>86</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="0" t="s">
-        <v>86</v>
+      <c r="N41" s="1"/>
+      <c r="O41" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="1"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="P43" s="0" t="s">
-        <v>91</v>
+      <c r="N43" s="1"/>
+      <c r="Q43" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -3177,16 +3217,17 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="1"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3200,6 +3241,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1"/>
@@ -3215,6 +3257,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
@@ -3230,13 +3273,14 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3249,10 +3293,11 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3266,68 +3311,71 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="P50" s="0" t="s">
-        <v>96</v>
-      </c>
+      <c r="N50" s="1"/>
       <c r="Q50" s="0" t="s">
-        <v>34</v>
+        <v>97</v>
+      </c>
+      <c r="R50" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I51" s="1"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="P51" s="0" t="s">
-        <v>98</v>
-      </c>
+      <c r="N51" s="1"/>
       <c r="Q51" s="0" t="s">
-        <v>38</v>
+        <v>99</v>
+      </c>
+      <c r="R51" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3335,16 +3383,17 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="1"/>
+      <c r="H52" s="2"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3352,97 +3401,102 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="1"/>
+      <c r="H53" s="2"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="1"/>
+      <c r="H54" s="2"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H55" s="1"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="1"/>
+      <c r="H56" s="2"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="1"/>
+      <c r="H57" s="2"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="0" t="s">
-        <v>47</v>
+      <c r="N57" s="1"/>
+      <c r="O57" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -3450,53 +3504,57 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="1"/>
+      <c r="H58" s="2"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="G59" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" s="2"/>
       <c r="I59" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="P59" s="0" t="s">
-        <v>53</v>
-      </c>
+      <c r="N59" s="1"/>
       <c r="Q59" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="R59" s="0" t="n">
+      <c r="R59" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="S59" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S59" s="0" t="s">
-        <v>55</v>
+      <c r="T59" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -3504,34 +3562,36 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="1"/>
+      <c r="H60" s="2"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="1"/>
+      <c r="H61" s="2"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="R61" s="0" t="n">
+      <c r="N61" s="1"/>
+      <c r="S61" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3539,67 +3599,70 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H62" s="1"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="2"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="1"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="0" t="s">
-        <v>47</v>
+      <c r="N64" s="1"/>
+      <c r="O64" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -3607,47 +3670,51 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="1"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="G66" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" s="2"/>
       <c r="I66" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J66" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="R66" s="0" t="n">
+      <c r="N66" s="1"/>
+      <c r="S66" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S66" s="0" t="s">
-        <v>55</v>
+      <c r="T66" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -3655,34 +3722,36 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="1"/>
+      <c r="H67" s="2"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="1"/>
+      <c r="H68" s="2"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-      <c r="R68" s="0" t="n">
+      <c r="N68" s="1"/>
+      <c r="S68" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3690,64 +3759,66 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H69" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="1"/>
+      <c r="H70" s="2"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H71" s="1"/>
+        <v>71</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
-      <c r="N71" s="0" t="s">
-        <v>47</v>
+      <c r="N71" s="1"/>
+      <c r="O71" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
@@ -3755,53 +3826,57 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="1"/>
+      <c r="H72" s="2"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="G73" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" s="2"/>
       <c r="I73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J73" s="1"/>
+      <c r="J73" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-      <c r="P73" s="0" t="s">
-        <v>75</v>
-      </c>
+      <c r="N73" s="1"/>
       <c r="Q73" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="R73" s="0" t="n">
+      <c r="R73" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="S73" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="S73" s="0" t="s">
-        <v>55</v>
+      <c r="T73" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -3809,593 +3884,613 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="1"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="H75" s="1"/>
+        <v>78</v>
+      </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-      <c r="R75" s="0" t="n">
+      <c r="N75" s="1"/>
+      <c r="S75" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H76" s="1"/>
+        <v>40</v>
+      </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H77" s="1"/>
+        <v>70</v>
+      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="H78" s="1"/>
+        <v>31</v>
+      </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1" t="n">
+      <c r="L79" s="1"/>
+      <c r="M79" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H80" s="1"/>
+        <v>83</v>
+      </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
-      <c r="R80" s="0" t="n">
+      <c r="N80" s="1"/>
+      <c r="S80" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H81" s="1"/>
+        <v>40</v>
+      </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H82" s="1"/>
+        <v>57</v>
+      </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H83" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="G83" s="2"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G84" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="H84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="0" t="s">
+        <v>104</v>
+      </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="G85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H86" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="G86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="G87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F88" s="1"/>
-      <c r="H88" s="1"/>
+      <c r="G88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
-      <c r="N88" s="0" t="s">
-        <v>47</v>
+      <c r="N88" s="1"/>
+      <c r="O88" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="G89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H90" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="G90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
-      <c r="P90" s="0" t="s">
-        <v>109</v>
-      </c>
+      <c r="N90" s="1"/>
       <c r="Q90" s="0" t="s">
         <v>110</v>
       </c>
+      <c r="R90" s="0" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="G91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F92" s="2"/>
-      <c r="H92" s="1"/>
+      <c r="G92" s="2"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
-      <c r="R92" s="0" t="n">
+      <c r="N92" s="1"/>
+      <c r="S92" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="3"/>
       <c r="D93" s="1"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="H93" s="1"/>
+      <c r="G93" s="2"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="3"/>
       <c r="D94" s="1"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="H94" s="1"/>
+      <c r="G94" s="2"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H95" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="G95" s="2"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="H96" s="1"/>
+      <c r="G96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H97" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="G97" s="2"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
-      <c r="H98" s="1"/>
+      <c r="G98" s="2"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
-      <c r="H99" s="1"/>
+      <c r="G99" s="2"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="H100" s="1"/>
+      <c r="G100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="H101" s="1"/>
+      <c r="G101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H102" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="G102" s="3"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="H103" s="1"/>
+      <c r="G103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
       <c r="E104" s="3"/>
-      <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I105" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
-      <c r="P105" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="R105" s="0" t="n">
+      <c r="N105" s="1"/>
+      <c r="S105" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
       <c r="D106" s="1"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
-      <c r="H106" s="1"/>
+      <c r="G106" s="3"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>124</v>
@@ -4405,19 +4500,20 @@
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="1"/>
+      <c r="H107" s="3"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
-      <c r="R107" s="0" t="n">
+      <c r="N107" s="1"/>
+      <c r="S107" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -4425,16 +4521,17 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="1"/>
+      <c r="H108" s="3"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4448,10 +4545,11 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>126</v>
@@ -4467,10 +4565,11 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
@@ -4484,16 +4583,17 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -4503,47 +4603,50 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
-      <c r="N112" s="0" t="s">
-        <v>86</v>
+      <c r="N112" s="1"/>
+      <c r="O112" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H113" s="1"/>
+      <c r="G113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="H114" s="1"/>
+      <c r="G114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4557,6 +4660,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
@@ -4574,17 +4678,8 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
-    </row>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="N116" s="1"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4607,7 +4702,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.81"/>
@@ -4633,7 +4728,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>134</v>
@@ -4690,13 +4785,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,7 +4829,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>142</v>
@@ -4745,7 +4840,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>143</v>
@@ -4756,13 +4851,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,10 +4887,10 @@
         <v>144</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4957,10 +5052,10 @@
         <v>147</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4987,13 +5082,13 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5320,10 +5415,10 @@
         <v>177</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,10 +5767,10 @@
         <v>214</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5716,10 +5811,10 @@
         <v>214</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5867,7 +5962,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>233</v>
@@ -5878,7 +5973,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>234</v>
@@ -5889,7 +5984,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>235</v>
@@ -5900,7 +5995,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>236</v>
@@ -5911,13 +6006,13 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6035,10 +6130,10 @@
         <v>237</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6123,10 +6218,10 @@
         <v>248</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6200,10 +6295,10 @@
         <v>256</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,10 +6372,10 @@
         <v>260</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6321,10 +6416,10 @@
         <v>265</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6351,7 +6446,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>272</v>
@@ -6362,7 +6457,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>273</v>
@@ -6373,7 +6468,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>274</v>
@@ -6384,7 +6479,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>275</v>
@@ -6395,7 +6490,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>276</v>
@@ -6406,7 +6501,7 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>277</v>
@@ -6417,7 +6512,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>278</v>
@@ -6428,7 +6523,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>279</v>
@@ -6439,7 +6534,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>280</v>
@@ -6450,7 +6545,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>281</v>
@@ -6461,7 +6556,7 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>282</v>
@@ -6472,7 +6567,7 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>283</v>
@@ -6483,18 +6578,18 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>284</v>
@@ -6505,7 +6600,7 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>285</v>
@@ -6934,7 +7029,7 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>318</v>
@@ -6945,7 +7040,7 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>319</v>
@@ -6981,10 +7076,10 @@
         <v>320</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6992,10 +7087,10 @@
         <v>320</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7476,10 +7571,10 @@
         <v>347</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7517,7 +7612,7 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>1</v>
@@ -7528,7 +7623,7 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>2</v>
@@ -7539,7 +7634,7 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>3</v>
@@ -7550,7 +7645,7 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>4</v>
@@ -7561,7 +7656,7 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>5</v>
@@ -7572,7 +7667,7 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>6</v>
@@ -7583,7 +7678,7 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>7</v>
@@ -7594,7 +7689,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>8</v>
@@ -7605,7 +7700,7 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>9</v>
@@ -7616,7 +7711,7 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>10</v>
@@ -7627,7 +7722,7 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>11</v>
@@ -7638,7 +7733,7 @@
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>12</v>
@@ -7649,7 +7744,7 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>13</v>
@@ -7660,7 +7755,7 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>14</v>
@@ -7671,7 +7766,7 @@
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>15</v>
@@ -7682,7 +7777,7 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>16</v>
@@ -7693,7 +7788,7 @@
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>17</v>
@@ -7704,7 +7799,7 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>18</v>
@@ -7715,7 +7810,7 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>19</v>
@@ -7726,7 +7821,7 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>20</v>
@@ -7737,7 +7832,7 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>21</v>
@@ -7748,7 +7843,7 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>22</v>
@@ -7759,7 +7854,7 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>23</v>
@@ -7770,7 +7865,7 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>24</v>
@@ -7781,7 +7876,7 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>25</v>
@@ -7792,7 +7887,7 @@
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>26</v>
@@ -7803,7 +7898,7 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>27</v>
@@ -7814,7 +7909,7 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>28</v>
@@ -7825,7 +7920,7 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>29</v>
@@ -7836,7 +7931,7 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>30</v>
@@ -7847,7 +7942,7 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>31</v>
@@ -7858,7 +7953,7 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>1</v>
@@ -7869,7 +7964,7 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>2</v>
@@ -7880,7 +7975,7 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>3</v>
@@ -7891,7 +7986,7 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>4</v>
@@ -7902,7 +7997,7 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>5</v>
@@ -7913,7 +8008,7 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>6</v>
@@ -7924,7 +8019,7 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>7</v>
@@ -7935,7 +8030,7 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>8</v>
@@ -7946,7 +8041,7 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>9</v>
@@ -7957,7 +8052,7 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>10</v>
@@ -7968,7 +8063,7 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>11</v>
@@ -7979,7 +8074,7 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B301" s="0" t="n">
         <v>12</v>
@@ -7990,7 +8085,7 @@
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B302" s="0" t="n">
         <v>2021</v>
@@ -8001,7 +8096,7 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B303" s="0" t="n">
         <v>2020</v>
@@ -8012,7 +8107,7 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B304" s="0" t="n">
         <v>2019</v>
@@ -8023,7 +8118,7 @@
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B305" s="0" t="n">
         <v>2018</v>
@@ -8034,7 +8129,7 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B306" s="0" t="n">
         <v>2017</v>
@@ -8045,7 +8140,7 @@
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B307" s="0" t="n">
         <v>2016</v>
@@ -8056,7 +8151,7 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B308" s="0" t="n">
         <v>2015</v>
@@ -8067,7 +8162,7 @@
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B309" s="0" t="n">
         <v>2014</v>
@@ -8078,7 +8173,7 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B310" s="0" t="n">
         <v>2013</v>
@@ -8089,7 +8184,7 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B311" s="0" t="n">
         <v>2012</v>
@@ -8100,7 +8195,7 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B312" s="0" t="n">
         <v>2011</v>
@@ -8111,7 +8206,7 @@
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B313" s="0" t="n">
         <v>2010</v>
@@ -8122,7 +8217,7 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B314" s="0" t="n">
         <v>2009</v>
@@ -8133,7 +8228,7 @@
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B315" s="0" t="n">
         <v>2008</v>
@@ -8144,7 +8239,7 @@
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B316" s="0" t="n">
         <v>2007</v>
@@ -8155,7 +8250,7 @@
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B317" s="0" t="n">
         <v>2006</v>
@@ -8166,7 +8261,7 @@
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B318" s="0" t="n">
         <v>2005</v>
@@ -8177,7 +8272,7 @@
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B319" s="0" t="n">
         <v>2004</v>
@@ -8188,7 +8283,7 @@
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B320" s="0" t="n">
         <v>2003</v>
@@ -8199,7 +8294,7 @@
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B321" s="0" t="n">
         <v>2002</v>
@@ -8210,7 +8305,7 @@
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B322" s="0" t="n">
         <v>2001</v>
@@ -8221,7 +8316,7 @@
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B323" s="0" t="n">
         <v>2000</v>
@@ -8232,7 +8327,7 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B324" s="0" t="n">
         <v>1999</v>
@@ -8243,7 +8338,7 @@
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B325" s="0" t="n">
         <v>1998</v>
@@ -8254,7 +8349,7 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B326" s="0" t="n">
         <v>1997</v>
@@ -8265,7 +8360,7 @@
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B327" s="0" t="n">
         <v>1996</v>
@@ -8276,7 +8371,7 @@
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B328" s="0" t="n">
         <v>1995</v>
@@ -8287,7 +8382,7 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B329" s="0" t="n">
         <v>1994</v>
@@ -8298,7 +8393,7 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B330" s="0" t="n">
         <v>1993</v>
@@ -8309,7 +8404,7 @@
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B331" s="0" t="n">
         <v>1992</v>
@@ -8320,7 +8415,7 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B332" s="0" t="n">
         <v>1991</v>
@@ -8331,7 +8426,7 @@
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B333" s="0" t="n">
         <v>1990</v>
@@ -8342,7 +8437,7 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B334" s="0" t="n">
         <v>1989</v>
@@ -8353,7 +8448,7 @@
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B335" s="0" t="n">
         <v>1988</v>
@@ -8364,7 +8459,7 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B336" s="0" t="n">
         <v>1987</v>
@@ -8375,7 +8470,7 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B337" s="0" t="n">
         <v>1986</v>
@@ -8386,7 +8481,7 @@
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B338" s="0" t="n">
         <v>1985</v>
@@ -8397,7 +8492,7 @@
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B339" s="0" t="n">
         <v>1984</v>
@@ -8408,7 +8503,7 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B340" s="0" t="n">
         <v>1983</v>
@@ -8419,7 +8514,7 @@
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B341" s="0" t="n">
         <v>1982</v>
@@ -8430,7 +8525,7 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B342" s="0" t="n">
         <v>1981</v>
@@ -8441,7 +8536,7 @@
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B343" s="0" t="n">
         <v>1980</v>
@@ -8452,7 +8547,7 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B344" s="0" t="n">
         <v>1979</v>
@@ -8463,7 +8558,7 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B345" s="0" t="n">
         <v>1978</v>
@@ -8474,7 +8569,7 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B346" s="0" t="n">
         <v>1977</v>
@@ -8485,7 +8580,7 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B347" s="0" t="n">
         <v>1976</v>
@@ -8496,7 +8591,7 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B348" s="0" t="n">
         <v>1975</v>
@@ -8507,7 +8602,7 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B349" s="0" t="n">
         <v>1974</v>
@@ -8518,7 +8613,7 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B350" s="0" t="n">
         <v>1973</v>
@@ -8529,7 +8624,7 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B351" s="0" t="n">
         <v>1972</v>
@@ -8540,7 +8635,7 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B352" s="0" t="n">
         <v>1971</v>
@@ -8551,7 +8646,7 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B353" s="0" t="n">
         <v>1970</v>
@@ -8562,7 +8657,7 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B354" s="0" t="n">
         <v>1969</v>
@@ -8573,7 +8668,7 @@
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B355" s="0" t="n">
         <v>1968</v>
@@ -8584,7 +8679,7 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B356" s="0" t="n">
         <v>1967</v>
@@ -8595,7 +8690,7 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B357" s="0" t="n">
         <v>1966</v>
@@ -8606,7 +8701,7 @@
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B358" s="0" t="n">
         <v>1965</v>
@@ -8617,7 +8712,7 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B359" s="0" t="n">
         <v>1964</v>
@@ -8628,7 +8723,7 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B360" s="0" t="n">
         <v>1963</v>
@@ -8639,7 +8734,7 @@
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B361" s="0" t="n">
         <v>1962</v>
@@ -8650,7 +8745,7 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B362" s="0" t="n">
         <v>1961</v>
@@ -8661,7 +8756,7 @@
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B363" s="0" t="n">
         <v>1960</v>
@@ -8672,7 +8767,7 @@
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B364" s="0" t="n">
         <v>1959</v>
@@ -8683,7 +8778,7 @@
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B365" s="0" t="n">
         <v>1958</v>
@@ -8694,7 +8789,7 @@
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B366" s="0" t="n">
         <v>1957</v>
@@ -8705,7 +8800,7 @@
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B367" s="0" t="n">
         <v>1956</v>
@@ -8716,7 +8811,7 @@
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B368" s="0" t="n">
         <v>1955</v>
@@ -8727,7 +8822,7 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B369" s="0" t="n">
         <v>1954</v>
@@ -8738,7 +8833,7 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B370" s="0" t="n">
         <v>1953</v>
@@ -8749,7 +8844,7 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B371" s="0" t="n">
         <v>1952</v>
@@ -8760,7 +8855,7 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B372" s="0" t="n">
         <v>1951</v>
@@ -8771,7 +8866,7 @@
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B373" s="0" t="n">
         <v>1950</v>
@@ -8782,7 +8877,7 @@
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B374" s="0" t="n">
         <v>1949</v>
@@ -8793,7 +8888,7 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B375" s="0" t="n">
         <v>1948</v>
@@ -8804,7 +8899,7 @@
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B376" s="0" t="n">
         <v>1947</v>
@@ -8815,7 +8910,7 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B377" s="0" t="n">
         <v>1946</v>
@@ -8826,7 +8921,7 @@
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B378" s="0" t="n">
         <v>1945</v>
@@ -8837,7 +8932,7 @@
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B379" s="0" t="n">
         <v>1944</v>
@@ -8848,7 +8943,7 @@
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B380" s="0" t="n">
         <v>1943</v>
@@ -8859,7 +8954,7 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B381" s="0" t="n">
         <v>1942</v>
@@ -8870,7 +8965,7 @@
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B382" s="0" t="n">
         <v>1941</v>
@@ -8881,7 +8976,7 @@
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B383" s="0" t="n">
         <v>1940</v>
@@ -8892,7 +8987,7 @@
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B384" s="0" t="n">
         <v>1939</v>
@@ -8903,7 +8998,7 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B385" s="0" t="n">
         <v>1938</v>
@@ -8914,7 +9009,7 @@
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B386" s="0" t="n">
         <v>1937</v>
@@ -8925,7 +9020,7 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B387" s="0" t="n">
         <v>1936</v>
@@ -8936,7 +9031,7 @@
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B388" s="0" t="n">
         <v>1935</v>
@@ -8947,7 +9042,7 @@
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B389" s="0" t="n">
         <v>1934</v>
@@ -8958,7 +9053,7 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B390" s="0" t="n">
         <v>1933</v>
@@ -8969,7 +9064,7 @@
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B391" s="0" t="n">
         <v>1932</v>
@@ -8980,7 +9075,7 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B392" s="0" t="n">
         <v>1931</v>
@@ -8991,7 +9086,7 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B393" s="0" t="n">
         <v>1930</v>
@@ -9002,7 +9097,7 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B394" s="0" t="n">
         <v>1929</v>
@@ -9013,7 +9108,7 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B395" s="0" t="n">
         <v>1928</v>
@@ -9024,7 +9119,7 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B396" s="0" t="n">
         <v>1927</v>
@@ -9035,7 +9130,7 @@
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B397" s="0" t="n">
         <v>1926</v>
@@ -9046,7 +9141,7 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B398" s="0" t="n">
         <v>1925</v>
@@ -9057,7 +9152,7 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B399" s="0" t="n">
         <v>1924</v>
@@ -9068,7 +9163,7 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B400" s="0" t="n">
         <v>1923</v>
@@ -9079,7 +9174,7 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B401" s="0" t="n">
         <v>1922</v>
@@ -9090,7 +9185,7 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B402" s="0" t="n">
         <v>1921</v>
@@ -9101,7 +9196,7 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B403" s="0" t="n">
         <v>1920</v>
@@ -9162,7 +9257,7 @@
       <c r="E1" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>509</v>
       </c>
       <c r="G1" s="0" t="s">
@@ -9176,46 +9271,46 @@
       <c r="A2" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="0" t="s">
@@ -9226,3124 +9321,3124 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="F7" s="5"/>
+      <c r="C7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="F8" s="5"/>
+      <c r="C8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="F9" s="5"/>
+      <c r="C9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="F10" s="5"/>
+      <c r="C10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="F13" s="5"/>
+      <c r="C13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7" t="s">
+      <c r="C20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="0" t="s">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="8"/>
       <c r="E23" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="7"/>
+      <c r="B24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="8"/>
       <c r="E24" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
+      <c r="D27" s="9"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="8"/>
+      <c r="C28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="9"/>
       <c r="E28" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="9"/>
+      <c r="C29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="10"/>
       <c r="E29" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="F30" s="5"/>
+      <c r="C30" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="9"/>
+      <c r="C31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="10"/>
       <c r="E31" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="10"/>
       <c r="E34" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F34" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="0" t="s">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="0" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="10"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="7"/>
+      <c r="C41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="8"/>
       <c r="E41" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="7"/>
+      <c r="C42" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="8"/>
       <c r="E42" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="F43" s="5"/>
+      <c r="C43" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="11"/>
+      <c r="C44" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="12"/>
       <c r="E44" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="11"/>
+      <c r="C45" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="12"/>
       <c r="E45" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="F46" s="5"/>
+      <c r="C46" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="11"/>
+      <c r="C47" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="12"/>
       <c r="E47" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="11"/>
+      <c r="D48" s="12"/>
       <c r="E48" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="F49" s="5"/>
+      <c r="C49" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="11"/>
+      <c r="C50" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="12"/>
       <c r="E50" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="F50" s="5"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="12"/>
+      <c r="C51" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="13"/>
       <c r="E51" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F51" s="5"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="12"/>
+      <c r="C52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="13"/>
       <c r="E52" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F52" s="5"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="12"/>
+      <c r="C53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="13"/>
       <c r="E53" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F53" s="5"/>
+      <c r="F53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="F54" s="5"/>
+      <c r="D54" s="13"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="12"/>
+      <c r="C55" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="13"/>
       <c r="E55" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F55" s="5"/>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="F56" s="5"/>
+      <c r="D56" s="13"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="F57" s="5"/>
+      <c r="D57" s="13"/>
+      <c r="F57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="12"/>
+      <c r="C58" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="13"/>
       <c r="E58" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="F58" s="5"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="12"/>
+      <c r="C59" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="13"/>
       <c r="E59" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="12"/>
+      <c r="C60" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="13"/>
       <c r="E60" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="F60" s="5"/>
+      <c r="F60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="D61" s="12"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="F61" s="5"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="12"/>
+      <c r="C62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="13"/>
       <c r="E62" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="F62" s="5"/>
+      <c r="F62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="12"/>
+      <c r="C63" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="13"/>
       <c r="E63" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="F63" s="5"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="12"/>
-      <c r="F64" s="5"/>
+      <c r="C64" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="13"/>
+      <c r="F64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="12"/>
+      <c r="C65" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="13"/>
       <c r="E65" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="F65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" s="12"/>
+      <c r="C66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="13"/>
       <c r="E66" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="F66" s="5"/>
+      <c r="F66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="12"/>
-      <c r="F67" s="5"/>
+      <c r="C67" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="F67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="12"/>
+      <c r="C68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="13"/>
       <c r="E68" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="F68" s="5"/>
+      <c r="F68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="12"/>
-      <c r="F69" s="5"/>
+      <c r="C69" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="F69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" s="12"/>
+      <c r="C70" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="13"/>
       <c r="E70" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F70" s="5"/>
+      <c r="F70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D71" s="12"/>
+      <c r="C71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="13"/>
       <c r="E71" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="F71" s="5"/>
+      <c r="F71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" s="12"/>
-      <c r="F72" s="5"/>
+      <c r="C72" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="F72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="12"/>
+      <c r="C73" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="13"/>
       <c r="E73" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F73" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="F73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="12"/>
+      <c r="C74" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="13"/>
       <c r="E74" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="F74" s="5"/>
+      <c r="F74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="12"/>
+      <c r="C75" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="13"/>
       <c r="E75" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F75" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="F75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="12"/>
+      <c r="C76" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="13"/>
       <c r="E76" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="F76" s="5"/>
+      <c r="F76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D77" s="12"/>
+      <c r="C77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" s="13"/>
       <c r="E77" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="F77" s="5"/>
+      <c r="F77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D78" s="12"/>
+      <c r="C78" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="13"/>
       <c r="E78" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="F78" s="5"/>
+      <c r="F78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="C79" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="12"/>
+      <c r="C79" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="13"/>
       <c r="E79" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F79" s="5"/>
+      <c r="F79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="12"/>
+      <c r="C80" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="13"/>
       <c r="E80" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F80" s="5"/>
+      <c r="F80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="C81" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" s="12"/>
+      <c r="C81" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="13"/>
       <c r="E81" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F81" s="5"/>
+      <c r="F81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="C82" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="12"/>
+      <c r="C82" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="13"/>
       <c r="E82" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="F82" s="5"/>
+      <c r="F82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="C83" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" s="12"/>
+      <c r="C83" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="13"/>
       <c r="E83" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="F83" s="5"/>
+      <c r="F83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="12"/>
+      <c r="C84" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="13"/>
       <c r="E84" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F84" s="5"/>
+      <c r="F84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="C85" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" s="12"/>
+      <c r="C85" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="13"/>
       <c r="E85" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="F85" s="5"/>
+      <c r="F85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="C86" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" s="12"/>
+      <c r="C86" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="13"/>
       <c r="E86" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F86" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="F86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="C87" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D87" s="12"/>
-      <c r="F87" s="5"/>
+      <c r="C87" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="F87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88" s="12"/>
+      <c r="C88" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D88" s="13"/>
       <c r="E88" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F88" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="F88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="12"/>
+      <c r="C89" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="13"/>
       <c r="E89" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="F89" s="5"/>
+      <c r="F89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="C90" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="12"/>
+      <c r="C90" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="13"/>
       <c r="E90" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="F90" s="5"/>
+      <c r="F90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="C91" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D91" s="12"/>
+      <c r="C91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" s="13"/>
       <c r="E91" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="F91" s="5"/>
+      <c r="F91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="C92" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" s="12"/>
+      <c r="C92" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="13"/>
       <c r="E92" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="F92" s="5"/>
+      <c r="F92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="C93" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D93" s="12"/>
+      <c r="C93" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="13"/>
       <c r="E93" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="F93" s="5"/>
+      <c r="F93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="C94" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" s="12"/>
+      <c r="C94" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" s="13"/>
       <c r="E94" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="F94" s="5"/>
+      <c r="F94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D95" s="12"/>
+      <c r="C95" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="13"/>
       <c r="E95" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="F95" s="5"/>
+      <c r="F95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="C96" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D96" s="12"/>
+      <c r="C96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" s="13"/>
       <c r="E96" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="F96" s="5"/>
+      <c r="F96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="C97" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97" s="12"/>
+      <c r="C97" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="13"/>
       <c r="E97" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="F97" s="5"/>
+      <c r="F97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D98" s="12"/>
-      <c r="F98" s="5"/>
+      <c r="C98" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="13"/>
+      <c r="F98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F99" s="5"/>
+      <c r="F99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F100" s="5"/>
+      <c r="F100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F101" s="5"/>
+      <c r="F101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F102" s="5"/>
+      <c r="F102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F103" s="5"/>
+      <c r="F103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F104" s="5"/>
+      <c r="F104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F105" s="5"/>
+      <c r="F105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F106" s="5"/>
+      <c r="F106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F107" s="5"/>
+      <c r="F107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F108" s="5"/>
+      <c r="F108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F109" s="5"/>
+      <c r="F109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F110" s="5"/>
+      <c r="F110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F111" s="5"/>
+      <c r="F111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F112" s="5"/>
+      <c r="F112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F113" s="5"/>
+      <c r="F113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F114" s="5"/>
+      <c r="F114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F115" s="5"/>
+      <c r="F115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F116" s="5"/>
+      <c r="F116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F117" s="5"/>
+      <c r="F117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F118" s="5"/>
+      <c r="F118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F119" s="5"/>
+      <c r="F119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F120" s="5"/>
+      <c r="F120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F121" s="5"/>
+      <c r="F121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F122" s="5"/>
+      <c r="F122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F123" s="5"/>
+      <c r="F123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F124" s="5"/>
+      <c r="F124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F125" s="5"/>
+      <c r="F125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F126" s="5"/>
+      <c r="F126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F127" s="5"/>
+      <c r="F127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F128" s="5"/>
+      <c r="F128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F129" s="5"/>
+      <c r="F129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F130" s="5"/>
+      <c r="F130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F131" s="5"/>
+      <c r="F131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F132" s="5"/>
+      <c r="F132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F133" s="5"/>
+      <c r="F133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F134" s="5"/>
+      <c r="F134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F135" s="5"/>
+      <c r="F135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F136" s="5"/>
+      <c r="F136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F137" s="5"/>
+      <c r="F137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F138" s="5"/>
+      <c r="F138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F139" s="5"/>
+      <c r="F139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F140" s="5"/>
+      <c r="F140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F141" s="5"/>
+      <c r="F141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F142" s="5"/>
+      <c r="F142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F143" s="5"/>
+      <c r="F143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F144" s="5"/>
+      <c r="F144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F145" s="5"/>
+      <c r="F145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F146" s="5"/>
+      <c r="F146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F147" s="5"/>
+      <c r="F147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F148" s="5"/>
+      <c r="F148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F149" s="5"/>
+      <c r="F149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F150" s="5"/>
+      <c r="F150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F151" s="5"/>
+      <c r="F151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F152" s="5"/>
+      <c r="F152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F153" s="5"/>
+      <c r="F153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F154" s="5"/>
+      <c r="F154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F155" s="5"/>
+      <c r="F155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F156" s="5"/>
+      <c r="F156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F157" s="5"/>
+      <c r="F157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F158" s="5"/>
+      <c r="F158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F159" s="5"/>
+      <c r="F159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F160" s="5"/>
+      <c r="F160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F161" s="5"/>
+      <c r="F161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F162" s="5"/>
+      <c r="F162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F163" s="5"/>
+      <c r="F163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F164" s="5"/>
+      <c r="F164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F165" s="5"/>
+      <c r="F165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F166" s="5"/>
+      <c r="F166" s="6"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F167" s="5"/>
+      <c r="F167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F168" s="5"/>
+      <c r="F168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F169" s="5"/>
+      <c r="F169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F170" s="5"/>
+      <c r="F170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F171" s="5"/>
+      <c r="F171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F172" s="5"/>
+      <c r="F172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F173" s="5"/>
+      <c r="F173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F174" s="5"/>
+      <c r="F174" s="6"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F175" s="5"/>
+      <c r="F175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F176" s="5"/>
+      <c r="F176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F177" s="5"/>
+      <c r="F177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F178" s="5"/>
+      <c r="F178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F179" s="5"/>
+      <c r="F179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F180" s="5"/>
+      <c r="F180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F181" s="5"/>
+      <c r="F181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F182" s="5"/>
+      <c r="F182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F183" s="5"/>
+      <c r="F183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F184" s="5"/>
+      <c r="F184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F185" s="5"/>
+      <c r="F185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F186" s="5"/>
+      <c r="F186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F187" s="5"/>
+      <c r="F187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F188" s="5"/>
+      <c r="F188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F189" s="5"/>
+      <c r="F189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F190" s="5"/>
+      <c r="F190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F191" s="5"/>
+      <c r="F191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F192" s="5"/>
+      <c r="F192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F193" s="5"/>
+      <c r="F193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F194" s="5"/>
+      <c r="F194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F195" s="5"/>
+      <c r="F195" s="6"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F196" s="5"/>
+      <c r="F196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F197" s="5"/>
+      <c r="F197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F198" s="5"/>
+      <c r="F198" s="6"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F199" s="5"/>
+      <c r="F199" s="6"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F200" s="5"/>
+      <c r="F200" s="6"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F201" s="5"/>
+      <c r="F201" s="6"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F202" s="5"/>
+      <c r="F202" s="6"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F203" s="5"/>
+      <c r="F203" s="6"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F204" s="5"/>
+      <c r="F204" s="6"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F205" s="5"/>
+      <c r="F205" s="6"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F206" s="5"/>
+      <c r="F206" s="6"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F207" s="5"/>
+      <c r="F207" s="6"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F208" s="5"/>
+      <c r="F208" s="6"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F209" s="5"/>
+      <c r="F209" s="6"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F210" s="5"/>
+      <c r="F210" s="6"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F211" s="5"/>
+      <c r="F211" s="6"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F212" s="5"/>
+      <c r="F212" s="6"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F213" s="5"/>
+      <c r="F213" s="6"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F214" s="5"/>
+      <c r="F214" s="6"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F215" s="5"/>
+      <c r="F215" s="6"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F216" s="5"/>
+      <c r="F216" s="6"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F217" s="5"/>
+      <c r="F217" s="6"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F218" s="5"/>
+      <c r="F218" s="6"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F219" s="5"/>
+      <c r="F219" s="6"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F220" s="5"/>
+      <c r="F220" s="6"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F221" s="5"/>
+      <c r="F221" s="6"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F222" s="5"/>
+      <c r="F222" s="6"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F223" s="5"/>
+      <c r="F223" s="6"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F224" s="5"/>
+      <c r="F224" s="6"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F225" s="5"/>
+      <c r="F225" s="6"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F226" s="5"/>
+      <c r="F226" s="6"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F227" s="5"/>
+      <c r="F227" s="6"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F228" s="5"/>
+      <c r="F228" s="6"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F229" s="5"/>
+      <c r="F229" s="6"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F230" s="5"/>
+      <c r="F230" s="6"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F231" s="5"/>
+      <c r="F231" s="6"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F232" s="5"/>
+      <c r="F232" s="6"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F233" s="5"/>
+      <c r="F233" s="6"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F234" s="5"/>
+      <c r="F234" s="6"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F235" s="5"/>
+      <c r="F235" s="6"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F236" s="5"/>
+      <c r="F236" s="6"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F237" s="5"/>
+      <c r="F237" s="6"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F238" s="5"/>
+      <c r="F238" s="6"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F239" s="5"/>
+      <c r="F239" s="6"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F240" s="5"/>
+      <c r="F240" s="6"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F241" s="5"/>
+      <c r="F241" s="6"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F242" s="5"/>
+      <c r="F242" s="6"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F243" s="5"/>
+      <c r="F243" s="6"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F244" s="5"/>
+      <c r="F244" s="6"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F245" s="5"/>
+      <c r="F245" s="6"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F246" s="5"/>
+      <c r="F246" s="6"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F247" s="5"/>
+      <c r="F247" s="6"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F248" s="5"/>
+      <c r="F248" s="6"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F249" s="5"/>
+      <c r="F249" s="6"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F250" s="5"/>
+      <c r="F250" s="6"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F251" s="5"/>
+      <c r="F251" s="6"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F252" s="5"/>
+      <c r="F252" s="6"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F253" s="5"/>
+      <c r="F253" s="6"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F254" s="5"/>
+      <c r="F254" s="6"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F255" s="5"/>
+      <c r="F255" s="6"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F256" s="5"/>
+      <c r="F256" s="6"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F257" s="5"/>
+      <c r="F257" s="6"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F258" s="5"/>
+      <c r="F258" s="6"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F259" s="5"/>
+      <c r="F259" s="6"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F260" s="5"/>
+      <c r="F260" s="6"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F261" s="5"/>
+      <c r="F261" s="6"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F262" s="5"/>
+      <c r="F262" s="6"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F263" s="5"/>
+      <c r="F263" s="6"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F264" s="5"/>
+      <c r="F264" s="6"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F265" s="5"/>
+      <c r="F265" s="6"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F266" s="5"/>
+      <c r="F266" s="6"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F267" s="5"/>
+      <c r="F267" s="6"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F268" s="5"/>
+      <c r="F268" s="6"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F269" s="5"/>
+      <c r="F269" s="6"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F270" s="5"/>
+      <c r="F270" s="6"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F271" s="5"/>
+      <c r="F271" s="6"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F272" s="5"/>
+      <c r="F272" s="6"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F273" s="5"/>
+      <c r="F273" s="6"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F274" s="5"/>
+      <c r="F274" s="6"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F275" s="5"/>
+      <c r="F275" s="6"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F276" s="5"/>
+      <c r="F276" s="6"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F277" s="5"/>
+      <c r="F277" s="6"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F278" s="5"/>
+      <c r="F278" s="6"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F279" s="5"/>
+      <c r="F279" s="6"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F280" s="5"/>
+      <c r="F280" s="6"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F281" s="5"/>
+      <c r="F281" s="6"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F282" s="5"/>
+      <c r="F282" s="6"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F283" s="5"/>
+      <c r="F283" s="6"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F284" s="5"/>
+      <c r="F284" s="6"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F285" s="5"/>
+      <c r="F285" s="6"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F286" s="5"/>
+      <c r="F286" s="6"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F287" s="5"/>
+      <c r="F287" s="6"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F288" s="5"/>
+      <c r="F288" s="6"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F289" s="5"/>
+      <c r="F289" s="6"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F290" s="5"/>
+      <c r="F290" s="6"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F291" s="5"/>
+      <c r="F291" s="6"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F292" s="5"/>
+      <c r="F292" s="6"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F293" s="5"/>
+      <c r="F293" s="6"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F294" s="5"/>
+      <c r="F294" s="6"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F295" s="5"/>
+      <c r="F295" s="6"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F296" s="5"/>
+      <c r="F296" s="6"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F297" s="5"/>
+      <c r="F297" s="6"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F298" s="5"/>
+      <c r="F298" s="6"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F299" s="5"/>
+      <c r="F299" s="6"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F300" s="5"/>
+      <c r="F300" s="6"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F301" s="5"/>
+      <c r="F301" s="6"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F302" s="5"/>
+      <c r="F302" s="6"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F303" s="5"/>
+      <c r="F303" s="6"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F304" s="5"/>
+      <c r="F304" s="6"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F305" s="5"/>
+      <c r="F305" s="6"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F306" s="5"/>
+      <c r="F306" s="6"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F307" s="5"/>
+      <c r="F307" s="6"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F308" s="5"/>
+      <c r="F308" s="6"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F309" s="5"/>
+      <c r="F309" s="6"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F310" s="5"/>
+      <c r="F310" s="6"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F311" s="5"/>
+      <c r="F311" s="6"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F312" s="5"/>
+      <c r="F312" s="6"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F313" s="5"/>
+      <c r="F313" s="6"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F314" s="5"/>
+      <c r="F314" s="6"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F315" s="5"/>
+      <c r="F315" s="6"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F316" s="5"/>
+      <c r="F316" s="6"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F317" s="5"/>
+      <c r="F317" s="6"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F318" s="5"/>
+      <c r="F318" s="6"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F319" s="5"/>
+      <c r="F319" s="6"/>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F320" s="5"/>
+      <c r="F320" s="6"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F321" s="5"/>
+      <c r="F321" s="6"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F322" s="5"/>
+      <c r="F322" s="6"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F323" s="5"/>
+      <c r="F323" s="6"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F324" s="5"/>
+      <c r="F324" s="6"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F325" s="5"/>
+      <c r="F325" s="6"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F326" s="5"/>
+      <c r="F326" s="6"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F327" s="5"/>
+      <c r="F327" s="6"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F328" s="5"/>
+      <c r="F328" s="6"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F329" s="5"/>
+      <c r="F329" s="6"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F330" s="5"/>
+      <c r="F330" s="6"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F331" s="5"/>
+      <c r="F331" s="6"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F332" s="5"/>
+      <c r="F332" s="6"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F333" s="5"/>
+      <c r="F333" s="6"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F334" s="5"/>
+      <c r="F334" s="6"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F335" s="5"/>
+      <c r="F335" s="6"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F336" s="5"/>
+      <c r="F336" s="6"/>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F337" s="5"/>
+      <c r="F337" s="6"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F338" s="5"/>
+      <c r="F338" s="6"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F339" s="5"/>
+      <c r="F339" s="6"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F340" s="5"/>
+      <c r="F340" s="6"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F341" s="5"/>
+      <c r="F341" s="6"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F342" s="5"/>
+      <c r="F342" s="6"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F343" s="5"/>
+      <c r="F343" s="6"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F344" s="5"/>
+      <c r="F344" s="6"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F345" s="5"/>
+      <c r="F345" s="6"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F346" s="5"/>
+      <c r="F346" s="6"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F347" s="5"/>
+      <c r="F347" s="6"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F348" s="5"/>
+      <c r="F348" s="6"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F349" s="5"/>
+      <c r="F349" s="6"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F350" s="5"/>
+      <c r="F350" s="6"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F351" s="5"/>
+      <c r="F351" s="6"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F352" s="5"/>
+      <c r="F352" s="6"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F353" s="5"/>
+      <c r="F353" s="6"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F354" s="5"/>
+      <c r="F354" s="6"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F355" s="5"/>
+      <c r="F355" s="6"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F356" s="5"/>
+      <c r="F356" s="6"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F357" s="5"/>
+      <c r="F357" s="6"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F358" s="5"/>
+      <c r="F358" s="6"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F359" s="5"/>
+      <c r="F359" s="6"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F360" s="5"/>
+      <c r="F360" s="6"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F361" s="5"/>
+      <c r="F361" s="6"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F362" s="5"/>
+      <c r="F362" s="6"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F363" s="5"/>
+      <c r="F363" s="6"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F364" s="5"/>
+      <c r="F364" s="6"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F365" s="5"/>
+      <c r="F365" s="6"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F366" s="5"/>
+      <c r="F366" s="6"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F367" s="5"/>
+      <c r="F367" s="6"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F368" s="5"/>
+      <c r="F368" s="6"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F369" s="5"/>
+      <c r="F369" s="6"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F370" s="5"/>
+      <c r="F370" s="6"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F371" s="5"/>
+      <c r="F371" s="6"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F372" s="5"/>
+      <c r="F372" s="6"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F373" s="5"/>
+      <c r="F373" s="6"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F374" s="5"/>
+      <c r="F374" s="6"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F375" s="5"/>
+      <c r="F375" s="6"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F376" s="5"/>
+      <c r="F376" s="6"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F377" s="5"/>
+      <c r="F377" s="6"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F378" s="5"/>
+      <c r="F378" s="6"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F379" s="5"/>
+      <c r="F379" s="6"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F380" s="5"/>
+      <c r="F380" s="6"/>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F381" s="5"/>
+      <c r="F381" s="6"/>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F382" s="5"/>
+      <c r="F382" s="6"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F383" s="5"/>
+      <c r="F383" s="6"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F384" s="5"/>
+      <c r="F384" s="6"/>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F385" s="5"/>
+      <c r="F385" s="6"/>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F386" s="5"/>
+      <c r="F386" s="6"/>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F387" s="5"/>
+      <c r="F387" s="6"/>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F388" s="5"/>
+      <c r="F388" s="6"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F389" s="5"/>
+      <c r="F389" s="6"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F390" s="5"/>
+      <c r="F390" s="6"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F391" s="5"/>
+      <c r="F391" s="6"/>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F392" s="5"/>
+      <c r="F392" s="6"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F393" s="5"/>
+      <c r="F393" s="6"/>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F394" s="5"/>
+      <c r="F394" s="6"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F395" s="5"/>
+      <c r="F395" s="6"/>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F396" s="5"/>
+      <c r="F396" s="6"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F397" s="5"/>
+      <c r="F397" s="6"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F398" s="5"/>
+      <c r="F398" s="6"/>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F399" s="5"/>
+      <c r="F399" s="6"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F400" s="5"/>
+      <c r="F400" s="6"/>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F401" s="5"/>
+      <c r="F401" s="6"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F402" s="5"/>
+      <c r="F402" s="6"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F403" s="5"/>
+      <c r="F403" s="6"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F404" s="5"/>
+      <c r="F404" s="6"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F405" s="5"/>
+      <c r="F405" s="6"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F406" s="5"/>
+      <c r="F406" s="6"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F407" s="5"/>
+      <c r="F407" s="6"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F408" s="5"/>
+      <c r="F408" s="6"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F409" s="5"/>
+      <c r="F409" s="6"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F410" s="5"/>
+      <c r="F410" s="6"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F411" s="5"/>
+      <c r="F411" s="6"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F412" s="5"/>
+      <c r="F412" s="6"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F413" s="5"/>
+      <c r="F413" s="6"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F414" s="5"/>
+      <c r="F414" s="6"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F415" s="5"/>
+      <c r="F415" s="6"/>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F416" s="5"/>
+      <c r="F416" s="6"/>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F417" s="5"/>
+      <c r="F417" s="6"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F418" s="5"/>
+      <c r="F418" s="6"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F419" s="5"/>
+      <c r="F419" s="6"/>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F420" s="5"/>
+      <c r="F420" s="6"/>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F421" s="5"/>
+      <c r="F421" s="6"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F422" s="5"/>
+      <c r="F422" s="6"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F423" s="5"/>
+      <c r="F423" s="6"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F424" s="5"/>
+      <c r="F424" s="6"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F425" s="5"/>
+      <c r="F425" s="6"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F426" s="5"/>
+      <c r="F426" s="6"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F427" s="5"/>
+      <c r="F427" s="6"/>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F428" s="5"/>
+      <c r="F428" s="6"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F429" s="5"/>
+      <c r="F429" s="6"/>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F430" s="5"/>
+      <c r="F430" s="6"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F431" s="5"/>
+      <c r="F431" s="6"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F432" s="5"/>
+      <c r="F432" s="6"/>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F433" s="5"/>
+      <c r="F433" s="6"/>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F434" s="5"/>
+      <c r="F434" s="6"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F435" s="5"/>
+      <c r="F435" s="6"/>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F436" s="5"/>
+      <c r="F436" s="6"/>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F437" s="5"/>
+      <c r="F437" s="6"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F438" s="5"/>
+      <c r="F438" s="6"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F439" s="5"/>
+      <c r="F439" s="6"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F440" s="5"/>
+      <c r="F440" s="6"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F441" s="5"/>
+      <c r="F441" s="6"/>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F442" s="5"/>
+      <c r="F442" s="6"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F443" s="5"/>
+      <c r="F443" s="6"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F444" s="5"/>
+      <c r="F444" s="6"/>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F445" s="5"/>
+      <c r="F445" s="6"/>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F446" s="5"/>
+      <c r="F446" s="6"/>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F447" s="5"/>
+      <c r="F447" s="6"/>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F448" s="5"/>
+      <c r="F448" s="6"/>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F449" s="5"/>
+      <c r="F449" s="6"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F450" s="5"/>
+      <c r="F450" s="6"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F451" s="5"/>
+      <c r="F451" s="6"/>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F452" s="5"/>
+      <c r="F452" s="6"/>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F453" s="5"/>
+      <c r="F453" s="6"/>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F454" s="5"/>
+      <c r="F454" s="6"/>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F455" s="5"/>
+      <c r="F455" s="6"/>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F456" s="5"/>
+      <c r="F456" s="6"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F457" s="5"/>
+      <c r="F457" s="6"/>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F458" s="5"/>
+      <c r="F458" s="6"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F459" s="5"/>
+      <c r="F459" s="6"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F460" s="5"/>
+      <c r="F460" s="6"/>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F461" s="5"/>
+      <c r="F461" s="6"/>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F462" s="5"/>
+      <c r="F462" s="6"/>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F463" s="5"/>
+      <c r="F463" s="6"/>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F464" s="5"/>
+      <c r="F464" s="6"/>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F465" s="5"/>
+      <c r="F465" s="6"/>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F466" s="5"/>
+      <c r="F466" s="6"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F467" s="5"/>
+      <c r="F467" s="6"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F468" s="5"/>
+      <c r="F468" s="6"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F469" s="5"/>
+      <c r="F469" s="6"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F470" s="5"/>
+      <c r="F470" s="6"/>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F471" s="5"/>
+      <c r="F471" s="6"/>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F472" s="5"/>
+      <c r="F472" s="6"/>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F473" s="5"/>
+      <c r="F473" s="6"/>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F474" s="5"/>
+      <c r="F474" s="6"/>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F475" s="5"/>
+      <c r="F475" s="6"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F476" s="5"/>
+      <c r="F476" s="6"/>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F477" s="5"/>
+      <c r="F477" s="6"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F478" s="5"/>
+      <c r="F478" s="6"/>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F479" s="5"/>
+      <c r="F479" s="6"/>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F480" s="5"/>
+      <c r="F480" s="6"/>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F481" s="5"/>
+      <c r="F481" s="6"/>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F482" s="5"/>
+      <c r="F482" s="6"/>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F483" s="5"/>
+      <c r="F483" s="6"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F484" s="5"/>
+      <c r="F484" s="6"/>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F485" s="5"/>
+      <c r="F485" s="6"/>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F486" s="5"/>
+      <c r="F486" s="6"/>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F487" s="5"/>
+      <c r="F487" s="6"/>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F488" s="5"/>
+      <c r="F488" s="6"/>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F489" s="5"/>
+      <c r="F489" s="6"/>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F490" s="5"/>
+      <c r="F490" s="6"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F491" s="5"/>
+      <c r="F491" s="6"/>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F492" s="5"/>
+      <c r="F492" s="6"/>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F493" s="5"/>
+      <c r="F493" s="6"/>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F494" s="5"/>
+      <c r="F494" s="6"/>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F495" s="5"/>
+      <c r="F495" s="6"/>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F496" s="5"/>
+      <c r="F496" s="6"/>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F497" s="5"/>
+      <c r="F497" s="6"/>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F498" s="5"/>
+      <c r="F498" s="6"/>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F499" s="5"/>
+      <c r="F499" s="6"/>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F500" s="5"/>
+      <c r="F500" s="6"/>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F501" s="5"/>
+      <c r="F501" s="6"/>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F502" s="5"/>
+      <c r="F502" s="6"/>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F503" s="5"/>
+      <c r="F503" s="6"/>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F504" s="5"/>
+      <c r="F504" s="6"/>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F505" s="5"/>
+      <c r="F505" s="6"/>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F506" s="5"/>
+      <c r="F506" s="6"/>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F507" s="5"/>
+      <c r="F507" s="6"/>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F508" s="5"/>
+      <c r="F508" s="6"/>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F509" s="5"/>
+      <c r="F509" s="6"/>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F510" s="5"/>
+      <c r="F510" s="6"/>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F511" s="5"/>
+      <c r="F511" s="6"/>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F512" s="5"/>
+      <c r="F512" s="6"/>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F513" s="5"/>
+      <c r="F513" s="6"/>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F514" s="5"/>
+      <c r="F514" s="6"/>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F515" s="5"/>
+      <c r="F515" s="6"/>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F516" s="5"/>
+      <c r="F516" s="6"/>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F517" s="5"/>
+      <c r="F517" s="6"/>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F518" s="5"/>
+      <c r="F518" s="6"/>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F519" s="5"/>
+      <c r="F519" s="6"/>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F520" s="5"/>
+      <c r="F520" s="6"/>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F521" s="5"/>
+      <c r="F521" s="6"/>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F522" s="5"/>
+      <c r="F522" s="6"/>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F523" s="5"/>
+      <c r="F523" s="6"/>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F524" s="5"/>
+      <c r="F524" s="6"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F525" s="5"/>
+      <c r="F525" s="6"/>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F526" s="5"/>
+      <c r="F526" s="6"/>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F527" s="5"/>
+      <c r="F527" s="6"/>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F528" s="5"/>
+      <c r="F528" s="6"/>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F529" s="5"/>
+      <c r="F529" s="6"/>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F530" s="5"/>
+      <c r="F530" s="6"/>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F531" s="5"/>
+      <c r="F531" s="6"/>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F532" s="5"/>
+      <c r="F532" s="6"/>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F533" s="5"/>
+      <c r="F533" s="6"/>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F534" s="5"/>
+      <c r="F534" s="6"/>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F535" s="5"/>
+      <c r="F535" s="6"/>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F536" s="5"/>
+      <c r="F536" s="6"/>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F537" s="5"/>
+      <c r="F537" s="6"/>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F538" s="5"/>
+      <c r="F538" s="6"/>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F539" s="5"/>
+      <c r="F539" s="6"/>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F540" s="5"/>
+      <c r="F540" s="6"/>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F541" s="5"/>
+      <c r="F541" s="6"/>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F542" s="5"/>
+      <c r="F542" s="6"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F543" s="5"/>
+      <c r="F543" s="6"/>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F544" s="5"/>
+      <c r="F544" s="6"/>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F545" s="5"/>
+      <c r="F545" s="6"/>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F546" s="5"/>
+      <c r="F546" s="6"/>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F547" s="5"/>
+      <c r="F547" s="6"/>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F548" s="5"/>
+      <c r="F548" s="6"/>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F549" s="5"/>
+      <c r="F549" s="6"/>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F550" s="5"/>
+      <c r="F550" s="6"/>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F551" s="5"/>
+      <c r="F551" s="6"/>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F552" s="5"/>
+      <c r="F552" s="6"/>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F553" s="5"/>
+      <c r="F553" s="6"/>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F554" s="5"/>
+      <c r="F554" s="6"/>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F555" s="5"/>
+      <c r="F555" s="6"/>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F556" s="5"/>
+      <c r="F556" s="6"/>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F557" s="5"/>
+      <c r="F557" s="6"/>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F558" s="5"/>
+      <c r="F558" s="6"/>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F559" s="5"/>
+      <c r="F559" s="6"/>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F560" s="5"/>
+      <c r="F560" s="6"/>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F561" s="5"/>
+      <c r="F561" s="6"/>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F562" s="5"/>
+      <c r="F562" s="6"/>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F563" s="5"/>
+      <c r="F563" s="6"/>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F564" s="5"/>
+      <c r="F564" s="6"/>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F565" s="5"/>
+      <c r="F565" s="6"/>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F566" s="5"/>
+      <c r="F566" s="6"/>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F567" s="5"/>
+      <c r="F567" s="6"/>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F568" s="5"/>
+      <c r="F568" s="6"/>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F569" s="5"/>
+      <c r="F569" s="6"/>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F570" s="5"/>
+      <c r="F570" s="6"/>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F571" s="5"/>
+      <c r="F571" s="6"/>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F572" s="5"/>
+      <c r="F572" s="6"/>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F573" s="5"/>
+      <c r="F573" s="6"/>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F574" s="5"/>
+      <c r="F574" s="6"/>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F575" s="5"/>
+      <c r="F575" s="6"/>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F576" s="5"/>
+      <c r="F576" s="6"/>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F577" s="5"/>
+      <c r="F577" s="6"/>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F578" s="5"/>
+      <c r="F578" s="6"/>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F579" s="5"/>
+      <c r="F579" s="6"/>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F580" s="5"/>
+      <c r="F580" s="6"/>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F581" s="5"/>
+      <c r="F581" s="6"/>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F582" s="5"/>
+      <c r="F582" s="6"/>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F583" s="5"/>
+      <c r="F583" s="6"/>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F584" s="5"/>
+      <c r="F584" s="6"/>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F585" s="5"/>
+      <c r="F585" s="6"/>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F586" s="5"/>
+      <c r="F586" s="6"/>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F587" s="5"/>
+      <c r="F587" s="6"/>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F588" s="5"/>
+      <c r="F588" s="6"/>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F589" s="5"/>
+      <c r="F589" s="6"/>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F590" s="5"/>
+      <c r="F590" s="6"/>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F591" s="5"/>
+      <c r="F591" s="6"/>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F592" s="5"/>
+      <c r="F592" s="6"/>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F593" s="5"/>
+      <c r="F593" s="6"/>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F594" s="5"/>
+      <c r="F594" s="6"/>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F595" s="5"/>
+      <c r="F595" s="6"/>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F596" s="5"/>
+      <c r="F596" s="6"/>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F597" s="5"/>
+      <c r="F597" s="6"/>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F598" s="5"/>
+      <c r="F598" s="6"/>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F599" s="5"/>
+      <c r="F599" s="6"/>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F600" s="5"/>
+      <c r="F600" s="6"/>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F601" s="5"/>
+      <c r="F601" s="6"/>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F602" s="5"/>
+      <c r="F602" s="6"/>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F603" s="5"/>
+      <c r="F603" s="6"/>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F604" s="5"/>
+      <c r="F604" s="6"/>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F605" s="5"/>
+      <c r="F605" s="6"/>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F606" s="5"/>
+      <c r="F606" s="6"/>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F607" s="5"/>
+      <c r="F607" s="6"/>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F608" s="5"/>
+      <c r="F608" s="6"/>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F609" s="5"/>
+      <c r="F609" s="6"/>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F610" s="5"/>
+      <c r="F610" s="6"/>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F611" s="5"/>
+      <c r="F611" s="6"/>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F612" s="5"/>
+      <c r="F612" s="6"/>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F613" s="5"/>
+      <c r="F613" s="6"/>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F614" s="5"/>
+      <c r="F614" s="6"/>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F615" s="5"/>
+      <c r="F615" s="6"/>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F616" s="5"/>
+      <c r="F616" s="6"/>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F617" s="5"/>
+      <c r="F617" s="6"/>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F618" s="5"/>
+      <c r="F618" s="6"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F619" s="5"/>
+      <c r="F619" s="6"/>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F620" s="5"/>
+      <c r="F620" s="6"/>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F621" s="5"/>
+      <c r="F621" s="6"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F622" s="5"/>
+      <c r="F622" s="6"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F623" s="5"/>
+      <c r="F623" s="6"/>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F624" s="5"/>
+      <c r="F624" s="6"/>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F625" s="5"/>
+      <c r="F625" s="6"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F626" s="5"/>
+      <c r="F626" s="6"/>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F627" s="5"/>
+      <c r="F627" s="6"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F628" s="5"/>
+      <c r="F628" s="6"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F629" s="5"/>
+      <c r="F629" s="6"/>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F630" s="5"/>
+      <c r="F630" s="6"/>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F631" s="5"/>
+      <c r="F631" s="6"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F632" s="5"/>
+      <c r="F632" s="6"/>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F633" s="5"/>
+      <c r="F633" s="6"/>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F634" s="5"/>
+      <c r="F634" s="6"/>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F635" s="5"/>
+      <c r="F635" s="6"/>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F636" s="5"/>
+      <c r="F636" s="6"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F637" s="5"/>
+      <c r="F637" s="6"/>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F638" s="5"/>
+      <c r="F638" s="6"/>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F639" s="5"/>
+      <c r="F639" s="6"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F640" s="5"/>
+      <c r="F640" s="6"/>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F641" s="5"/>
+      <c r="F641" s="6"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F642" s="5"/>
+      <c r="F642" s="6"/>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F643" s="5"/>
+      <c r="F643" s="6"/>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F644" s="5"/>
+      <c r="F644" s="6"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F645" s="5"/>
+      <c r="F645" s="6"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F646" s="5"/>
+      <c r="F646" s="6"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F647" s="5"/>
+      <c r="F647" s="6"/>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F648" s="5"/>
+      <c r="F648" s="6"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F649" s="5"/>
+      <c r="F649" s="6"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F650" s="5"/>
+      <c r="F650" s="6"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F651" s="5"/>
+      <c r="F651" s="6"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F652" s="5"/>
+      <c r="F652" s="6"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F653" s="5"/>
+      <c r="F653" s="6"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F654" s="5"/>
+      <c r="F654" s="6"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F655" s="5"/>
+      <c r="F655" s="6"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F656" s="5"/>
+      <c r="F656" s="6"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F657" s="5"/>
+      <c r="F657" s="6"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F658" s="5"/>
+      <c r="F658" s="6"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F659" s="5"/>
+      <c r="F659" s="6"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F660" s="5"/>
+      <c r="F660" s="6"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F661" s="5"/>
+      <c r="F661" s="6"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F662" s="5"/>
+      <c r="F662" s="6"/>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F663" s="5"/>
+      <c r="F663" s="6"/>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F664" s="5"/>
+      <c r="F664" s="6"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F665" s="5"/>
+      <c r="F665" s="6"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F666" s="5"/>
+      <c r="F666" s="6"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F667" s="5"/>
+      <c r="F667" s="6"/>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F668" s="5"/>
+      <c r="F668" s="6"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F669" s="5"/>
+      <c r="F669" s="6"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F670" s="5"/>
+      <c r="F670" s="6"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F671" s="5"/>
+      <c r="F671" s="6"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F672" s="5"/>
+      <c r="F672" s="6"/>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F673" s="5"/>
+      <c r="F673" s="6"/>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F674" s="5"/>
+      <c r="F674" s="6"/>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F675" s="5"/>
+      <c r="F675" s="6"/>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F676" s="5"/>
+      <c r="F676" s="6"/>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F677" s="5"/>
+      <c r="F677" s="6"/>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F678" s="5"/>
+      <c r="F678" s="6"/>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F679" s="5"/>
+      <c r="F679" s="6"/>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F680" s="5"/>
+      <c r="F680" s="6"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F681" s="5"/>
+      <c r="F681" s="6"/>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F682" s="5"/>
+      <c r="F682" s="6"/>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F683" s="5"/>
+      <c r="F683" s="6"/>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F684" s="5"/>
+      <c r="F684" s="6"/>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F685" s="5"/>
+      <c r="F685" s="6"/>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F686" s="5"/>
+      <c r="F686" s="6"/>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F687" s="5"/>
+      <c r="F687" s="6"/>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F688" s="5"/>
+      <c r="F688" s="6"/>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F689" s="5"/>
+      <c r="F689" s="6"/>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F690" s="5"/>
+      <c r="F690" s="6"/>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F691" s="5"/>
+      <c r="F691" s="6"/>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F692" s="5"/>
+      <c r="F692" s="6"/>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F693" s="5"/>
+      <c r="F693" s="6"/>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F694" s="5"/>
+      <c r="F694" s="6"/>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F695" s="5"/>
+      <c r="F695" s="6"/>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F696" s="5"/>
+      <c r="F696" s="6"/>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F697" s="5"/>
+      <c r="F697" s="6"/>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F698" s="5"/>
+      <c r="F698" s="6"/>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F699" s="5"/>
+      <c r="F699" s="6"/>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F700" s="5"/>
+      <c r="F700" s="6"/>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F701" s="5"/>
+      <c r="F701" s="6"/>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F702" s="5"/>
+      <c r="F702" s="6"/>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F703" s="5"/>
+      <c r="F703" s="6"/>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F704" s="5"/>
+      <c r="F704" s="6"/>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F705" s="5"/>
+      <c r="F705" s="6"/>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F706" s="5"/>
+      <c r="F706" s="6"/>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F707" s="5"/>
+      <c r="F707" s="6"/>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F708" s="5"/>
+      <c r="F708" s="6"/>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F709" s="5"/>
+      <c r="F709" s="6"/>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F710" s="5"/>
+      <c r="F710" s="6"/>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F711" s="5"/>
+      <c r="F711" s="6"/>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F712" s="5"/>
+      <c r="F712" s="6"/>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F713" s="5"/>
+      <c r="F713" s="6"/>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F714" s="5"/>
+      <c r="F714" s="6"/>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F715" s="5"/>
+      <c r="F715" s="6"/>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F716" s="5"/>
+      <c r="F716" s="6"/>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F717" s="5"/>
+      <c r="F717" s="6"/>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F718" s="5"/>
+      <c r="F718" s="6"/>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F719" s="5"/>
+      <c r="F719" s="6"/>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F720" s="5"/>
+      <c r="F720" s="6"/>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F721" s="5"/>
+      <c r="F721" s="6"/>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F722" s="5"/>
+      <c r="F722" s="6"/>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F723" s="5"/>
+      <c r="F723" s="6"/>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F724" s="5"/>
+      <c r="F724" s="6"/>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F725" s="5"/>
+      <c r="F725" s="6"/>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F726" s="5"/>
+      <c r="F726" s="6"/>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F727" s="5"/>
+      <c r="F727" s="6"/>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F728" s="5"/>
+      <c r="F728" s="6"/>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F729" s="5"/>
+      <c r="F729" s="6"/>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F730" s="5"/>
+      <c r="F730" s="6"/>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F731" s="5"/>
+      <c r="F731" s="6"/>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F732" s="5"/>
+      <c r="F732" s="6"/>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F733" s="5"/>
+      <c r="F733" s="6"/>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F734" s="5"/>
+      <c r="F734" s="6"/>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F735" s="5"/>
+      <c r="F735" s="6"/>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F736" s="5"/>
+      <c r="F736" s="6"/>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F737" s="5"/>
+      <c r="F737" s="6"/>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F738" s="5"/>
+      <c r="F738" s="6"/>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F739" s="5"/>
+      <c r="F739" s="6"/>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F740" s="5"/>
+      <c r="F740" s="6"/>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F741" s="5"/>
+      <c r="F741" s="6"/>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F742" s="5"/>
+      <c r="F742" s="6"/>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F743" s="5"/>
+      <c r="F743" s="6"/>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F744" s="5"/>
+      <c r="F744" s="6"/>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F745" s="5"/>
+      <c r="F745" s="6"/>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F746" s="5"/>
+      <c r="F746" s="6"/>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F747" s="5"/>
+      <c r="F747" s="6"/>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F748" s="5"/>
+      <c r="F748" s="6"/>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F749" s="5"/>
+      <c r="F749" s="6"/>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F750" s="5"/>
+      <c r="F750" s="6"/>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F751" s="5"/>
+      <c r="F751" s="6"/>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F752" s="5"/>
+      <c r="F752" s="6"/>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F753" s="5"/>
+      <c r="F753" s="6"/>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F754" s="5"/>
+      <c r="F754" s="6"/>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F755" s="5"/>
+      <c r="F755" s="6"/>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F756" s="5"/>
+      <c r="F756" s="6"/>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F757" s="5"/>
+      <c r="F757" s="6"/>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F758" s="5"/>
+      <c r="F758" s="6"/>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12383,127 +12478,127 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>601</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="H1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="6" t="n">
+        <v>20210225001</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <v>20210225001</v>
-      </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>611</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>617</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>619</v>
-      </c>
       <c r="G8" s="0" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>620</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>621</v>
-      </c>
       <c r="G9" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -12531,14 +12626,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -12546,7 +12641,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>514</v>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="623">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -136,6 +136,9 @@
     <t xml:space="preserve">name_number</t>
   </si>
   <si>
+    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household')</t>
+  </si>
+  <si>
     <t xml:space="preserve">surname</t>
   </si>
   <si>
@@ -311,9 +314,6 @@
   </si>
   <si>
     <t xml:space="preserve">if // moved_in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(data('new_member_newborn_or_moved_in'),'someone_new_in_the_household')</t>
   </si>
   <si>
     <t xml:space="preserve">q17</t>
@@ -2249,9 +2249,9 @@
   <dimension ref="A1:T116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J60" activeCellId="0" sqref="J60"/>
+      <selection pane="bottomLeft" activeCell="M113" activeCellId="0" sqref="M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2262,7 +2262,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="16.25"/>
@@ -2447,6 +2447,9 @@
       <c r="R6" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="S6" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
@@ -2456,10 +2459,10 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2472,15 +2475,18 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="Q7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2523,7 +2529,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2533,6 +2539,9 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
@@ -2543,11 +2552,11 @@
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2555,13 +2564,16 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
+      <c r="S11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2579,11 +2591,11 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2593,13 +2605,13 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="O13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -2617,43 +2629,43 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="Q15" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -2671,13 +2683,13 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2699,11 +2711,11 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2711,13 +2723,16 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="Q18" s="4"/>
+      <c r="S18" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2734,11 +2749,11 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2748,12 +2763,12 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="O20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -2771,24 +2786,24 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2797,12 +2812,12 @@
         <v>1</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -2822,13 +2837,13 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2852,11 +2867,11 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2864,13 +2879,16 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
+      <c r="S25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -2889,10 +2907,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2901,12 +2919,12 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2926,48 +2944,48 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="P29" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -2985,13 +3003,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3005,7 +3023,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3016,10 +3034,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3041,16 +3059,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="n">
@@ -3061,16 +3079,19 @@
         <v>1</v>
       </c>
       <c r="N35" s="1"/>
+      <c r="S35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3084,7 +3105,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -3095,7 +3116,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -3109,13 +3130,13 @@
         <v>25</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -3123,6 +3144,9 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
+      <c r="S39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -3137,10 +3161,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -3149,7 +3173,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3159,17 +3183,17 @@
         <v>25</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>30</v>
@@ -3179,6 +3203,9 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
+      <c r="S42" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
@@ -3188,10 +3215,10 @@
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -3204,12 +3231,15 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="Q43" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -3227,7 +3257,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3277,10 +3307,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3329,7 +3359,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="1" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3342,6 +3372,9 @@
       <c r="R50" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="S50" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1"/>
@@ -3351,7 +3384,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>98</v>
@@ -3359,7 +3392,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3370,12 +3403,15 @@
         <v>99</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3428,6 +3464,9 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
+      <c r="S54" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1"/>
@@ -3438,11 +3477,11 @@
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -3450,13 +3489,16 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
+      <c r="S55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
@@ -3475,11 +3517,11 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3491,12 +3533,12 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
@@ -3516,45 +3558,45 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="Q59" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R59" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T59" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -3574,13 +3616,13 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3604,11 +3646,11 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3616,13 +3658,16 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
+      <c r="S62" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3641,11 +3686,11 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -3657,12 +3702,12 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="2"/>
@@ -3682,24 +3727,24 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -3709,12 +3754,12 @@
         <v>1</v>
       </c>
       <c r="T66" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -3734,13 +3779,13 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -3764,11 +3809,11 @@
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -3776,13 +3821,16 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
+      <c r="S69" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="1"/>
@@ -3801,10 +3849,10 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3813,12 +3861,12 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="2"/>
@@ -3838,45 +3886,45 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="Q73" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R73" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T73" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -3894,13 +3942,13 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3914,7 +3962,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -3925,10 +3973,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -3950,16 +3998,16 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>101</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1" t="n">
@@ -3970,16 +4018,19 @@
         <v>1</v>
       </c>
       <c r="N79" s="1"/>
+      <c r="S79" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -3993,7 +4044,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -4004,7 +4055,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -4020,10 +4071,10 @@
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>102</v>
@@ -4035,6 +4086,9 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
+      <c r="S83" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1"/>
@@ -4043,10 +4097,10 @@
         <v>25</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>103</v>
@@ -4061,6 +4115,9 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
+      <c r="S84" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
@@ -4097,10 +4154,13 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
+      <c r="S86" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>106</v>
@@ -4121,7 +4181,7 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
@@ -4136,12 +4196,12 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4182,10 +4242,13 @@
       <c r="R90" s="0" t="s">
         <v>111</v>
       </c>
+      <c r="S90" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4204,10 +4267,10 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>112</v>
@@ -4226,7 +4289,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="3"/>
@@ -4280,10 +4343,13 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
+      <c r="S95" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>116</v>
@@ -4322,10 +4388,13 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
+      <c r="S97" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="2"/>
@@ -4342,7 +4411,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="2"/>
@@ -4359,7 +4428,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>120</v>
@@ -4411,10 +4480,13 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
+      <c r="S102" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>122</v>
@@ -4433,7 +4505,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="2"/>
@@ -4455,10 +4527,10 @@
         <v>123</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
@@ -4471,7 +4543,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -4490,7 +4562,7 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>124</v>
@@ -4513,7 +4585,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -4531,7 +4603,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4549,7 +4621,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>126</v>
@@ -4589,11 +4661,11 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -4605,7 +4677,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4626,10 +4698,13 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
+      <c r="S113" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4646,7 +4721,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4702,7 +4777,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.81"/>
@@ -4785,13 +4860,13 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,10 +4929,10 @@
         <v>117</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,10 +4962,10 @@
         <v>144</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,10 +5127,10 @@
         <v>147</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5082,13 +5157,13 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5415,10 +5490,10 @@
         <v>177</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5811,10 +5886,10 @@
         <v>214</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5962,7 +6037,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>233</v>
@@ -5973,7 +6048,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>234</v>
@@ -6009,10 +6084,10 @@
         <v>113</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6130,10 +6205,10 @@
         <v>237</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6218,10 +6293,10 @@
         <v>248</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6295,10 +6370,10 @@
         <v>256</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6372,10 +6447,10 @@
         <v>260</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6416,10 +6491,10 @@
         <v>265</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6446,7 +6521,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>272</v>
@@ -6457,7 +6532,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>273</v>
@@ -6468,7 +6543,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>274</v>
@@ -6479,7 +6554,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>275</v>
@@ -6490,7 +6565,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>276</v>
@@ -6501,7 +6576,7 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>277</v>
@@ -6512,7 +6587,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>278</v>
@@ -6523,7 +6598,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>279</v>
@@ -6534,7 +6609,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>280</v>
@@ -6545,7 +6620,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>281</v>
@@ -6556,7 +6631,7 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>282</v>
@@ -6567,7 +6642,7 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>283</v>
@@ -6578,13 +6653,13 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7029,7 +7104,7 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>318</v>
@@ -7040,7 +7115,7 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>319</v>
@@ -7087,10 +7162,10 @@
         <v>320</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7571,10 +7646,10 @@
         <v>347</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7612,7 +7687,7 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>1</v>
@@ -7623,7 +7698,7 @@
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>2</v>
@@ -7634,7 +7709,7 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>3</v>
@@ -7645,7 +7720,7 @@
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>4</v>
@@ -7656,7 +7731,7 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>5</v>
@@ -7667,7 +7742,7 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>6</v>
@@ -7678,7 +7753,7 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>7</v>
@@ -7689,7 +7764,7 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>8</v>
@@ -7700,7 +7775,7 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>9</v>
@@ -7711,7 +7786,7 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>10</v>
@@ -7722,7 +7797,7 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>11</v>
@@ -7733,7 +7808,7 @@
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>12</v>
@@ -7744,7 +7819,7 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>13</v>
@@ -7755,7 +7830,7 @@
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>14</v>
@@ -7766,7 +7841,7 @@
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>15</v>
@@ -7777,7 +7852,7 @@
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>16</v>
@@ -7788,7 +7863,7 @@
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>17</v>
@@ -7799,7 +7874,7 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>18</v>
@@ -7810,7 +7885,7 @@
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>19</v>
@@ -7821,7 +7896,7 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>20</v>
@@ -7832,7 +7907,7 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>21</v>
@@ -7843,7 +7918,7 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>22</v>
@@ -7854,7 +7929,7 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>23</v>
@@ -7865,7 +7940,7 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>24</v>
@@ -7876,7 +7951,7 @@
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>25</v>
@@ -7887,7 +7962,7 @@
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>26</v>
@@ -7898,7 +7973,7 @@
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>27</v>
@@ -7909,7 +7984,7 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>28</v>
@@ -7920,7 +7995,7 @@
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>29</v>
@@ -7931,7 +8006,7 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>30</v>
@@ -7942,7 +8017,7 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>31</v>
@@ -7953,7 +8028,7 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>1</v>
@@ -7964,7 +8039,7 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>2</v>
@@ -7975,7 +8050,7 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>3</v>
@@ -7986,7 +8061,7 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>4</v>
@@ -7997,7 +8072,7 @@
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>5</v>
@@ -8008,7 +8083,7 @@
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>6</v>
@@ -8019,7 +8094,7 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>7</v>
@@ -8030,7 +8105,7 @@
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>8</v>
@@ -8041,7 +8116,7 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>9</v>
@@ -8052,7 +8127,7 @@
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>10</v>
@@ -8063,7 +8138,7 @@
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>11</v>
@@ -8074,7 +8149,7 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B301" s="0" t="n">
         <v>12</v>
@@ -8085,7 +8160,7 @@
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B302" s="0" t="n">
         <v>2021</v>
@@ -8096,7 +8171,7 @@
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B303" s="0" t="n">
         <v>2020</v>
@@ -8107,7 +8182,7 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B304" s="0" t="n">
         <v>2019</v>
@@ -8118,7 +8193,7 @@
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B305" s="0" t="n">
         <v>2018</v>
@@ -8129,7 +8204,7 @@
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B306" s="0" t="n">
         <v>2017</v>
@@ -8140,7 +8215,7 @@
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B307" s="0" t="n">
         <v>2016</v>
@@ -8151,7 +8226,7 @@
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B308" s="0" t="n">
         <v>2015</v>
@@ -8162,7 +8237,7 @@
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B309" s="0" t="n">
         <v>2014</v>
@@ -8173,7 +8248,7 @@
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B310" s="0" t="n">
         <v>2013</v>
@@ -8184,7 +8259,7 @@
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B311" s="0" t="n">
         <v>2012</v>
@@ -8195,7 +8270,7 @@
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B312" s="0" t="n">
         <v>2011</v>
@@ -8206,7 +8281,7 @@
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B313" s="0" t="n">
         <v>2010</v>
@@ -8217,7 +8292,7 @@
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B314" s="0" t="n">
         <v>2009</v>
@@ -8228,7 +8303,7 @@
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B315" s="0" t="n">
         <v>2008</v>
@@ -8239,7 +8314,7 @@
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B316" s="0" t="n">
         <v>2007</v>
@@ -8250,7 +8325,7 @@
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B317" s="0" t="n">
         <v>2006</v>
@@ -8261,7 +8336,7 @@
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B318" s="0" t="n">
         <v>2005</v>
@@ -8272,7 +8347,7 @@
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B319" s="0" t="n">
         <v>2004</v>
@@ -8283,7 +8358,7 @@
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B320" s="0" t="n">
         <v>2003</v>
@@ -8294,7 +8369,7 @@
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B321" s="0" t="n">
         <v>2002</v>
@@ -8305,7 +8380,7 @@
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B322" s="0" t="n">
         <v>2001</v>
@@ -8316,7 +8391,7 @@
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B323" s="0" t="n">
         <v>2000</v>
@@ -8327,7 +8402,7 @@
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B324" s="0" t="n">
         <v>1999</v>
@@ -8338,7 +8413,7 @@
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B325" s="0" t="n">
         <v>1998</v>
@@ -8349,7 +8424,7 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B326" s="0" t="n">
         <v>1997</v>
@@ -8360,7 +8435,7 @@
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B327" s="0" t="n">
         <v>1996</v>
@@ -8371,7 +8446,7 @@
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B328" s="0" t="n">
         <v>1995</v>
@@ -8382,7 +8457,7 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B329" s="0" t="n">
         <v>1994</v>
@@ -8393,7 +8468,7 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B330" s="0" t="n">
         <v>1993</v>
@@ -8404,7 +8479,7 @@
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B331" s="0" t="n">
         <v>1992</v>
@@ -8415,7 +8490,7 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B332" s="0" t="n">
         <v>1991</v>
@@ -8426,7 +8501,7 @@
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B333" s="0" t="n">
         <v>1990</v>
@@ -8437,7 +8512,7 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B334" s="0" t="n">
         <v>1989</v>
@@ -8448,7 +8523,7 @@
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B335" s="0" t="n">
         <v>1988</v>
@@ -8459,7 +8534,7 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B336" s="0" t="n">
         <v>1987</v>
@@ -8470,7 +8545,7 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B337" s="0" t="n">
         <v>1986</v>
@@ -8481,7 +8556,7 @@
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B338" s="0" t="n">
         <v>1985</v>
@@ -8492,7 +8567,7 @@
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B339" s="0" t="n">
         <v>1984</v>
@@ -8503,7 +8578,7 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B340" s="0" t="n">
         <v>1983</v>
@@ -8514,7 +8589,7 @@
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B341" s="0" t="n">
         <v>1982</v>
@@ -8525,7 +8600,7 @@
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B342" s="0" t="n">
         <v>1981</v>
@@ -8536,7 +8611,7 @@
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B343" s="0" t="n">
         <v>1980</v>
@@ -8547,7 +8622,7 @@
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B344" s="0" t="n">
         <v>1979</v>
@@ -8558,7 +8633,7 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B345" s="0" t="n">
         <v>1978</v>
@@ -8569,7 +8644,7 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B346" s="0" t="n">
         <v>1977</v>
@@ -8580,7 +8655,7 @@
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B347" s="0" t="n">
         <v>1976</v>
@@ -8591,7 +8666,7 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B348" s="0" t="n">
         <v>1975</v>
@@ -8602,7 +8677,7 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B349" s="0" t="n">
         <v>1974</v>
@@ -8613,7 +8688,7 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B350" s="0" t="n">
         <v>1973</v>
@@ -8624,7 +8699,7 @@
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B351" s="0" t="n">
         <v>1972</v>
@@ -8635,7 +8710,7 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B352" s="0" t="n">
         <v>1971</v>
@@ -8646,7 +8721,7 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B353" s="0" t="n">
         <v>1970</v>
@@ -8657,7 +8732,7 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B354" s="0" t="n">
         <v>1969</v>
@@ -8668,7 +8743,7 @@
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B355" s="0" t="n">
         <v>1968</v>
@@ -8679,7 +8754,7 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B356" s="0" t="n">
         <v>1967</v>
@@ -8690,7 +8765,7 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B357" s="0" t="n">
         <v>1966</v>
@@ -8701,7 +8776,7 @@
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B358" s="0" t="n">
         <v>1965</v>
@@ -8712,7 +8787,7 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B359" s="0" t="n">
         <v>1964</v>
@@ -8723,7 +8798,7 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B360" s="0" t="n">
         <v>1963</v>
@@ -8734,7 +8809,7 @@
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B361" s="0" t="n">
         <v>1962</v>
@@ -8745,7 +8820,7 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B362" s="0" t="n">
         <v>1961</v>
@@ -8756,7 +8831,7 @@
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B363" s="0" t="n">
         <v>1960</v>
@@ -8767,7 +8842,7 @@
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B364" s="0" t="n">
         <v>1959</v>
@@ -8778,7 +8853,7 @@
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B365" s="0" t="n">
         <v>1958</v>
@@ -8789,7 +8864,7 @@
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B366" s="0" t="n">
         <v>1957</v>
@@ -8800,7 +8875,7 @@
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B367" s="0" t="n">
         <v>1956</v>
@@ -8811,7 +8886,7 @@
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B368" s="0" t="n">
         <v>1955</v>
@@ -8822,7 +8897,7 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B369" s="0" t="n">
         <v>1954</v>
@@ -8833,7 +8908,7 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B370" s="0" t="n">
         <v>1953</v>
@@ -8844,7 +8919,7 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B371" s="0" t="n">
         <v>1952</v>
@@ -8855,7 +8930,7 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B372" s="0" t="n">
         <v>1951</v>
@@ -8866,7 +8941,7 @@
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B373" s="0" t="n">
         <v>1950</v>
@@ -8877,7 +8952,7 @@
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B374" s="0" t="n">
         <v>1949</v>
@@ -8888,7 +8963,7 @@
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B375" s="0" t="n">
         <v>1948</v>
@@ -8899,7 +8974,7 @@
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B376" s="0" t="n">
         <v>1947</v>
@@ -8910,7 +8985,7 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B377" s="0" t="n">
         <v>1946</v>
@@ -8921,7 +8996,7 @@
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B378" s="0" t="n">
         <v>1945</v>
@@ -8932,7 +9007,7 @@
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B379" s="0" t="n">
         <v>1944</v>
@@ -8943,7 +9018,7 @@
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B380" s="0" t="n">
         <v>1943</v>
@@ -8954,7 +9029,7 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B381" s="0" t="n">
         <v>1942</v>
@@ -8965,7 +9040,7 @@
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B382" s="0" t="n">
         <v>1941</v>
@@ -8976,7 +9051,7 @@
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B383" s="0" t="n">
         <v>1940</v>
@@ -8987,7 +9062,7 @@
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B384" s="0" t="n">
         <v>1939</v>
@@ -8998,7 +9073,7 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B385" s="0" t="n">
         <v>1938</v>
@@ -9009,7 +9084,7 @@
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B386" s="0" t="n">
         <v>1937</v>
@@ -9020,7 +9095,7 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B387" s="0" t="n">
         <v>1936</v>
@@ -9031,7 +9106,7 @@
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B388" s="0" t="n">
         <v>1935</v>
@@ -9042,7 +9117,7 @@
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B389" s="0" t="n">
         <v>1934</v>
@@ -9053,7 +9128,7 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B390" s="0" t="n">
         <v>1933</v>
@@ -9064,7 +9139,7 @@
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B391" s="0" t="n">
         <v>1932</v>
@@ -9075,7 +9150,7 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B392" s="0" t="n">
         <v>1931</v>
@@ -9086,7 +9161,7 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B393" s="0" t="n">
         <v>1930</v>
@@ -9097,7 +9172,7 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B394" s="0" t="n">
         <v>1929</v>
@@ -9108,7 +9183,7 @@
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B395" s="0" t="n">
         <v>1928</v>
@@ -9119,7 +9194,7 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B396" s="0" t="n">
         <v>1927</v>
@@ -9130,7 +9205,7 @@
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B397" s="0" t="n">
         <v>1926</v>
@@ -9141,7 +9216,7 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B398" s="0" t="n">
         <v>1925</v>
@@ -9152,7 +9227,7 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B399" s="0" t="n">
         <v>1924</v>
@@ -9163,7 +9238,7 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B400" s="0" t="n">
         <v>1923</v>
@@ -9174,7 +9249,7 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B401" s="0" t="n">
         <v>1922</v>
@@ -9185,7 +9260,7 @@
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B402" s="0" t="n">
         <v>1921</v>
@@ -9196,7 +9271,7 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B403" s="0" t="n">
         <v>1920</v>
@@ -9325,7 +9400,7 @@
         <v>520</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="7"/>
       <c r="F6" s="6"/>
@@ -9335,7 +9410,7 @@
         <v>521</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="7"/>
       <c r="F7" s="6"/>
@@ -9345,7 +9420,7 @@
         <v>522</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="7"/>
       <c r="F8" s="6"/>
@@ -9355,7 +9430,7 @@
         <v>523</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" s="7"/>
       <c r="F9" s="6"/>
@@ -9365,7 +9440,7 @@
         <v>524</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" s="7"/>
       <c r="F10" s="6"/>
@@ -9375,7 +9450,7 @@
         <v>525</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7"/>
       <c r="F11" s="6"/>
@@ -9385,7 +9460,7 @@
         <v>526</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="7"/>
       <c r="F12" s="6"/>
@@ -9405,7 +9480,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>32</v>
@@ -9415,125 +9490,125 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="8"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" s="8"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="8"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="D21" s="8"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>32</v>
@@ -9611,11 +9686,11 @@
         <v>534</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31" s="6"/>
     </row>
@@ -9634,11 +9709,11 @@
         <v>536</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="6"/>
     </row>
@@ -9686,11 +9761,11 @@
         <v>112</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F37" s="6"/>
     </row>
@@ -9725,7 +9800,7 @@
         <v>125</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="0" t="s">
@@ -9754,7 +9829,7 @@
         <v>541</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="0" t="s">
@@ -9770,7 +9845,7 @@
         <v>543</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D43" s="12"/>
       <c r="F43" s="6"/>
@@ -9780,11 +9855,11 @@
         <v>544</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F44" s="6"/>
     </row>
@@ -9806,7 +9881,7 @@
         <v>546</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D46" s="12"/>
       <c r="F46" s="6"/>
@@ -9816,11 +9891,11 @@
         <v>547</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F47" s="6"/>
     </row>
@@ -9829,7 +9904,7 @@
         <v>548</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="0" t="s">
@@ -10002,7 +10077,7 @@
         <v>565</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="0" t="s">
@@ -10015,7 +10090,7 @@
         <v>566</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="0" t="s">
@@ -10051,7 +10126,7 @@
         <v>569</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="0" t="s">
@@ -10074,7 +10149,7 @@
         <v>571</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="0" t="s">
@@ -10110,7 +10185,7 @@
         <v>574</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="0" t="s">
@@ -10185,7 +10260,7 @@
         <v>580</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="0" t="s">
@@ -10198,7 +10273,7 @@
         <v>581</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="0" t="s">
@@ -10315,7 +10390,7 @@
         <v>590</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D87" s="13"/>
       <c r="F87" s="6"/>
@@ -10329,7 +10404,7 @@
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F88" s="6"/>
     </row>
@@ -10364,7 +10439,7 @@
         <v>593</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="0" t="s">
@@ -10403,7 +10478,7 @@
         <v>596</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="0" t="s">
@@ -10429,7 +10504,7 @@
         <v>336</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="0" t="s">
@@ -10455,7 +10530,7 @@
         <v>599</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D98" s="13"/>
       <c r="F98" s="6"/>
@@ -12626,7 +12701,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.46"/>
   </cols>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="624">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -289,6 +289,9 @@
     <t xml:space="preserve">q15b</t>
   </si>
   <si>
+    <t xml:space="preserve">!data('id')</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -388,7 +391,7 @@
     <t xml:space="preserve">q23a</t>
   </si>
   <si>
-    <t xml:space="preserve">selected(data('move_from_district_census'), 'yes')</t>
+    <t xml:space="preserve">selected(data('move_from_district_census'), 'yes') &amp;&amp; selected(data('move_from'),  'in_district')</t>
   </si>
   <si>
     <t xml:space="preserve">q23ai</t>
@@ -2194,7 +2197,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2246,12 +2249,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T116"/>
+  <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M113" activeCellId="0" sqref="M113"/>
+      <selection pane="bottomLeft" activeCell="B103" activeCellId="0" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3160,10 +3163,10 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="0" t="s">
+      <c r="A41" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>87</v>
       </c>
       <c r="I41" s="1"/>
@@ -3172,116 +3175,107 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="0" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="S42" s="1" t="s">
-        <v>36</v>
+      <c r="O42" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="Q43" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
+      <c r="S44" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="E45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
+      <c r="Q45" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3290,7 +3284,9 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3306,12 +3302,8 @@
       <c r="N47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3326,9 +3318,7 @@
       <c r="N48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3344,118 +3334,118 @@
       <c r="N49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="Q50" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="R50" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="Q51" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="R51" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="1"/>
+      <c r="E52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
+      <c r="Q52" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="R52" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
+      <c r="Q53" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="R53" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="1"/>
@@ -3464,46 +3454,36 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="S54" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="H55" s="2"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="S55" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="2"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="1"/>
@@ -3512,35 +3492,42 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
+      <c r="S56" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="0" t="s">
-        <v>49</v>
+      <c r="S57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
@@ -3558,45 +3545,28 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D59" s="1"/>
       <c r="E59" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="Q59" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="R59" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="S59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T59" s="0" t="s">
-        <v>57</v>
+      <c r="O59" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -3616,62 +3586,72 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="G61" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="H61" s="2"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="I61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
+      <c r="Q61" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="R61" s="0" t="s">
+        <v>56</v>
+      </c>
       <c r="S61" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="T61" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="H62" s="2"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="S62" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -3681,37 +3661,44 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
+      <c r="S63" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F64" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="0" t="s">
-        <v>49</v>
+      <c r="S64" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="1"/>
+      <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -3727,43 +3714,32 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D66" s="1"/>
       <c r="E66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="S66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T66" s="0" t="s">
-        <v>57</v>
+      <c r="O66" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="1"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -3779,19 +3755,25 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
+      <c r="G68" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="H68" s="2"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="I68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -3799,42 +3781,40 @@
       <c r="S68" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="T68" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" s="1"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="H69" s="2"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="S69" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="2"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -3844,15 +3824,24 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
+      <c r="S70" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>72</v>
+      <c r="C71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3860,15 +3849,17 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="0" t="s">
-        <v>49</v>
+      <c r="S71" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" s="1"/>
+      <c r="A72" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>71</v>
+      </c>
       <c r="C72" s="2"/>
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
@@ -3885,50 +3876,29 @@
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="C73" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="Q73" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="R73" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="S73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T73" s="0" t="s">
-        <v>57</v>
+      <c r="O73" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="1"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -3941,29 +3911,56 @@
       <c r="N74" s="1"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
+      <c r="Q75" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="R75" s="0" t="s">
+        <v>78</v>
+      </c>
       <c r="S75" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="T75" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>41</v>
-      </c>
+      <c r="A76" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
@@ -3972,11 +3969,14 @@
       <c r="N76" s="1"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>71</v>
+      <c r="C77" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -3984,10 +3984,13 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
+      <c r="S77" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -3997,40 +4000,22 @@
       <c r="N78" s="1"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="I79" s="1" t="s">
+      <c r="A79" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>71</v>
       </c>
+      <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="M79" s="1"/>
       <c r="N79" s="1"/>
-      <c r="S79" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>84</v>
+      <c r="A80" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -4038,24 +4023,42 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="S80" s="0" t="n">
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
       <c r="N81" s="1"/>
+      <c r="S81" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>58</v>
+      <c r="C82" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -4063,51 +4066,24 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
+      <c r="S82" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G83" s="2"/>
+      <c r="A83" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="S83" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G84" s="1"/>
-      <c r="H84" s="0" t="s">
-        <v>104</v>
+      <c r="A84" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -4115,39 +4091,52 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="S84" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="C85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G85" s="2"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
+      <c r="S85" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="G86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -4160,11 +4149,9 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -4181,13 +4168,13 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D88" s="1"/>
-      <c r="E88" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="G88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -4195,15 +4182,17 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" s="0" t="s">
-        <v>49</v>
+      <c r="S88" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B89" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -4220,15 +4209,13 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -4236,19 +4223,13 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-      <c r="Q90" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="R90" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="S90" s="0" t="n">
-        <v>1</v>
+      <c r="O90" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4266,37 +4247,43 @@
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
+      <c r="C92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
+      <c r="Q92" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="R92" s="0" t="s">
+        <v>112</v>
+      </c>
       <c r="S92" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="3"/>
+      <c r="C93" s="1"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -4305,13 +4292,17 @@
       <c r="N93" s="1"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="2"/>
+      <c r="C94" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="I94" s="1"/>
@@ -4320,22 +4311,19 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
+      <c r="S94" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -4343,22 +4331,17 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
-      <c r="S95" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C96" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="3"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -4369,17 +4352,17 @@
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G97" s="2"/>
       <c r="I97" s="1"/>
@@ -4394,14 +4377,16 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -4410,14 +4395,20 @@
       <c r="N98" s="1"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G99" s="2"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -4425,19 +4416,20 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
+      <c r="S99" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -4446,15 +4438,15 @@
       <c r="N100" s="1"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -4463,34 +4455,29 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A102" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G102" s="3"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
-      <c r="S102" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4504,53 +4491,53 @@
       <c r="N103" s="1"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="2"/>
-      <c r="E104" s="3"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G104" s="3"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
+      <c r="S104" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="2" t="s">
+      <c r="A105" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D105" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
-      <c r="S105" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="1"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
@@ -4562,18 +4549,17 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="D107" s="0" t="s">
+        <v>124</v>
+      </c>
       <c r="E107" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -4585,15 +4571,14 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="D108" s="1"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -4602,36 +4587,41 @@
       <c r="N108" s="1"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
+      <c r="C109" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
+      <c r="S109" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
@@ -4641,9 +4631,9 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B111" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4658,15 +4648,15 @@
       <c r="N111" s="1"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A112" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -4676,42 +4666,38 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
-      <c r="O112" s="0" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A113" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="F113" s="1"/>
       <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
-      <c r="S113" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B114" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -4720,13 +4706,15 @@
       <c r="N114" s="1"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="E115" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -4736,12 +4724,15 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
+      <c r="O115" s="0" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B116" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4755,6 +4746,82 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="S117" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4777,7 +4844,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.81"/>
@@ -4786,36 +4853,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4836,7 +4903,7 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
     </sheetView>
   </sheetViews>
@@ -4849,13 +4916,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4871,62 +4938,62 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>60</v>
@@ -4937,29 +5004,29 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>60</v>
@@ -4970,161 +5037,161 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>145</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>60</v>
@@ -5135,24 +5202,24 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,326 +5235,326 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="C41" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>170</v>
-      </c>
       <c r="C52" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>60</v>
@@ -5498,392 +5565,392 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>60</v>
@@ -5894,145 +5961,145 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6040,10 +6107,10 @@
         <v>85</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6051,37 +6118,37 @@
         <v>85</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>60</v>
@@ -6092,117 +6159,117 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>60</v>
@@ -6213,84 +6280,84 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>60</v>
@@ -6301,73 +6368,73 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>60</v>
@@ -6378,73 +6445,73 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>60</v>
@@ -6455,40 +6522,40 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>60</v>
@@ -6499,24 +6566,24 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6524,10 +6591,10 @@
         <v>62</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6535,10 +6602,10 @@
         <v>62</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6546,10 +6613,10 @@
         <v>62</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6557,10 +6624,10 @@
         <v>62</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6568,10 +6635,10 @@
         <v>62</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6579,10 +6646,10 @@
         <v>62</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6590,10 +6657,10 @@
         <v>62</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6601,10 +6668,10 @@
         <v>62</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6612,10 +6679,10 @@
         <v>62</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,10 +6690,10 @@
         <v>62</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6634,10 +6701,10 @@
         <v>62</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6645,10 +6712,10 @@
         <v>62</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6667,10 +6734,10 @@
         <v>26</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6678,488 +6745,488 @@
         <v>26</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B211" s="0" t="s">
         <v>60</v>
@@ -7170,480 +7237,480 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B225" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B225" s="0" t="s">
-        <v>333</v>
-      </c>
       <c r="C225" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>60</v>
@@ -7654,35 +7721,35 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7693,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7704,7 +7771,7 @@
         <v>2</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7715,7 +7782,7 @@
         <v>3</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7726,7 +7793,7 @@
         <v>4</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7737,7 +7804,7 @@
         <v>5</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7748,7 +7815,7 @@
         <v>6</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7759,7 +7826,7 @@
         <v>7</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7770,7 +7837,7 @@
         <v>8</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7781,7 +7848,7 @@
         <v>9</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7792,7 +7859,7 @@
         <v>10</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7803,7 +7870,7 @@
         <v>11</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7814,7 +7881,7 @@
         <v>12</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7825,7 +7892,7 @@
         <v>13</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7836,7 +7903,7 @@
         <v>14</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7847,7 +7914,7 @@
         <v>15</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7858,7 +7925,7 @@
         <v>16</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7869,7 +7936,7 @@
         <v>17</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7880,7 +7947,7 @@
         <v>18</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7891,7 +7958,7 @@
         <v>19</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7902,7 +7969,7 @@
         <v>20</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7913,7 +7980,7 @@
         <v>21</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7924,7 +7991,7 @@
         <v>22</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7935,7 +8002,7 @@
         <v>23</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7946,7 +8013,7 @@
         <v>24</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7957,7 +8024,7 @@
         <v>25</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7968,7 +8035,7 @@
         <v>26</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7979,7 +8046,7 @@
         <v>27</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7990,7 +8057,7 @@
         <v>28</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8001,7 +8068,7 @@
         <v>29</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8012,7 +8079,7 @@
         <v>30</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8023,7 +8090,7 @@
         <v>31</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8034,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8045,7 +8112,7 @@
         <v>2</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8056,7 +8123,7 @@
         <v>3</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8067,7 +8134,7 @@
         <v>4</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8078,7 +8145,7 @@
         <v>5</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8089,7 +8156,7 @@
         <v>6</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8100,7 +8167,7 @@
         <v>7</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8111,7 +8178,7 @@
         <v>8</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8122,7 +8189,7 @@
         <v>9</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8133,7 +8200,7 @@
         <v>10</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8144,7 +8211,7 @@
         <v>11</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8155,7 +8222,7 @@
         <v>12</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8166,7 +8233,7 @@
         <v>2021</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8177,7 +8244,7 @@
         <v>2020</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8188,7 +8255,7 @@
         <v>2019</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8199,7 +8266,7 @@
         <v>2018</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8210,7 +8277,7 @@
         <v>2017</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8221,7 +8288,7 @@
         <v>2016</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8232,7 +8299,7 @@
         <v>2015</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8243,7 +8310,7 @@
         <v>2014</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8254,7 +8321,7 @@
         <v>2013</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8265,7 +8332,7 @@
         <v>2012</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8276,7 +8343,7 @@
         <v>2011</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8287,7 +8354,7 @@
         <v>2010</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8298,7 +8365,7 @@
         <v>2009</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8309,7 +8376,7 @@
         <v>2008</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8320,7 +8387,7 @@
         <v>2007</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8331,7 +8398,7 @@
         <v>2006</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8342,7 +8409,7 @@
         <v>2005</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8353,7 +8420,7 @@
         <v>2004</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8364,7 +8431,7 @@
         <v>2003</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8375,7 +8442,7 @@
         <v>2002</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8386,7 +8453,7 @@
         <v>2001</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8397,7 +8464,7 @@
         <v>2000</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8408,7 +8475,7 @@
         <v>1999</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8419,7 +8486,7 @@
         <v>1998</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8430,7 +8497,7 @@
         <v>1997</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8441,7 +8508,7 @@
         <v>1996</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8452,7 +8519,7 @@
         <v>1995</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8463,7 +8530,7 @@
         <v>1994</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8474,7 +8541,7 @@
         <v>1993</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8485,7 +8552,7 @@
         <v>1992</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8496,7 +8563,7 @@
         <v>1991</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8507,7 +8574,7 @@
         <v>1990</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8518,7 +8585,7 @@
         <v>1989</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8529,7 +8596,7 @@
         <v>1988</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8540,7 +8607,7 @@
         <v>1987</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8551,7 +8618,7 @@
         <v>1986</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8562,7 +8629,7 @@
         <v>1985</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8573,7 +8640,7 @@
         <v>1984</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8584,7 +8651,7 @@
         <v>1983</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8595,7 +8662,7 @@
         <v>1982</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8606,7 +8673,7 @@
         <v>1981</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8617,7 +8684,7 @@
         <v>1980</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8628,7 +8695,7 @@
         <v>1979</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8639,7 +8706,7 @@
         <v>1978</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8650,7 +8717,7 @@
         <v>1977</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8661,7 +8728,7 @@
         <v>1976</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8672,7 +8739,7 @@
         <v>1975</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8683,7 +8750,7 @@
         <v>1974</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8694,7 +8761,7 @@
         <v>1973</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8705,7 +8772,7 @@
         <v>1972</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8716,7 +8783,7 @@
         <v>1971</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8727,7 +8794,7 @@
         <v>1970</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8738,7 +8805,7 @@
         <v>1969</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8749,7 +8816,7 @@
         <v>1968</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8760,7 +8827,7 @@
         <v>1967</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8771,7 +8838,7 @@
         <v>1966</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8782,7 +8849,7 @@
         <v>1965</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8793,7 +8860,7 @@
         <v>1964</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8804,7 +8871,7 @@
         <v>1963</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8815,7 +8882,7 @@
         <v>1962</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8826,7 +8893,7 @@
         <v>1961</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8837,7 +8904,7 @@
         <v>1960</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8848,7 +8915,7 @@
         <v>1959</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8859,7 +8926,7 @@
         <v>1958</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8870,7 +8937,7 @@
         <v>1957</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8881,7 +8948,7 @@
         <v>1956</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8892,7 +8959,7 @@
         <v>1955</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8903,7 +8970,7 @@
         <v>1954</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8914,7 +8981,7 @@
         <v>1953</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8925,7 +8992,7 @@
         <v>1952</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8936,7 +9003,7 @@
         <v>1951</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8947,7 +9014,7 @@
         <v>1950</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8958,7 +9025,7 @@
         <v>1949</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8969,7 +9036,7 @@
         <v>1948</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8980,7 +9047,7 @@
         <v>1947</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8991,7 +9058,7 @@
         <v>1946</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9002,7 +9069,7 @@
         <v>1945</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9013,7 +9080,7 @@
         <v>1944</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9024,7 +9091,7 @@
         <v>1943</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9035,7 +9102,7 @@
         <v>1942</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9046,7 +9113,7 @@
         <v>1941</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9057,7 +9124,7 @@
         <v>1940</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9068,7 +9135,7 @@
         <v>1939</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9079,7 +9146,7 @@
         <v>1938</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9090,7 +9157,7 @@
         <v>1937</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9101,7 +9168,7 @@
         <v>1936</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9112,7 +9179,7 @@
         <v>1935</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9123,7 +9190,7 @@
         <v>1934</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9134,7 +9201,7 @@
         <v>1933</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9145,7 +9212,7 @@
         <v>1932</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9156,7 +9223,7 @@
         <v>1931</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9167,7 +9234,7 @@
         <v>1930</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9178,7 +9245,7 @@
         <v>1929</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9189,7 +9256,7 @@
         <v>1928</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9200,7 +9267,7 @@
         <v>1927</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9211,7 +9278,7 @@
         <v>1926</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9222,7 +9289,7 @@
         <v>1925</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9233,7 +9300,7 @@
         <v>1924</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9244,7 +9311,7 @@
         <v>1923</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9255,7 +9322,7 @@
         <v>1922</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9266,7 +9333,7 @@
         <v>1921</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9277,7 +9344,7 @@
         <v>1920</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9299,7 +9366,7 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -9318,7 +9385,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -9327,77 +9394,77 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D2" s="7"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="D3" s="7"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D4" s="7"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>80</v>
@@ -9407,7 +9474,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>80</v>
@@ -9417,7 +9484,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>80</v>
@@ -9427,7 +9494,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>80</v>
@@ -9437,7 +9504,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>80</v>
@@ -9447,7 +9514,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>80</v>
@@ -9457,7 +9524,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>80</v>
@@ -9467,7 +9534,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>7</v>
@@ -9595,20 +9662,20 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>32</v>
@@ -9618,72 +9685,72 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D27" s="9"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D30" s="10"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>59</v>
@@ -9696,17 +9763,17 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D32" s="10"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>59</v>
@@ -9719,20 +9786,20 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>27</v>
@@ -9748,17 +9815,17 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="11"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>59</v>
@@ -9771,78 +9838,78 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>80</v>
@@ -9852,7 +9919,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>59</v>
@@ -9865,20 +9932,20 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>80</v>
@@ -9888,7 +9955,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>59</v>
@@ -9901,20 +9968,20 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>32</v>
@@ -9924,183 +9991,183 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="13" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="13" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D54" s="13"/>
       <c r="F54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D56" s="13"/>
       <c r="F56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D57" s="13"/>
       <c r="F57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="13" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="13" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="13" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>32</v>
@@ -10110,33 +10177,33 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>32</v>
@@ -10146,20 +10213,20 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="13" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>32</v>
@@ -10169,33 +10236,33 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="13" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="13" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>32</v>
@@ -10205,189 +10272,189 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="13" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="13" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="13" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="13" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>80</v>
@@ -10397,7 +10464,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>25</v>
@@ -10410,124 +10477,124 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="13" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="13" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>59</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="13" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>80</v>
@@ -12538,7 +12605,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -12554,75 +12621,75 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>20210225001</v>
+        <v>20210311001</v>
       </c>
       <c r="C3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -12631,49 +12698,49 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -12701,14 +12768,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -12716,10 +12783,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="625">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">templatePath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disabled</t>
   </si>
   <si>
     <t xml:space="preserve">note</t>
@@ -2249,12 +2252,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T1048576"/>
+  <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B103" activeCellId="0" sqref="B103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2336,17 +2339,20 @@
       <c r="T1" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="U1" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2361,16 +2367,16 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2385,10 +2391,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2405,7 +2411,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2425,19 +2431,19 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2445,32 +2451,32 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="Q6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2478,18 +2484,18 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="Q7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2507,7 +2513,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2527,12 +2533,12 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2543,23 +2549,23 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2573,10 +2579,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2594,11 +2600,11 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2608,13 +2614,13 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="O13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -2632,43 +2638,43 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="Q15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -2686,13 +2692,13 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2709,16 +2715,16 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2732,10 +2738,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2752,11 +2758,11 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2766,12 +2772,12 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="O20" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -2789,24 +2795,24 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -2815,12 +2821,12 @@
         <v>1</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -2840,13 +2846,13 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2865,16 +2871,16 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2888,10 +2894,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1"/>
@@ -2910,10 +2916,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2922,12 +2928,12 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2947,48 +2953,48 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="P29" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -3006,13 +3012,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -3026,7 +3032,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -3037,10 +3043,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3051,7 +3057,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -3062,16 +3068,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="n">
@@ -3088,13 +3094,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -3108,7 +3114,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -3119,7 +3125,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -3130,16 +3136,16 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -3153,7 +3159,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -3164,10 +3170,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -3178,10 +3184,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -3190,12 +3196,12 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3208,23 +3214,23 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3232,26 +3238,26 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3259,15 +3265,18 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="Q45" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="2"/>
@@ -3285,7 +3294,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3335,10 +3344,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3355,7 +3364,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3375,19 +3384,19 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3395,32 +3404,32 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="Q52" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3428,18 +3437,18 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="Q53" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3457,7 +3466,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3477,12 +3486,12 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -3493,23 +3502,23 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -3523,10 +3532,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
@@ -3545,11 +3554,11 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -3561,12 +3570,12 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
@@ -3586,45 +3595,45 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="Q61" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R61" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S61" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T61" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
@@ -3644,13 +3653,13 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -3669,16 +3678,16 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3692,10 +3701,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3714,11 +3723,11 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -3730,12 +3739,12 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="2"/>
@@ -3755,24 +3764,24 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3782,12 +3791,12 @@
         <v>1</v>
       </c>
       <c r="T68" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="2"/>
@@ -3807,13 +3816,13 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -3832,16 +3841,16 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3855,10 +3864,10 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="1"/>
@@ -3877,10 +3886,10 @@
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3889,12 +3898,12 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="2"/>
@@ -3914,45 +3923,45 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H75" s="2"/>
       <c r="I75" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="Q75" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R75" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S75" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T75" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="2"/>
@@ -3970,13 +3979,13 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -3990,7 +3999,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -4001,10 +4010,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -4015,7 +4024,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -4026,16 +4035,16 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1" t="n">
@@ -4047,18 +4056,18 @@
       </c>
       <c r="N81" s="1"/>
       <c r="S81" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -4072,7 +4081,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -4083,7 +4092,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -4096,16 +4105,16 @@
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G85" s="2"/>
       <c r="I85" s="1"/>
@@ -4115,27 +4124,27 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="S85" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -4144,12 +4153,12 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="S86" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4168,12 +4177,12 @@
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G88" s="1"/>
       <c r="I88" s="1"/>
@@ -4183,15 +4192,15 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="S88" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4209,11 +4218,11 @@
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -4224,12 +4233,12 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4248,14 +4257,14 @@
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G92" s="1"/>
       <c r="I92" s="1"/>
@@ -4265,10 +4274,10 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="Q92" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R92" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S92" s="0" t="n">
         <v>1</v>
@@ -4276,7 +4285,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4295,13 +4304,13 @@
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -4317,7 +4326,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="3"/>
@@ -4334,7 +4343,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="3"/>
@@ -4353,16 +4362,16 @@
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G97" s="2"/>
       <c r="I97" s="1"/>
@@ -4372,15 +4381,15 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="S97" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4398,16 +4407,16 @@
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G99" s="2"/>
       <c r="I99" s="1"/>
@@ -4417,12 +4426,12 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="S99" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="2"/>
@@ -4439,7 +4448,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="2"/>
@@ -4456,10 +4465,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -4475,7 +4484,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
@@ -4494,12 +4503,12 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G104" s="3"/>
       <c r="I104" s="1"/>
@@ -4509,15 +4518,15 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="S104" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4533,7 +4542,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="2"/>
@@ -4549,16 +4558,16 @@
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -4571,7 +4580,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="2"/>
@@ -4590,13 +4599,13 @@
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -4613,7 +4622,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="2"/>
@@ -4631,7 +4640,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4649,10 +4658,10 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4669,7 +4678,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
@@ -4687,10 +4696,10 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4709,11 +4718,11 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -4725,12 +4734,12 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
       <c r="O115" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
@@ -4750,12 +4759,12 @@
       <c r="A117" s="2"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G117" s="1"/>
       <c r="I117" s="1"/>
@@ -4770,7 +4779,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4787,7 +4796,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4805,7 +4814,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4844,7 +4853,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.81"/>
@@ -4853,36 +4862,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4916,4435 +4925,4435 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>144</v>
-      </c>
       <c r="C10" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="C41" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>171</v>
-      </c>
       <c r="C52" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C221" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B225" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="B225" s="0" t="s">
-        <v>334</v>
-      </c>
       <c r="C225" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C230" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C237" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B259" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B260" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B261" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B262" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B263" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B264" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B265" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B266" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B267" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B268" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B269" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B270" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B271" s="0" t="n">
         <v>13</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B272" s="0" t="n">
         <v>14</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B273" s="0" t="n">
         <v>15</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B274" s="0" t="n">
         <v>16</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B275" s="0" t="n">
         <v>17</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B276" s="0" t="n">
         <v>18</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B277" s="0" t="n">
         <v>19</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B278" s="0" t="n">
         <v>20</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B279" s="0" t="n">
         <v>21</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B280" s="0" t="n">
         <v>22</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B281" s="0" t="n">
         <v>23</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B282" s="0" t="n">
         <v>24</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B283" s="0" t="n">
         <v>25</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B284" s="0" t="n">
         <v>26</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B285" s="0" t="n">
         <v>27</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B286" s="0" t="n">
         <v>28</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B287" s="0" t="n">
         <v>29</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B288" s="0" t="n">
         <v>30</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B289" s="0" t="n">
         <v>31</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B290" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B291" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B292" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B293" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B294" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B295" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B296" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B297" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B298" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B299" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B300" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B301" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B302" s="0" t="n">
         <v>2021</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B303" s="0" t="n">
         <v>2020</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B304" s="0" t="n">
         <v>2019</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B305" s="0" t="n">
         <v>2018</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B306" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B307" s="0" t="n">
         <v>2016</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B308" s="0" t="n">
         <v>2015</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B309" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B310" s="0" t="n">
         <v>2013</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B311" s="0" t="n">
         <v>2012</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B312" s="0" t="n">
         <v>2011</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B313" s="0" t="n">
         <v>2010</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B314" s="0" t="n">
         <v>2009</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B315" s="0" t="n">
         <v>2008</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B316" s="0" t="n">
         <v>2007</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B317" s="0" t="n">
         <v>2006</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B318" s="0" t="n">
         <v>2005</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B319" s="0" t="n">
         <v>2004</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B320" s="0" t="n">
         <v>2003</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B321" s="0" t="n">
         <v>2002</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B322" s="0" t="n">
         <v>2001</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B323" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B324" s="0" t="n">
         <v>1999</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B325" s="0" t="n">
         <v>1998</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B326" s="0" t="n">
         <v>1997</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B327" s="0" t="n">
         <v>1996</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B328" s="0" t="n">
         <v>1995</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B329" s="0" t="n">
         <v>1994</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B330" s="0" t="n">
         <v>1993</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B331" s="0" t="n">
         <v>1992</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B332" s="0" t="n">
         <v>1991</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B333" s="0" t="n">
         <v>1990</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B334" s="0" t="n">
         <v>1989</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B335" s="0" t="n">
         <v>1988</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B336" s="0" t="n">
         <v>1987</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B337" s="0" t="n">
         <v>1986</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B338" s="0" t="n">
         <v>1985</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B339" s="0" t="n">
         <v>1984</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B340" s="0" t="n">
         <v>1983</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B341" s="0" t="n">
         <v>1982</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B342" s="0" t="n">
         <v>1981</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B343" s="0" t="n">
         <v>1980</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B344" s="0" t="n">
         <v>1979</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B345" s="0" t="n">
         <v>1978</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B346" s="0" t="n">
         <v>1977</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B347" s="0" t="n">
         <v>1976</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B348" s="0" t="n">
         <v>1975</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B349" s="0" t="n">
         <v>1974</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B350" s="0" t="n">
         <v>1973</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B351" s="0" t="n">
         <v>1972</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B352" s="0" t="n">
         <v>1971</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B353" s="0" t="n">
         <v>1970</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B354" s="0" t="n">
         <v>1969</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B355" s="0" t="n">
         <v>1968</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B356" s="0" t="n">
         <v>1967</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B357" s="0" t="n">
         <v>1966</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B358" s="0" t="n">
         <v>1965</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B359" s="0" t="n">
         <v>1964</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B360" s="0" t="n">
         <v>1963</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B361" s="0" t="n">
         <v>1962</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B362" s="0" t="n">
         <v>1961</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B363" s="0" t="n">
         <v>1960</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B364" s="0" t="n">
         <v>1959</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B365" s="0" t="n">
         <v>1958</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B366" s="0" t="n">
         <v>1957</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B367" s="0" t="n">
         <v>1956</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B368" s="0" t="n">
         <v>1955</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B369" s="0" t="n">
         <v>1954</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B370" s="0" t="n">
         <v>1953</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B371" s="0" t="n">
         <v>1952</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B372" s="0" t="n">
         <v>1951</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B373" s="0" t="n">
         <v>1950</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B374" s="0" t="n">
         <v>1949</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B375" s="0" t="n">
         <v>1948</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B376" s="0" t="n">
         <v>1947</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B377" s="0" t="n">
         <v>1946</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B378" s="0" t="n">
         <v>1945</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B379" s="0" t="n">
         <v>1944</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B380" s="0" t="n">
         <v>1943</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B381" s="0" t="n">
         <v>1942</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B382" s="0" t="n">
         <v>1941</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B383" s="0" t="n">
         <v>1940</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B384" s="0" t="n">
         <v>1939</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B385" s="0" t="n">
         <v>1938</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B386" s="0" t="n">
         <v>1937</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B387" s="0" t="n">
         <v>1936</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B388" s="0" t="n">
         <v>1935</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B389" s="0" t="n">
         <v>1934</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B390" s="0" t="n">
         <v>1933</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B391" s="0" t="n">
         <v>1932</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B392" s="0" t="n">
         <v>1931</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B393" s="0" t="n">
         <v>1930</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B394" s="0" t="n">
         <v>1929</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B395" s="0" t="n">
         <v>1928</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B396" s="0" t="n">
         <v>1927</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B397" s="0" t="n">
         <v>1926</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B398" s="0" t="n">
         <v>1925</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B399" s="0" t="n">
         <v>1924</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B400" s="0" t="n">
         <v>1923</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B401" s="0" t="n">
         <v>1922</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B402" s="0" t="n">
         <v>1921</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B403" s="0" t="n">
         <v>1920</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9385,7 +9394,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>7</v>
@@ -9394,1210 +9403,1210 @@
         <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D2" s="7"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="D3" s="7"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D4" s="7"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="7"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="7"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="7"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" s="7"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="7"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D12" s="7"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="8"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" s="8"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17" s="8"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D19" s="8"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="D21" s="8"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="8"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D27" s="9"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" s="10"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D32" s="10"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="11"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D43" s="12"/>
       <c r="F43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D46" s="12"/>
       <c r="F46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D49" s="12"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="12" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="13" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="13" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D54" s="13"/>
       <c r="F54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D56" s="13"/>
       <c r="F56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D57" s="13"/>
       <c r="F57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="13" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="13" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="13" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="13" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D64" s="13"/>
       <c r="F64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="13" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D67" s="13"/>
       <c r="F67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="13" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D69" s="13"/>
       <c r="F69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="13" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="13" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72" s="13"/>
       <c r="F72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="13" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="13" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="13" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="13" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="13" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="13" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="13" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D87" s="13"/>
       <c r="F87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="13" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="13" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="13" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="13" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D98" s="13"/>
       <c r="F98" s="6"/>
@@ -12605,7 +12614,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -12621,42 +12630,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>20210311001</v>
@@ -12665,31 +12674,31 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -12698,49 +12707,49 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -12768,14 +12777,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
@@ -12783,10 +12792,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="626">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -292,7 +292,7 @@
     <t xml:space="preserve">q15b</t>
   </si>
   <si>
-    <t xml:space="preserve">!data('id')</t>
+    <t xml:space="preserve">data('override_id') === 1</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -439,7 +439,7 @@
     <t xml:space="preserve">ajax</t>
   </si>
   <si>
-    <t xml:space="preserve">data('name') + data('surname')</t>
+    <t xml:space="preserve">{ firstName: data('name'), lastName: data('surname') }</t>
   </si>
   <si>
     <t xml:space="preserve">''</t>
@@ -1592,6 +1592,9 @@
   </si>
   <si>
     <t xml:space="preserve">extIdObj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">override_id</t>
   </si>
   <si>
     <t xml:space="preserve">form_status_hh_member</t>
@@ -2254,10 +2257,10 @@
   </sheetPr>
   <dimension ref="A1:U1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A112" activeCellId="0" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4813,22 +4816,61 @@
       <c r="N119" s="1"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="A120" s="2"/>
       <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="C120" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
+      <c r="S120" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -4849,11 +4891,11 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.81"/>
@@ -9376,7 +9418,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9479,7 +9521,9 @@
         <v>81</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="s">
@@ -9542,21 +9586,21 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="B13" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>33</v>
@@ -9566,195 +9610,195 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="D15" s="8"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D17" s="8"/>
+      <c r="E17" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
+      <c r="E19" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
+      <c r="E21" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="0" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="D26" s="8"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="9" t="s">
         <v>532</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>533</v>
+        <v>26</v>
       </c>
       <c r="D27" s="9"/>
+      <c r="E27" s="0" t="s">
+        <v>322</v>
+      </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="0" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="0" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="10"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9762,12 +9806,9 @@
         <v>536</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9775,9 +9816,12 @@
         <v>537</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D32" s="10"/>
+      <c r="E32" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9785,12 +9829,9 @@
         <v>538</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9798,145 +9839,145 @@
         <v>539</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="0" t="s">
+      <c r="D36" s="11"/>
+      <c r="E36" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="11"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="0" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="B41" s="8" t="s">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8" t="s">
         <v>543</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="B43" s="12" t="s">
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="12" t="s">
         <v>546</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D44" s="12"/>
-      <c r="E44" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9944,11 +9985,11 @@
         <v>547</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="0" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="F45" s="6"/>
     </row>
@@ -9957,9 +9998,12 @@
         <v>548</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="D46" s="12"/>
+      <c r="E46" s="0" t="s">
+        <v>119</v>
+      </c>
       <c r="F46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9967,12 +10011,9 @@
         <v>549</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D47" s="12"/>
-      <c r="E47" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9984,7 +10025,7 @@
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="0" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="F48" s="6"/>
     </row>
@@ -9993,9 +10034,12 @@
         <v>551</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D49" s="12"/>
+      <c r="E49" s="0" t="s">
+        <v>179</v>
+      </c>
       <c r="F49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10003,31 +10047,28 @@
         <v>552</v>
       </c>
       <c r="C50" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="0" t="s">
+      <c r="D51" s="12"/>
+      <c r="E51" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="B51" s="13" t="s">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="13" t="s">
         <v>555</v>
       </c>
@@ -10058,22 +10099,22 @@
         <v>557</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>558</v>
+        <v>26</v>
       </c>
       <c r="D54" s="13"/>
+      <c r="E54" s="0" t="s">
+        <v>143</v>
+      </c>
       <c r="F54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="D55" s="13"/>
-      <c r="E55" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="F55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10081,9 +10122,12 @@
         <v>560</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>558</v>
+        <v>26</v>
       </c>
       <c r="D56" s="13"/>
+      <c r="E56" s="0" t="s">
+        <v>143</v>
+      </c>
       <c r="F56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10091,7 +10135,7 @@
         <v>561</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D57" s="13"/>
       <c r="F57" s="6"/>
@@ -10101,12 +10145,9 @@
         <v>562</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>26</v>
+        <v>559</v>
       </c>
       <c r="D58" s="13"/>
-      <c r="E58" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="F58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10118,46 +10159,46 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="0" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="13" t="s">
-        <v>239</v>
+        <v>564</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="0" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
       <c r="F60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="13" t="s">
-        <v>564</v>
+        <v>239</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>565</v>
+        <v>26</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="0" t="s">
-        <v>566</v>
+        <v>239</v>
       </c>
       <c r="F61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>60</v>
+        <v>566</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="0" t="s">
-        <v>349</v>
+        <v>567</v>
       </c>
       <c r="F62" s="6"/>
     </row>
@@ -10170,7 +10211,7 @@
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="0" t="s">
-        <v>193</v>
+        <v>349</v>
       </c>
       <c r="F63" s="6"/>
     </row>
@@ -10179,9 +10220,12 @@
         <v>569</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D64" s="13"/>
+      <c r="E64" s="0" t="s">
+        <v>193</v>
+      </c>
       <c r="F64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10189,12 +10233,9 @@
         <v>570</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D65" s="13"/>
-      <c r="E65" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="F65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10202,11 +10243,11 @@
         <v>571</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="0" t="s">
-        <v>288</v>
+        <v>119</v>
       </c>
       <c r="F66" s="6"/>
     </row>
@@ -10215,9 +10256,12 @@
         <v>572</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D67" s="13"/>
+      <c r="E67" s="0" t="s">
+        <v>288</v>
+      </c>
       <c r="F67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10225,12 +10269,9 @@
         <v>573</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D68" s="13"/>
-      <c r="E68" s="0" t="s">
-        <v>293</v>
-      </c>
       <c r="F68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10238,9 +10279,12 @@
         <v>574</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D69" s="13"/>
+      <c r="E69" s="0" t="s">
+        <v>293</v>
+      </c>
       <c r="F69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10248,12 +10292,9 @@
         <v>575</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D70" s="13"/>
-      <c r="E70" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="F70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10261,11 +10302,11 @@
         <v>576</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="0" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="F71" s="6"/>
     </row>
@@ -10274,9 +10315,12 @@
         <v>577</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D72" s="13"/>
+      <c r="E72" s="0" t="s">
+        <v>225</v>
+      </c>
       <c r="F72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10284,12 +10328,9 @@
         <v>578</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D73" s="13"/>
-      <c r="E73" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="F73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10301,7 +10342,7 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="0" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="F74" s="6"/>
     </row>
@@ -10314,7 +10355,7 @@
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="0" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
       <c r="F75" s="6"/>
     </row>
@@ -10327,7 +10368,7 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="0" t="s">
-        <v>262</v>
+        <v>119</v>
       </c>
       <c r="F76" s="6"/>
     </row>
@@ -10336,11 +10377,11 @@
         <v>582</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="0" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="F77" s="6"/>
     </row>
@@ -10353,7 +10394,7 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="0" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="F78" s="6"/>
     </row>
@@ -10362,11 +10403,11 @@
         <v>584</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="0" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="F79" s="6"/>
     </row>
@@ -10405,7 +10446,7 @@
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="0" t="s">
-        <v>258</v>
+        <v>146</v>
       </c>
       <c r="F82" s="6"/>
     </row>
@@ -10418,7 +10459,7 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="0" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="F83" s="6"/>
     </row>
@@ -10431,7 +10472,7 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="0" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="F84" s="6"/>
     </row>
@@ -10444,7 +10485,7 @@
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="0" t="s">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="F85" s="6"/>
     </row>
@@ -10457,7 +10498,7 @@
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="0" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
       <c r="F86" s="6"/>
     </row>
@@ -10466,9 +10507,12 @@
         <v>592</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="D87" s="13"/>
+      <c r="E87" s="0" t="s">
+        <v>119</v>
+      </c>
       <c r="F87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10476,37 +10520,34 @@
         <v>593</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="D88" s="13"/>
-      <c r="E88" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="F88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="13" t="s">
-        <v>336</v>
+        <v>594</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="0" t="s">
-        <v>336</v>
+        <v>61</v>
       </c>
       <c r="F89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="13" t="s">
-        <v>594</v>
+        <v>336</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="0" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F90" s="6"/>
     </row>
@@ -10515,11 +10556,11 @@
         <v>595</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="0" t="s">
-        <v>161</v>
+        <v>330</v>
       </c>
       <c r="F91" s="6"/>
     </row>
@@ -10528,11 +10569,11 @@
         <v>596</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="0" t="s">
-        <v>325</v>
+        <v>161</v>
       </c>
       <c r="F92" s="6"/>
     </row>
@@ -10545,7 +10586,7 @@
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="0" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F93" s="6"/>
     </row>
@@ -10554,11 +10595,11 @@
         <v>598</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="0" t="s">
-        <v>173</v>
+        <v>337</v>
       </c>
       <c r="F94" s="6"/>
     </row>
@@ -10567,37 +10608,37 @@
         <v>599</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="0" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="F95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="13" t="s">
-        <v>338</v>
+        <v>600</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="0" t="s">
-        <v>338</v>
+        <v>143</v>
       </c>
       <c r="F96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="13" t="s">
-        <v>600</v>
+        <v>338</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="0" t="s">
-        <v>148</v>
+        <v>338</v>
       </c>
       <c r="F97" s="6"/>
     </row>
@@ -10606,12 +10647,22 @@
         <v>601</v>
       </c>
       <c r="C98" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="13"/>
+      <c r="E98" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="13"/>
-      <c r="F98" s="6"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D99" s="13"/>
       <c r="F99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12591,7 +12642,9 @@
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F758" s="6"/>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F759" s="6"/>
+    </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12630,75 +12683,75 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="14" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B3" s="6" t="n">
-        <v>20210311001</v>
+        <v>20210323001</v>
       </c>
       <c r="C3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -12707,49 +12760,49 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -12777,14 +12830,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>

--- a/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
+++ b/odkx/app/config/tables/hh_member/forms/hh_member_new/hh_member_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -898,7 +898,7 @@
     <t xml:space="preserve">Malaria</t>
   </si>
   <si>
-    <t xml:space="preserve">Constipation</t>
+    <t xml:space="preserve">Cold</t>
   </si>
   <si>
     <t xml:space="preserve">Fever</t>
@@ -2242,7 +2242,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4876,7 +4876,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4891,11 +4891,11 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.81"/>
@@ -4939,7 +4939,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4954,8 +4954,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B91" activeCellId="0" sqref="B91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A161" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B171" activeCellId="0" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9402,7 +9402,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -12652,7 +12652,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -12811,7 +12811,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -12830,7 +12830,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.46"/>
   </cols>
@@ -12854,7 +12854,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
